--- a/data/amiris/amiris_data_structure.xlsx
+++ b/data/amiris/amiris_data_structure.xlsx
@@ -13,6 +13,7 @@
     <sheet name="renewables" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="storages" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="scenario_data_emlab" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="times" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -21,7 +22,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <name val="Calibri"/>
@@ -81,7 +85,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -89,6 +93,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12430,7 +12435,7 @@
       </c>
       <c r="C1" s="4" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>StorageType</t>
         </is>
       </c>
       <c r="D1" s="4" t="inlineStr">
@@ -12526,7 +12531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12545,130 +12550,140 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>StartTime</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>['01-01-2025']</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t>Co2Prices</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>36.31999999999999</v>
+      </c>
+      <c r="C2" t="n">
+        <v>40.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>StopTime</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>['31-12-2025']</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t>FuelPrice_NUCLEAR</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>Co2Prices</t>
+          <t>FuelPrice_LIGNITE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.31999999999999</v>
+        <v>3.96</v>
       </c>
       <c r="C4" t="n">
-        <v>40.3</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>FuelPrice_NUCLEAR</t>
+          <t>FuelPrice_HARD_COAL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.69</v>
+        <v>13.616</v>
       </c>
       <c r="C5" t="n">
-        <v>1.69</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>FuelPrice_LIGNITE</t>
+          <t>FuelPrice_NATURAL_GAS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.96</v>
+        <v>21.392</v>
       </c>
       <c r="C6" t="n">
-        <v>3.96</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>FuelPrice_HARD_COAL</t>
+          <t>FuelPrice_OIL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.616</v>
+        <v>53.136</v>
       </c>
       <c r="C7" t="n">
-        <v>14.32</v>
+        <v>54.81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>FuelPrice_NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>21.392</v>
-      </c>
-      <c r="C8" t="n">
-        <v>21.7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>FuelPrice_OIL</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>53.136</v>
-      </c>
-      <c r="C9" t="n">
-        <v>54.81</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
           <t>DemandSeries</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>./timeseries/demand/load.csv</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>./timeseries/demand/load.csv</t>
         </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>StartTime</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>45657.99861111111</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>StopTime</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>46021.99861111111</v>
       </c>
     </row>
   </sheetData>

--- a/data/amiris/amiris_data_structure.xlsx
+++ b/data/amiris/amiris_data_structure.xlsx
@@ -25,8 +25,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -107,7 +107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -119,7 +119,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1165,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>20151700021</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1190,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>20013000022</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1215,7 +1216,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>20001700023</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1240,7 +1241,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>19892800024</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1265,7 +1266,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>20140300037</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1290,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>20120300038</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1315,7 +1316,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>20080300039</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1340,7 +1341,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>20060300040</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1365,7 +1366,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>20040300041</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1390,7 +1391,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>20020300042</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1415,7 +1416,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>20000300043</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1440,7 +1441,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>20092800044</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1465,7 +1466,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>20002800045</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1490,7 +1491,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>20033000046</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1515,7 +1516,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>20113000047</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1540,7 +1541,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>20062900048</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1565,7 +1566,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>20032900049</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1590,7 +1591,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20072900051</v>
+        <v>20062900051</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1615,7 +1616,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19882900052</v>
+        <v>19872900052</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1640,7 +1641,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20112900053</v>
+        <v>20102900053</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1665,7 +1666,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19832900054</v>
+        <v>19822900054</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1690,7 +1691,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>19892900055</v>
+        <v>19882900055</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1715,7 +1716,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>19862900056</v>
+        <v>19852900056</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1740,7 +1741,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>19822900058</v>
+        <v>19812900058</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1765,7 +1766,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19881400059</v>
+        <v>19871400059</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1790,7 +1791,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19842900060</v>
+        <v>19832900060</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1815,7 +1816,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20130300061</v>
+        <v>20120300061</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1840,7 +1841,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>19981700062</v>
+        <v>19971700062</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1865,7 +1866,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20100300063</v>
+        <v>20090300063</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1890,7 +1891,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20120300065</v>
+        <v>20110300065</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1915,7 +1916,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20153000066</v>
+        <v>20143000066</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1940,7 +1941,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20013000067</v>
+        <v>20003000067</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1965,7 +1966,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>19920300068</v>
+        <v>19910300068</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1990,7 +1991,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19950300069</v>
+        <v>19940300069</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2015,7 +2016,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19943000070</v>
+        <v>19933000070</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2040,7 +2041,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>19953000071</v>
+        <v>19943000071</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2065,7 +2066,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20163000072</v>
+        <v>20153000072</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2090,7 +2091,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>19991700073</v>
+        <v>19981700073</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2115,7 +2116,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20030300074</v>
+        <v>20020300074</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2140,7 +2141,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>19941700075</v>
+        <v>19931700075</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2165,7 +2166,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>19941700076</v>
+        <v>19931700076</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2190,7 +2191,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>19970300077</v>
+        <v>19960300077</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2215,7 +2216,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>19950300078</v>
+        <v>19940300078</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2240,7 +2241,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>19862800081</v>
+        <v>19852800081</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2265,7 +2266,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20191700082</v>
+        <v>20181700082</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2290,7 +2291,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20021700083</v>
+        <v>20011700083</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2315,7 +2316,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>19872900084</v>
+        <v>19862900084</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2340,7 +2341,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>19962900085</v>
+        <v>19952900085</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2365,7 +2366,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20082900086</v>
+        <v>20072900086</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2390,7 +2391,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20032800087</v>
+        <v>20022800087</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2415,7 +2416,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20132800088</v>
+        <v>20122800088</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2440,7 +2441,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>19892800089</v>
+        <v>19882800089</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2465,7 +2466,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20030300090</v>
+        <v>20020300090</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2490,7 +2491,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>19952800091</v>
+        <v>19942800091</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2515,7 +2516,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>19922800092</v>
+        <v>19912800092</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2540,7 +2541,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20052800093</v>
+        <v>20042800093</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2565,7 +2566,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20112800094</v>
+        <v>20102800094</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2590,7 +2591,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20133000095</v>
+        <v>20123000095</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2615,7 +2616,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>19961700096</v>
+        <v>19951700096</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2640,7 +2641,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20001700097</v>
+        <v>19991700097</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2665,7 +2666,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20060300098</v>
+        <v>20050300098</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2690,7 +2691,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>19941700099</v>
+        <v>19931700099</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2715,7 +2716,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>19981400101</v>
+        <v>19971400101</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2740,7 +2741,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20050300102</v>
+        <v>20040300102</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2765,7 +2766,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>19972800103</v>
+        <v>19962800103</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2790,7 +2791,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>19842800104</v>
+        <v>19832800104</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2815,7 +2816,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20161700105</v>
+        <v>20151700105</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2840,7 +2841,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20141700106</v>
+        <v>20131700106</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2865,7 +2866,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>19941700107</v>
+        <v>19931700107</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2890,7 +2891,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20051700108</v>
+        <v>20041700108</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2915,7 +2916,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20061700109</v>
+        <v>20051700109</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2940,7 +2941,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>19921400111</v>
+        <v>19911400111</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2965,7 +2966,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>19960300112</v>
+        <v>19950300112</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2990,7 +2991,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>19990300113</v>
+        <v>19980300113</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -3015,7 +3016,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>20070300114</v>
+        <v>20060300114</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -3040,7 +3041,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>20060300115</v>
+        <v>20050300115</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -3065,7 +3066,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>20070300116</v>
+        <v>20060300116</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -3090,7 +3091,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>20090300117</v>
+        <v>20080300117</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -3115,7 +3116,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>19930300118</v>
+        <v>19920300118</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -3140,7 +3141,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>20020300119</v>
+        <v>20010300119</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -3165,7 +3166,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>20170300120</v>
+        <v>20160300120</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -3190,7 +3191,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>20060300121</v>
+        <v>20050300121</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -3215,7 +3216,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>20141700122</v>
+        <v>20131700122</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -3240,7 +3241,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>20030300123</v>
+        <v>20020300123</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -3265,7 +3266,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>20122800124</v>
+        <v>20112800124</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -3290,7 +3291,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>19991700125</v>
+        <v>19981700125</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -3315,7 +3316,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>20160300126</v>
+        <v>20150300126</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -3340,7 +3341,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>20201700127</v>
+        <v>20191700127</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -3365,7 +3366,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>20110300128</v>
+        <v>20100300128</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -3390,7 +3391,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>20132800129</v>
+        <v>20122800129</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -3415,7 +3416,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>19950300130</v>
+        <v>19940300130</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -3440,7 +3441,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>20140300131</v>
+        <v>20130300131</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -3465,7 +3466,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>20000300132</v>
+        <v>19990300132</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -3490,7 +3491,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>20170300133</v>
+        <v>20160300133</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -3515,7 +3516,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>20130300134</v>
+        <v>20120300134</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -3540,7 +3541,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>20011700135</v>
+        <v>20001700135</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -3565,7 +3566,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>19960300136</v>
+        <v>19950300136</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -3590,7 +3591,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>20130300137</v>
+        <v>20120300137</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -3615,7 +3616,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>19950300138</v>
+        <v>19940300138</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -3640,7 +3641,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>19842800139</v>
+        <v>19832800139</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -3665,7 +3666,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>20182800140</v>
+        <v>20172800140</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -3690,7 +3691,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>20031700141</v>
+        <v>20021700141</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -3715,7 +3716,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>19981700142</v>
+        <v>19971700142</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -3740,7 +3741,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>20090300143</v>
+        <v>20080300143</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -3765,7 +3766,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>19921700144</v>
+        <v>19911700144</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -3790,7 +3791,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>19922800146</v>
+        <v>19912800146</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -3815,7 +3816,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>20162800147</v>
+        <v>20152800147</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -3840,7 +3841,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>19872800148</v>
+        <v>19862800148</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -3865,7 +3866,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>20061700149</v>
+        <v>20051700149</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -3890,7 +3891,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>20061700150</v>
+        <v>20051700150</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -3915,7 +3916,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>20021700151</v>
+        <v>20011700151</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -3940,7 +3941,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>20121700152</v>
+        <v>20111700152</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -3965,7 +3966,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>20010300153</v>
+        <v>20000300153</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -3990,7 +3991,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>19990300154</v>
+        <v>19980300154</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -4015,7 +4016,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>20072800155</v>
+        <v>20062800155</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -4040,7 +4041,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>19982800156</v>
+        <v>19972800156</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -4065,7 +4066,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>20172800157</v>
+        <v>20162800157</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -4090,7 +4091,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>20201700158</v>
+        <v>20191700158</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -4115,7 +4116,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>19970300159</v>
+        <v>19960300159</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -4140,7 +4141,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>20001700160</v>
+        <v>19991700160</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -4165,7 +4166,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>20020300161</v>
+        <v>20010300161</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -4190,7 +4191,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>19892800162</v>
+        <v>19882800162</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -4215,7 +4216,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>20101700165</v>
+        <v>20091700165</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -4240,7 +4241,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>20133000166</v>
+        <v>20123000166</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -4265,7 +4266,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>20173000167</v>
+        <v>20163000167</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -4290,7 +4291,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>20201700168</v>
+        <v>20191700168</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -4315,7 +4316,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>20043000170</v>
+        <v>20033000170</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -4340,7 +4341,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>20153000171</v>
+        <v>20143000171</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -4365,7 +4366,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>19852800172</v>
+        <v>19842800172</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -4390,7 +4391,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>20110300173</v>
+        <v>20100300173</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -4415,7 +4416,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>20173000174</v>
+        <v>20163000174</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -4440,7 +4441,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>19923000175</v>
+        <v>19913000175</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -4465,7 +4466,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>19951700176</v>
+        <v>19941700176</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -4490,7 +4491,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>19831400177</v>
+        <v>19821400177</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -4515,7 +4516,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>20053000178</v>
+        <v>20043000178</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -4540,7 +4541,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>19872800180</v>
+        <v>19862800180</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -4565,7 +4566,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>20142800181</v>
+        <v>20132800181</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -4590,7 +4591,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>19882800182</v>
+        <v>19872800182</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -4615,7 +4616,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>19822800183</v>
+        <v>19812800183</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -4640,7 +4641,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>20181700184</v>
+        <v>20171700184</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -4665,7 +4666,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>20152800185</v>
+        <v>20142800185</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -4690,7 +4691,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>20132800186</v>
+        <v>20122800186</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -4715,7 +4716,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>20082900187</v>
+        <v>20072900187</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -4740,7 +4741,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>19942900188</v>
+        <v>19932900188</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -4765,7 +4766,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>20052900189</v>
+        <v>20042900189</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -4790,7 +4791,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>19862900190</v>
+        <v>19852900190</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -4815,7 +4816,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>20102900191</v>
+        <v>20092900191</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -4840,7 +4841,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>20122900192</v>
+        <v>20112900192</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -4865,7 +4866,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>20010300193</v>
+        <v>20000300193</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -4890,7 +4891,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>19952800194</v>
+        <v>19942800194</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -4915,7 +4916,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>20062800195</v>
+        <v>20052800195</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -4940,7 +4941,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>20123000196</v>
+        <v>20113000196</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -4965,7 +4966,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>20083000197</v>
+        <v>20073000197</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -4990,7 +4991,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>19912800198</v>
+        <v>19902800198</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -5015,7 +5016,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>19992800199</v>
+        <v>19982800199</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -5040,7 +5041,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>20172800200</v>
+        <v>20162800200</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -5065,7 +5066,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>19942800201</v>
+        <v>19932800201</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -5090,7 +5091,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>20102800202</v>
+        <v>20092800202</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -5115,7 +5116,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>19962800203</v>
+        <v>19952800203</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -5140,7 +5141,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>20011700204</v>
+        <v>20001700204</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -5165,7 +5166,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>20152800205</v>
+        <v>20142800205</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -5190,7 +5191,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>19861400207</v>
+        <v>19851400207</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -5215,7 +5216,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>19851400208</v>
+        <v>19841400208</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -5240,7 +5241,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>19881400209</v>
+        <v>19871400209</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -5265,7 +5266,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>19901400210</v>
+        <v>19891400210</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -5290,7 +5291,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>19970300211</v>
+        <v>19960300211</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -5315,7 +5316,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>19992900212</v>
+        <v>19982900212</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -5340,7 +5341,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>20010300213</v>
+        <v>20000300213</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -5365,7 +5366,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>20030300214</v>
+        <v>20020300214</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -5390,7 +5391,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>20132800216</v>
+        <v>20122800216</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -5415,7 +5416,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>19982800217</v>
+        <v>19972800217</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -5440,7 +5441,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>19822800218</v>
+        <v>19812800218</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -5465,7 +5466,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>19862800219</v>
+        <v>19852800219</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -5490,7 +5491,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>20150300220</v>
+        <v>20140300220</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -5515,7 +5516,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>19950300221</v>
+        <v>19940300221</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -5540,7 +5541,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>20201700222</v>
+        <v>20191700222</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -5565,7 +5566,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>20070300223</v>
+        <v>20060300223</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -5590,7 +5591,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>20051700224</v>
+        <v>20041700224</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -5615,7 +5616,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>20120300225</v>
+        <v>20110300225</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -5640,7 +5641,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>19912800226</v>
+        <v>19902800226</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -5665,7 +5666,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>20050300227</v>
+        <v>20040300227</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -5690,7 +5691,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>19963000228</v>
+        <v>19953000228</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -5715,7 +5716,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>20073000229</v>
+        <v>20063000229</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -5740,7 +5741,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>20140300230</v>
+        <v>20130300230</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -5765,7 +5766,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>20183000232</v>
+        <v>20173000232</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -5790,7 +5791,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>19912800233</v>
+        <v>19902800233</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -5815,7 +5816,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>19962800234</v>
+        <v>19952800234</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -5840,7 +5841,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>20073000235</v>
+        <v>20063000235</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -5865,7 +5866,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>20172800236</v>
+        <v>20162800236</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -5890,7 +5891,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>19992800237</v>
+        <v>19982800237</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -5915,7 +5916,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>19941700239</v>
+        <v>19931700239</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -5940,7 +5941,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>20101700240</v>
+        <v>20091700240</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -5965,7 +5966,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>20201700241</v>
+        <v>20191700241</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -5990,7 +5991,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>20121700242</v>
+        <v>20111700242</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -6015,7 +6016,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>19842900243</v>
+        <v>19832900243</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -6040,7 +6041,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>20100300245</v>
+        <v>20090300245</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -6065,7 +6066,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>19832800246</v>
+        <v>19822800246</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -6090,7 +6091,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>19992800247</v>
+        <v>19982800247</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -6115,7 +6116,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>20172800248</v>
+        <v>20162800248</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -6140,7 +6141,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>19992800249</v>
+        <v>19982800249</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -6165,7 +6166,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>20022900251</v>
+        <v>20012900251</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -6190,7 +6191,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>19862900252</v>
+        <v>19852900252</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -6215,7 +6216,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>20082900253</v>
+        <v>20072900253</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -6240,7 +6241,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>19952900254</v>
+        <v>19942900254</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -6265,7 +6266,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>19842900255</v>
+        <v>19832900255</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -6290,7 +6291,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>20182900256</v>
+        <v>20172900256</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -6315,7 +6316,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>19832900257</v>
+        <v>19822900257</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -6340,7 +6341,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>20092900258</v>
+        <v>20082900258</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -6365,7 +6366,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>19822900259</v>
+        <v>19812900259</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -6390,7 +6391,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>20022900260</v>
+        <v>20012900260</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -6415,7 +6416,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>20162900261</v>
+        <v>20152900261</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -6440,7 +6441,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>20172900262</v>
+        <v>20162900262</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -6465,7 +6466,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>19902900263</v>
+        <v>19892900263</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -6490,7 +6491,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>19992900264</v>
+        <v>19982900264</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -6515,7 +6516,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>19912800265</v>
+        <v>19902800265</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -6540,7 +6541,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>20170300266</v>
+        <v>20160300266</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -6565,7 +6566,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>19941700298</v>
+        <v>19931700298</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -6590,7 +6591,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>19993000314</v>
+        <v>19983000314</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -6615,7 +6616,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>19923000315</v>
+        <v>19913000315</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -6640,7 +6641,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>20132800316</v>
+        <v>20122800316</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -6665,7 +6666,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>20052800317</v>
+        <v>20042800317</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -6690,7 +6691,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>20162800318</v>
+        <v>20152800318</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -6715,7 +6716,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>19892800319</v>
+        <v>19882800319</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -6740,7 +6741,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>19892800320</v>
+        <v>19882800320</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -6765,7 +6766,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>20040300321</v>
+        <v>20030300321</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -6790,7 +6791,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>20092900323</v>
+        <v>20082900323</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -6815,7 +6816,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>20032900324</v>
+        <v>20022900324</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -6840,7 +6841,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>20132800325</v>
+        <v>20122800325</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -6865,7 +6866,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>19922800326</v>
+        <v>19912800326</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -6890,7 +6891,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>19842900327</v>
+        <v>19832900327</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -6915,7 +6916,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>19822900328</v>
+        <v>19812900328</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -6940,7 +6941,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>20042800331</v>
+        <v>20032800331</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -6965,7 +6966,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>20063000332</v>
+        <v>20053000332</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -6990,7 +6991,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>20173000333</v>
+        <v>20163000333</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -7015,7 +7016,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>19973000334</v>
+        <v>19963000334</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -7040,7 +7041,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>20071700336</v>
+        <v>20061700336</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -7065,7 +7066,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>20071700337</v>
+        <v>20061700337</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -7090,7 +7091,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>20111700338</v>
+        <v>20101700338</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -7115,7 +7116,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>20091700339</v>
+        <v>20081700339</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -7140,7 +7141,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>20071700340</v>
+        <v>20061700340</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -7165,7 +7166,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>20051700341</v>
+        <v>20041700341</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -7190,7 +7191,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>20031700342</v>
+        <v>20021700342</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -7215,7 +7216,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>20043000363</v>
+        <v>20033000363</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -7240,7 +7241,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>20092800364</v>
+        <v>20082800364</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -7265,7 +7266,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>19941700365</v>
+        <v>19931700365</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -7290,7 +7291,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>20080300367</v>
+        <v>20070300367</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -7315,7 +7316,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>20010300368</v>
+        <v>20000300368</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -7340,7 +7341,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>20060300369</v>
+        <v>20050300369</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -7365,7 +7366,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>20160300370</v>
+        <v>20150300370</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -7390,7 +7391,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>19980300371</v>
+        <v>19970300371</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -7415,7 +7416,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>20070300372</v>
+        <v>20060300372</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -7440,7 +7441,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>20132800373</v>
+        <v>20122800373</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -7465,7 +7466,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>20020300374</v>
+        <v>20010300374</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -7490,7 +7491,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>19920300375</v>
+        <v>19910300375</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -7515,7 +7516,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>19912800376</v>
+        <v>19902800376</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -7540,7 +7541,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>20011700378</v>
+        <v>20001700378</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -7565,7 +7566,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>19940300379</v>
+        <v>19930300379</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -7590,7 +7591,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>20002800383</v>
+        <v>19992800383</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -7615,7 +7616,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>19872800384</v>
+        <v>19862800384</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -7640,7 +7641,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>20182800386</v>
+        <v>20172800386</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -7665,7 +7666,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>20022900387</v>
+        <v>20012900387</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -7690,7 +7691,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>20102900388</v>
+        <v>20092900388</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -7715,7 +7716,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>19852900389</v>
+        <v>19842900389</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -7740,7 +7741,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>20022900390</v>
+        <v>20012900390</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -7765,7 +7766,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>19961700391</v>
+        <v>19951700391</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -7790,7 +7791,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>20191700392</v>
+        <v>20181700392</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -7815,7 +7816,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>20172800394</v>
+        <v>20162800394</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -7840,7 +7841,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>20042800395</v>
+        <v>20032800395</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -7865,7 +7866,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>20032800396</v>
+        <v>20022800396</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -7890,7 +7891,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>20033000397</v>
+        <v>20023000397</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -7915,7 +7916,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>19941700398</v>
+        <v>19931700398</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -7940,7 +7941,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>20052800400</v>
+        <v>20042800400</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -8026,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19721200050</v>
+        <v>19711200050</v>
       </c>
       <c r="C2" t="n">
         <v>79.8</v>
@@ -8065,7 +8066,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19981200057</v>
+        <v>19971200057</v>
       </c>
       <c r="C3" t="n">
         <v>50</v>
@@ -8104,7 +8105,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19881200080</v>
+        <v>19871200080</v>
       </c>
       <c r="C4" t="n">
         <v>220</v>
@@ -8143,7 +8144,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20041200100</v>
+        <v>20031200100</v>
       </c>
       <c r="C5" t="n">
         <v>119.1</v>
@@ -8182,7 +8183,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20081200110</v>
+        <v>20071200110</v>
       </c>
       <c r="C6" t="n">
         <v>1052</v>
@@ -8221,7 +8222,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19971200145</v>
+        <v>19961200145</v>
       </c>
       <c r="C7" t="n">
         <v>160</v>
@@ -8260,7 +8261,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19991200163</v>
+        <v>19981200163</v>
       </c>
       <c r="C8" t="n">
         <v>59.8</v>
@@ -8299,7 +8300,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19741200164</v>
+        <v>19731200164</v>
       </c>
       <c r="C9" t="n">
         <v>317.8</v>
@@ -8338,7 +8339,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19781200169</v>
+        <v>19771200169</v>
       </c>
       <c r="C10" t="n">
         <v>100</v>
@@ -8377,7 +8378,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19881200179</v>
+        <v>19871200179</v>
       </c>
       <c r="C11" t="n">
         <v>66</v>
@@ -8416,7 +8417,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19761200206</v>
+        <v>19751200206</v>
       </c>
       <c r="C12" t="n">
         <v>53.7</v>
@@ -8455,7 +8456,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19811200215</v>
+        <v>19801200215</v>
       </c>
       <c r="C13" t="n">
         <v>153</v>
@@ -8494,7 +8495,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19871200231</v>
+        <v>19861200231</v>
       </c>
       <c r="C14" t="n">
         <v>150</v>
@@ -8533,7 +8534,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20041200238</v>
+        <v>20031200238</v>
       </c>
       <c r="C15" t="n">
         <v>99</v>
@@ -8572,7 +8573,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20031200244</v>
+        <v>20021200244</v>
       </c>
       <c r="C16" t="n">
         <v>1045.2</v>
@@ -8611,7 +8612,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20172300267</v>
+        <v>20162300267</v>
       </c>
       <c r="C17" t="n">
         <v>500</v>
@@ -8650,7 +8651,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20172300268</v>
+        <v>20162300268</v>
       </c>
       <c r="C18" t="n">
         <v>500</v>
@@ -8689,7 +8690,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20192300269</v>
+        <v>20182300269</v>
       </c>
       <c r="C19" t="n">
         <v>500</v>
@@ -8728,7 +8729,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20152300270</v>
+        <v>20142300270</v>
       </c>
       <c r="C20" t="n">
         <v>500</v>
@@ -8767,7 +8768,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20172300271</v>
+        <v>20162300271</v>
       </c>
       <c r="C21" t="n">
         <v>500</v>
@@ -8806,7 +8807,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20152300272</v>
+        <v>20142300272</v>
       </c>
       <c r="C22" t="n">
         <v>500</v>
@@ -8845,7 +8846,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20092400273</v>
+        <v>20082400273</v>
       </c>
       <c r="C23" t="n">
         <v>1815</v>
@@ -8884,7 +8885,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20152400274</v>
+        <v>20142400274</v>
       </c>
       <c r="C24" t="n">
         <v>1815</v>
@@ -8923,7 +8924,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20122400275</v>
+        <v>20112400275</v>
       </c>
       <c r="C25" t="n">
         <v>1815</v>
@@ -8962,7 +8963,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20122400276</v>
+        <v>20112400276</v>
       </c>
       <c r="C26" t="n">
         <v>1815</v>
@@ -9001,7 +9002,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20202400277</v>
+        <v>20192400277</v>
       </c>
       <c r="C27" t="n">
         <v>1815</v>
@@ -9040,7 +9041,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20142400278</v>
+        <v>20132400278</v>
       </c>
       <c r="C28" t="n">
         <v>1815</v>
@@ -9079,7 +9080,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20182400279</v>
+        <v>20172400279</v>
       </c>
       <c r="C29" t="n">
         <v>1815</v>
@@ -9118,7 +9119,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20182400280</v>
+        <v>20172400280</v>
       </c>
       <c r="C30" t="n">
         <v>1815</v>
@@ -9157,7 +9158,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20092400281</v>
+        <v>20082400281</v>
       </c>
       <c r="C31" t="n">
         <v>1815</v>
@@ -9196,7 +9197,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20112400282</v>
+        <v>20102400282</v>
       </c>
       <c r="C32" t="n">
         <v>1815</v>
@@ -9235,7 +9236,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20102400283</v>
+        <v>20092400283</v>
       </c>
       <c r="C33" t="n">
         <v>1815</v>
@@ -9274,7 +9275,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20192400284</v>
+        <v>20182400284</v>
       </c>
       <c r="C34" t="n">
         <v>1815</v>
@@ -9313,7 +9314,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20132400285</v>
+        <v>20122400285</v>
       </c>
       <c r="C35" t="n">
         <v>1815</v>
@@ -9352,7 +9353,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>20102400286</v>
+        <v>20092400286</v>
       </c>
       <c r="C36" t="n">
         <v>1000</v>
@@ -9391,7 +9392,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20082400287</v>
+        <v>20072400287</v>
       </c>
       <c r="C37" t="n">
         <v>1000</v>
@@ -9430,7 +9431,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20062400288</v>
+        <v>20052400288</v>
       </c>
       <c r="C38" t="n">
         <v>1000</v>
@@ -9469,7 +9470,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20122400289</v>
+        <v>20112400289</v>
       </c>
       <c r="C39" t="n">
         <v>1000</v>
@@ -9508,7 +9509,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20142400290</v>
+        <v>20132400290</v>
       </c>
       <c r="C40" t="n">
         <v>1000</v>
@@ -9547,7 +9548,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20182400291</v>
+        <v>20172400291</v>
       </c>
       <c r="C41" t="n">
         <v>1815</v>
@@ -9586,7 +9587,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20192400292</v>
+        <v>20182400292</v>
       </c>
       <c r="C42" t="n">
         <v>1815</v>
@@ -9625,7 +9626,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20152400293</v>
+        <v>20142400293</v>
       </c>
       <c r="C43" t="n">
         <v>1815</v>
@@ -9664,7 +9665,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20092400294</v>
+        <v>20082400294</v>
       </c>
       <c r="C44" t="n">
         <v>1815</v>
@@ -9703,7 +9704,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20162400295</v>
+        <v>20152400295</v>
       </c>
       <c r="C45" t="n">
         <v>1815</v>
@@ -9742,7 +9743,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20122400296</v>
+        <v>20112400296</v>
       </c>
       <c r="C46" t="n">
         <v>1815</v>
@@ -9781,7 +9782,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20132400297</v>
+        <v>20122400297</v>
       </c>
       <c r="C47" t="n">
         <v>1815</v>
@@ -9820,7 +9821,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>19951200299</v>
+        <v>19941200299</v>
       </c>
       <c r="C48" t="n">
         <v>164</v>
@@ -9859,7 +9860,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>19771200300</v>
+        <v>19761200300</v>
       </c>
       <c r="C49" t="n">
         <v>196</v>
@@ -9898,7 +9899,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20091200301</v>
+        <v>20081200301</v>
       </c>
       <c r="C50" t="n">
         <v>100</v>
@@ -9937,7 +9938,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>19851200302</v>
+        <v>19841200302</v>
       </c>
       <c r="C51" t="n">
         <v>100</v>
@@ -9976,7 +9977,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>19861200303</v>
+        <v>19851200303</v>
       </c>
       <c r="C52" t="n">
         <v>195</v>
@@ -10015,7 +10016,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20081200304</v>
+        <v>20071200304</v>
       </c>
       <c r="C53" t="n">
         <v>100</v>
@@ -10054,7 +10055,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>19931200305</v>
+        <v>19921200305</v>
       </c>
       <c r="C54" t="n">
         <v>100</v>
@@ -10093,7 +10094,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>19791200306</v>
+        <v>19781200306</v>
       </c>
       <c r="C55" t="n">
         <v>100</v>
@@ -10132,7 +10133,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20071200307</v>
+        <v>20061200307</v>
       </c>
       <c r="C56" t="n">
         <v>100</v>
@@ -10171,7 +10172,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>19871200308</v>
+        <v>19861200308</v>
       </c>
       <c r="C57" t="n">
         <v>100</v>
@@ -10210,7 +10211,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>19971200309</v>
+        <v>19961200309</v>
       </c>
       <c r="C58" t="n">
         <v>100</v>
@@ -10249,7 +10250,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>19911200310</v>
+        <v>19901200310</v>
       </c>
       <c r="C59" t="n">
         <v>100</v>
@@ -10288,7 +10289,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>19791200311</v>
+        <v>19781200311</v>
       </c>
       <c r="C60" t="n">
         <v>90</v>
@@ -10327,7 +10328,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20081200312</v>
+        <v>20071200312</v>
       </c>
       <c r="C61" t="n">
         <v>138</v>
@@ -10366,7 +10367,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20011200313</v>
+        <v>20001200313</v>
       </c>
       <c r="C62" t="n">
         <v>79.5</v>
@@ -10405,7 +10406,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20101200322</v>
+        <v>20091200322</v>
       </c>
       <c r="C63" t="n">
         <v>146</v>
@@ -10444,7 +10445,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>19971200335</v>
+        <v>19961200335</v>
       </c>
       <c r="C64" t="n">
         <v>94.7</v>
@@ -10483,7 +10484,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20082100343</v>
+        <v>20072100343</v>
       </c>
       <c r="C65" t="n">
         <v>1961</v>
@@ -10520,7 +10521,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20112100344</v>
+        <v>20102100344</v>
       </c>
       <c r="C66" t="n">
         <v>1961</v>
@@ -10557,7 +10558,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20202100345</v>
+        <v>20192100345</v>
       </c>
       <c r="C67" t="n">
         <v>1961</v>
@@ -10594,7 +10595,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20122100346</v>
+        <v>20112100346</v>
       </c>
       <c r="C68" t="n">
         <v>1961</v>
@@ -10631,7 +10632,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20162100347</v>
+        <v>20152100347</v>
       </c>
       <c r="C69" t="n">
         <v>1961</v>
@@ -10668,7 +10669,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20192100348</v>
+        <v>20182100348</v>
       </c>
       <c r="C70" t="n">
         <v>1961</v>
@@ -10705,7 +10706,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20092100349</v>
+        <v>20082100349</v>
       </c>
       <c r="C71" t="n">
         <v>1961</v>
@@ -10742,7 +10743,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20112100350</v>
+        <v>20102100350</v>
       </c>
       <c r="C72" t="n">
         <v>1961</v>
@@ -10779,7 +10780,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>20142100351</v>
+        <v>20132100351</v>
       </c>
       <c r="C73" t="n">
         <v>1961</v>
@@ -10816,7 +10817,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>20192100352</v>
+        <v>20182100352</v>
       </c>
       <c r="C74" t="n">
         <v>1961</v>
@@ -10853,7 +10854,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>20172100353</v>
+        <v>20162100353</v>
       </c>
       <c r="C75" t="n">
         <v>1961</v>
@@ -10890,7 +10891,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>20142100354</v>
+        <v>20132100354</v>
       </c>
       <c r="C76" t="n">
         <v>1961</v>
@@ -10927,7 +10928,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>20172100355</v>
+        <v>20162100355</v>
       </c>
       <c r="C77" t="n">
         <v>1961</v>
@@ -10964,7 +10965,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>20162100356</v>
+        <v>20152100356</v>
       </c>
       <c r="C78" t="n">
         <v>1961</v>
@@ -11001,7 +11002,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>20162100357</v>
+        <v>20152100357</v>
       </c>
       <c r="C79" t="n">
         <v>1961</v>
@@ -11038,7 +11039,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>20122100358</v>
+        <v>20112100358</v>
       </c>
       <c r="C80" t="n">
         <v>1961</v>
@@ -11075,7 +11076,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>20122100359</v>
+        <v>20112100359</v>
       </c>
       <c r="C81" t="n">
         <v>1961</v>
@@ -11112,7 +11113,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>20192100360</v>
+        <v>20182100360</v>
       </c>
       <c r="C82" t="n">
         <v>1961</v>
@@ -11149,7 +11150,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>20192100361</v>
+        <v>20182100361</v>
       </c>
       <c r="C83" t="n">
         <v>1961</v>
@@ -11186,7 +11187,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>20072100362</v>
+        <v>20062100362</v>
       </c>
       <c r="C84" t="n">
         <v>1961</v>
@@ -11223,7 +11224,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>20131200366</v>
+        <v>20121200366</v>
       </c>
       <c r="C85" t="n">
         <v>360</v>
@@ -11262,7 +11263,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>20111200377</v>
+        <v>20101200377</v>
       </c>
       <c r="C86" t="n">
         <v>85.3</v>
@@ -11301,7 +11302,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>20001200380</v>
+        <v>19991200380</v>
       </c>
       <c r="C87" t="n">
         <v>124</v>
@@ -11340,7 +11341,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>19831200381</v>
+        <v>19821200381</v>
       </c>
       <c r="C88" t="n">
         <v>480</v>
@@ -11379,7 +11380,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>20031200382</v>
+        <v>20021200382</v>
       </c>
       <c r="C89" t="n">
         <v>143</v>
@@ -11418,7 +11419,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>20001200385</v>
+        <v>19991200385</v>
       </c>
       <c r="C90" t="n">
         <v>910</v>
@@ -11457,7 +11458,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>20011200393</v>
+        <v>20001200393</v>
       </c>
       <c r="C91" t="n">
         <v>79.7</v>
@@ -11496,7 +11497,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>19901200399</v>
+        <v>19891200399</v>
       </c>
       <c r="C92" t="n">
         <v>220</v>
@@ -11847,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20182600079</v>
+        <v>20172600079</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -11996,7 +11997,7 @@
           <t>StartTime</t>
         </is>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="8" t="n">
         <v>43830.99861111111</v>
       </c>
     </row>
@@ -12006,7 +12007,7 @@
           <t>StopTime</t>
         </is>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="8" t="n">
         <v>44195.99861111111</v>
       </c>
     </row>

--- a/data/amiris/amiris_data_structure.xlsx
+++ b/data/amiris/amiris_data_structure.xlsx
@@ -505,7 +505,7 @@
       <selection activeCell="A2" sqref="A2:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col width="22.28515625" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
     <col width="31.140625" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
@@ -1000,7 +1000,7 @@
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col width="13.42578125" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
     <col width="22.28515625" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
@@ -1121,7 +1121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G273"/>
+  <dimension ref="A1:G224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20151700021</v>
+        <v>99991700006</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1177,13 +1177,13 @@
         <v>4.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.411</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>96.5</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>96.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1191,24 +1191,24 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20013000022</v>
+        <v>99990300008</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.355</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>87</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1216,7 +1216,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20001700023</v>
+        <v>20151700021</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1227,13 +1227,13 @@
         <v>4.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.381</v>
+        <v>0.411</v>
       </c>
       <c r="F4" t="n">
-        <v>66</v>
+        <v>96.5</v>
       </c>
       <c r="G4" t="n">
-        <v>66</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="5">
@@ -1241,24 +1241,24 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19892800024</v>
+        <v>20013000022</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.378</v>
+        <v>0.355</v>
       </c>
       <c r="F5" t="n">
-        <v>717</v>
+        <v>87</v>
       </c>
       <c r="G5" t="n">
-        <v>717</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
@@ -1266,7 +1266,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20140300037</v>
+        <v>20001700023</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1274,16 +1274,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.55</v>
+        <v>0.381</v>
       </c>
       <c r="F6" t="n">
-        <v>500</v>
+        <v>66</v>
       </c>
       <c r="G6" t="n">
-        <v>500</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
@@ -1291,24 +1291,24 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20120300038</v>
+        <v>19892800024</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.55</v>
+        <v>0.378</v>
       </c>
       <c r="F7" t="n">
-        <v>500</v>
+        <v>717</v>
       </c>
       <c r="G7" t="n">
-        <v>500</v>
+        <v>717</v>
       </c>
     </row>
     <row r="8">
@@ -1316,7 +1316,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20080300039</v>
+        <v>20140300037</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20060300040</v>
+        <v>20120300038</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20040300041</v>
+        <v>20080300039</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20020300042</v>
+        <v>20060300040</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20000300043</v>
+        <v>20040300041</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1441,24 +1441,24 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20092800044</v>
+        <v>20020300042</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E13" t="n">
-        <v>0.438</v>
+        <v>0.55</v>
       </c>
       <c r="F13" t="n">
-        <v>341.4</v>
+        <v>500</v>
       </c>
       <c r="G13" t="n">
-        <v>341.4</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14">
@@ -1466,24 +1466,24 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20002800045</v>
+        <v>20000300043</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4</v>
+        <v>0.55</v>
       </c>
       <c r="F14" t="n">
-        <v>320.5</v>
+        <v>500</v>
       </c>
       <c r="G14" t="n">
-        <v>320.5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15">
@@ -1491,24 +1491,24 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20033000046</v>
+        <v>20092800044</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.336</v>
+        <v>0.438</v>
       </c>
       <c r="F15" t="n">
-        <v>321.5</v>
+        <v>341.4</v>
       </c>
       <c r="G15" t="n">
-        <v>321.5</v>
+        <v>341.4</v>
       </c>
     </row>
     <row r="16">
@@ -1516,24 +1516,24 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20113000047</v>
+        <v>20002800045</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="F16" t="n">
-        <v>321.5</v>
+        <v>320.5</v>
       </c>
       <c r="G16" t="n">
-        <v>321.5</v>
+        <v>320.5</v>
       </c>
     </row>
     <row r="17">
@@ -1541,24 +1541,24 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20062900048</v>
+        <v>20033000046</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.378</v>
+        <v>0.336</v>
       </c>
       <c r="F17" t="n">
-        <v>206.8</v>
+        <v>321.5</v>
       </c>
       <c r="G17" t="n">
-        <v>206.8</v>
+        <v>321.5</v>
       </c>
     </row>
     <row r="18">
@@ -1566,24 +1566,24 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20032900049</v>
+        <v>20113000047</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.371</v>
+        <v>0.33</v>
       </c>
       <c r="F18" t="n">
-        <v>307.1</v>
+        <v>321.5</v>
       </c>
       <c r="G18" t="n">
-        <v>307.1</v>
+        <v>321.5</v>
       </c>
     </row>
     <row r="19">
@@ -1591,7 +1591,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20062900051</v>
+        <v>20062900048</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1602,13 +1602,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.429</v>
+        <v>0.378</v>
       </c>
       <c r="F19" t="n">
-        <v>1050</v>
+        <v>206.8</v>
       </c>
       <c r="G19" t="n">
-        <v>1050</v>
+        <v>206.8</v>
       </c>
     </row>
     <row r="20">
@@ -1616,7 +1616,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19872900052</v>
+        <v>20032900049</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1627,13 +1627,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.429</v>
+        <v>0.371</v>
       </c>
       <c r="F20" t="n">
-        <v>1050</v>
+        <v>307.1</v>
       </c>
       <c r="G20" t="n">
-        <v>1050</v>
+        <v>307.1</v>
       </c>
     </row>
     <row r="21">
@@ -1641,7 +1641,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20102900053</v>
+        <v>20062900051</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4</v>
+        <v>0.429</v>
       </c>
       <c r="F21" t="n">
-        <v>857</v>
+        <v>1050</v>
       </c>
       <c r="G21" t="n">
-        <v>857</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="22">
@@ -1666,7 +1666,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19822900054</v>
+        <v>19872900052</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1680,10 +1680,10 @@
         <v>0.429</v>
       </c>
       <c r="F22" t="n">
-        <v>640</v>
+        <v>1050</v>
       </c>
       <c r="G22" t="n">
-        <v>640</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="23">
@@ -1691,7 +1691,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>19882900055</v>
+        <v>20102900053</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1702,13 +1702,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.386</v>
+        <v>0.4</v>
       </c>
       <c r="F23" t="n">
-        <v>465</v>
+        <v>857</v>
       </c>
       <c r="G23" t="n">
-        <v>465</v>
+        <v>857</v>
       </c>
     </row>
     <row r="24">
@@ -1716,7 +1716,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>19852900056</v>
+        <v>19882900055</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.383</v>
+        <v>0.386</v>
       </c>
       <c r="F24" t="n">
         <v>465</v>
@@ -1741,7 +1741,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>19812900058</v>
+        <v>19852900056</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1752,13 +1752,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.398</v>
+        <v>0.383</v>
       </c>
       <c r="F25" t="n">
-        <v>875</v>
+        <v>465</v>
       </c>
       <c r="G25" t="n">
-        <v>875</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26">
@@ -1791,24 +1791,24 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19832900060</v>
+        <v>20120300061</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E27" t="n">
-        <v>0.364</v>
+        <v>0.45</v>
       </c>
       <c r="F27" t="n">
-        <v>352</v>
+        <v>72</v>
       </c>
       <c r="G27" t="n">
-        <v>352</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28">
@@ -1816,7 +1816,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20120300061</v>
+        <v>20090300063</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1827,13 +1827,13 @@
         <v>4.2</v>
       </c>
       <c r="E28" t="n">
-        <v>0.45</v>
+        <v>0.572</v>
       </c>
       <c r="F28" t="n">
-        <v>72</v>
+        <v>417</v>
       </c>
       <c r="G28" t="n">
-        <v>72</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29">
@@ -1841,7 +1841,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>19971700062</v>
+        <v>20110300065</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1849,16 +1849,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="E29" t="n">
-        <v>0.38</v>
+        <v>0.545</v>
       </c>
       <c r="F29" t="n">
-        <v>211</v>
+        <v>120</v>
       </c>
       <c r="G29" t="n">
-        <v>211</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
@@ -1866,24 +1866,24 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20090300063</v>
+        <v>20143000066</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.572</v>
+        <v>0.38</v>
       </c>
       <c r="F30" t="n">
-        <v>417</v>
+        <v>262</v>
       </c>
       <c r="G30" t="n">
-        <v>417</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31">
@@ -1891,24 +1891,24 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20110300065</v>
+        <v>20003000067</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.545</v>
+        <v>0.38</v>
       </c>
       <c r="F31" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="G31" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
@@ -1916,7 +1916,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20143000066</v>
+        <v>19943000071</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1927,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="F32" t="n">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="G32" t="n">
-        <v>262</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33">
@@ -1941,7 +1941,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20003000067</v>
+        <v>20153000072</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1952,13 +1952,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="F33" t="n">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="G33" t="n">
-        <v>85</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34">
@@ -1966,7 +1966,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>19910300068</v>
+        <v>20020300074</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1977,13 +1977,13 @@
         <v>4.2</v>
       </c>
       <c r="E34" t="n">
-        <v>0.54</v>
+        <v>0.585</v>
       </c>
       <c r="F34" t="n">
-        <v>586.3</v>
+        <v>887</v>
       </c>
       <c r="G34" t="n">
-        <v>586.3</v>
+        <v>887</v>
       </c>
     </row>
     <row r="35">
@@ -1991,24 +1991,24 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19940300069</v>
+        <v>19852800081</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.603</v>
+        <v>0.443</v>
       </c>
       <c r="F35" t="n">
-        <v>173</v>
+        <v>350</v>
       </c>
       <c r="G35" t="n">
-        <v>173</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36">
@@ -2016,24 +2016,24 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19933000070</v>
+        <v>20181700082</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0.33</v>
+        <v>0.432</v>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>440</v>
       </c>
       <c r="G36" t="n">
-        <v>100</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37">
@@ -2041,24 +2041,24 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>19943000071</v>
+        <v>20011700083</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E37" t="n">
-        <v>0.33</v>
+        <v>0.419</v>
       </c>
       <c r="F37" t="n">
-        <v>225</v>
+        <v>383</v>
       </c>
       <c r="G37" t="n">
-        <v>225</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38">
@@ -2066,24 +2066,24 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20153000072</v>
+        <v>19862900084</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.33</v>
+        <v>0.371</v>
       </c>
       <c r="F38" t="n">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="G38" t="n">
-        <v>165</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39">
@@ -2091,24 +2091,24 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>19981700073</v>
+        <v>19952900085</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.355</v>
+        <v>0.376</v>
       </c>
       <c r="F39" t="n">
-        <v>380</v>
+        <v>284</v>
       </c>
       <c r="G39" t="n">
-        <v>380</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40">
@@ -2116,24 +2116,24 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20020300074</v>
+        <v>20072900086</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.585</v>
+        <v>0.376</v>
       </c>
       <c r="F40" t="n">
-        <v>887</v>
+        <v>278</v>
       </c>
       <c r="G40" t="n">
-        <v>887</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41">
@@ -2141,24 +2141,24 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>19931700075</v>
+        <v>20022800087</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.423</v>
+        <v>0.33</v>
       </c>
       <c r="F41" t="n">
-        <v>359</v>
+        <v>103</v>
       </c>
       <c r="G41" t="n">
-        <v>359</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42">
@@ -2166,24 +2166,24 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>19931700076</v>
+        <v>20122800088</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.419</v>
+        <v>0.398</v>
       </c>
       <c r="F42" t="n">
-        <v>359</v>
+        <v>136</v>
       </c>
       <c r="G42" t="n">
-        <v>359</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43">
@@ -2191,24 +2191,24 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>19960300077</v>
+        <v>19882800089</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.59</v>
+        <v>0.398</v>
       </c>
       <c r="F43" t="n">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G43" t="n">
-        <v>116</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44">
@@ -2216,7 +2216,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>19940300078</v>
+        <v>20020300090</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2227,13 +2227,13 @@
         <v>4.2</v>
       </c>
       <c r="E44" t="n">
-        <v>0.59</v>
+        <v>0.599</v>
       </c>
       <c r="F44" t="n">
-        <v>116</v>
+        <v>230</v>
       </c>
       <c r="G44" t="n">
-        <v>116</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45">
@@ -2241,7 +2241,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>19852800081</v>
+        <v>19942800091</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2252,13 +2252,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.443</v>
+        <v>0.463</v>
       </c>
       <c r="F45" t="n">
-        <v>350</v>
+        <v>843</v>
       </c>
       <c r="G45" t="n">
-        <v>350</v>
+        <v>843</v>
       </c>
     </row>
     <row r="46">
@@ -2266,24 +2266,24 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20181700082</v>
+        <v>19912800092</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.432</v>
+        <v>0.408</v>
       </c>
       <c r="F46" t="n">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G46" t="n">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47">
@@ -2291,24 +2291,24 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20011700083</v>
+        <v>20042800093</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.419</v>
+        <v>0.38</v>
       </c>
       <c r="F47" t="n">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="G47" t="n">
-        <v>383</v>
+        <v>425</v>
       </c>
     </row>
     <row r="48">
@@ -2316,24 +2316,24 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>19862900084</v>
+        <v>20102800094</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.371</v>
+        <v>0.438</v>
       </c>
       <c r="F48" t="n">
-        <v>118</v>
+        <v>255</v>
       </c>
       <c r="G48" t="n">
-        <v>118</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49">
@@ -2341,24 +2341,24 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>19952900085</v>
+        <v>20123000095</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D49" t="n">
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.376</v>
+        <v>0.32</v>
       </c>
       <c r="F49" t="n">
-        <v>284</v>
+        <v>86.2</v>
       </c>
       <c r="G49" t="n">
-        <v>284</v>
+        <v>86.2</v>
       </c>
     </row>
     <row r="50">
@@ -2366,24 +2366,24 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20072900086</v>
+        <v>19991700097</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E50" t="n">
-        <v>0.376</v>
+        <v>0.312</v>
       </c>
       <c r="F50" t="n">
-        <v>278</v>
+        <v>64.7</v>
       </c>
       <c r="G50" t="n">
-        <v>278</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="51">
@@ -2391,24 +2391,24 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20022800087</v>
+        <v>20050300098</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E51" t="n">
-        <v>0.33</v>
+        <v>0.599</v>
       </c>
       <c r="F51" t="n">
-        <v>103</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>103</v>
+        <v>94.59999999999999</v>
       </c>
     </row>
     <row r="52">
@@ -2416,24 +2416,24 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20122800088</v>
+        <v>19971400101</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.398</v>
+        <v>0.33</v>
       </c>
       <c r="F52" t="n">
-        <v>136</v>
+        <v>1310</v>
       </c>
       <c r="G52" t="n">
-        <v>136</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="53">
@@ -2441,24 +2441,24 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>19882800089</v>
+        <v>20040300102</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E53" t="n">
-        <v>0.398</v>
+        <v>0.585</v>
       </c>
       <c r="F53" t="n">
-        <v>136</v>
+        <v>846</v>
       </c>
       <c r="G53" t="n">
-        <v>136</v>
+        <v>846</v>
       </c>
     </row>
     <row r="54">
@@ -2466,24 +2466,24 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20020300090</v>
+        <v>19962800103</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.599</v>
+        <v>0.405</v>
       </c>
       <c r="F54" t="n">
-        <v>230</v>
+        <v>323</v>
       </c>
       <c r="G54" t="n">
-        <v>230</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55">
@@ -2491,24 +2491,24 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>19942800091</v>
+        <v>20151700105</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E55" t="n">
-        <v>0.463</v>
+        <v>0.419</v>
       </c>
       <c r="F55" t="n">
-        <v>843</v>
+        <v>355</v>
       </c>
       <c r="G55" t="n">
-        <v>843</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56">
@@ -2516,24 +2516,24 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>19912800092</v>
+        <v>20131700106</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E56" t="n">
-        <v>0.408</v>
+        <v>0.419</v>
       </c>
       <c r="F56" t="n">
-        <v>435</v>
+        <v>355</v>
       </c>
       <c r="G56" t="n">
-        <v>435</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57">
@@ -2541,24 +2541,24 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20042800093</v>
+        <v>20041700108</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E57" t="n">
-        <v>0.38</v>
+        <v>0.338</v>
       </c>
       <c r="F57" t="n">
-        <v>425</v>
+        <v>112</v>
       </c>
       <c r="G57" t="n">
-        <v>425</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58">
@@ -2566,24 +2566,24 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20102800094</v>
+        <v>20051700109</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E58" t="n">
-        <v>0.438</v>
+        <v>0.31</v>
       </c>
       <c r="F58" t="n">
-        <v>255</v>
+        <v>55</v>
       </c>
       <c r="G58" t="n">
-        <v>255</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59">
@@ -2591,24 +2591,24 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20123000095</v>
+        <v>19911400111</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="F59" t="n">
-        <v>86.2</v>
+        <v>1360</v>
       </c>
       <c r="G59" t="n">
-        <v>86.2</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="60">
@@ -2616,7 +2616,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>19951700096</v>
+        <v>20060300114</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2624,16 +2624,16 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="E60" t="n">
-        <v>0.312</v>
+        <v>0.54</v>
       </c>
       <c r="F60" t="n">
-        <v>66.7</v>
+        <v>106</v>
       </c>
       <c r="G60" t="n">
-        <v>66.7</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61">
@@ -2641,7 +2641,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>19991700097</v>
+        <v>20050300115</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2649,16 +2649,16 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="E61" t="n">
-        <v>0.312</v>
+        <v>0.522</v>
       </c>
       <c r="F61" t="n">
-        <v>64.7</v>
+        <v>108</v>
       </c>
       <c r="G61" t="n">
-        <v>64.7</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62">
@@ -2666,7 +2666,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20050300098</v>
+        <v>20060300116</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2677,13 +2677,13 @@
         <v>4.2</v>
       </c>
       <c r="E62" t="n">
-        <v>0.599</v>
+        <v>0.513</v>
       </c>
       <c r="F62" t="n">
-        <v>94.59999999999999</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
-        <v>94.59999999999999</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63">
@@ -2691,7 +2691,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>19931700099</v>
+        <v>20080300117</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2699,16 +2699,16 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="E63" t="n">
-        <v>0.359</v>
+        <v>0.581</v>
       </c>
       <c r="F63" t="n">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G63" t="n">
-        <v>293</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64">
@@ -2716,24 +2716,24 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>19971400101</v>
+        <v>20010300119</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E64" t="n">
-        <v>0.33</v>
+        <v>0.527</v>
       </c>
       <c r="F64" t="n">
-        <v>1310</v>
+        <v>75</v>
       </c>
       <c r="G64" t="n">
-        <v>1310</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65">
@@ -2741,7 +2741,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20040300102</v>
+        <v>20160300120</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2752,13 +2752,13 @@
         <v>4.2</v>
       </c>
       <c r="E65" t="n">
-        <v>0.585</v>
+        <v>0.522</v>
       </c>
       <c r="F65" t="n">
-        <v>846</v>
+        <v>132</v>
       </c>
       <c r="G65" t="n">
-        <v>846</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66">
@@ -2766,24 +2766,24 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>19962800103</v>
+        <v>20050300121</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E66" t="n">
-        <v>0.405</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>323</v>
+        <v>82</v>
       </c>
       <c r="G66" t="n">
-        <v>323</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67">
@@ -2791,24 +2791,24 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>19832800104</v>
+        <v>20131700122</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E67" t="n">
-        <v>0.385</v>
+        <v>0.37</v>
       </c>
       <c r="F67" t="n">
-        <v>607.5</v>
+        <v>57.2</v>
       </c>
       <c r="G67" t="n">
-        <v>607.5</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="68">
@@ -2816,7 +2816,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20151700105</v>
+        <v>20020300123</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2824,16 +2824,16 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="E68" t="n">
-        <v>0.419</v>
+        <v>0.518</v>
       </c>
       <c r="F68" t="n">
-        <v>355</v>
+        <v>263</v>
       </c>
       <c r="G68" t="n">
-        <v>355</v>
+        <v>263</v>
       </c>
     </row>
     <row r="69">
@@ -2841,24 +2841,24 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20131700106</v>
+        <v>20112800124</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.419</v>
+        <v>0.398</v>
       </c>
       <c r="F69" t="n">
-        <v>355</v>
+        <v>85</v>
       </c>
       <c r="G69" t="n">
-        <v>355</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70">
@@ -2866,7 +2866,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>19931700107</v>
+        <v>20150300126</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2874,16 +2874,16 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="E70" t="n">
-        <v>0.355</v>
+        <v>0.54</v>
       </c>
       <c r="F70" t="n">
-        <v>355</v>
+        <v>76.5</v>
       </c>
       <c r="G70" t="n">
-        <v>355</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="71">
@@ -2891,7 +2891,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20041700108</v>
+        <v>20191700127</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2902,13 +2902,13 @@
         <v>4.5</v>
       </c>
       <c r="E71" t="n">
-        <v>0.338</v>
+        <v>0.391</v>
       </c>
       <c r="F71" t="n">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G71" t="n">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72">
@@ -2916,7 +2916,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20051700109</v>
+        <v>20100300128</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="E72" t="n">
-        <v>0.31</v>
+        <v>0.599</v>
       </c>
       <c r="F72" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G72" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73">
@@ -2941,24 +2941,24 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>19911400111</v>
+        <v>20122800129</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D73" t="n">
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.33</v>
+        <v>0.388</v>
       </c>
       <c r="F73" t="n">
-        <v>1360</v>
+        <v>95</v>
       </c>
       <c r="G73" t="n">
-        <v>1360</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74">
@@ -2966,7 +2966,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>19950300112</v>
+        <v>20130300131</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2977,13 +2977,13 @@
         <v>4.2</v>
       </c>
       <c r="E74" t="n">
-        <v>0.54</v>
+        <v>0.522</v>
       </c>
       <c r="F74" t="n">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="G74" t="n">
-        <v>100</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75">
@@ -2991,7 +2991,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>19980300113</v>
+        <v>19990300132</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -3002,13 +3002,13 @@
         <v>4.2</v>
       </c>
       <c r="E75" t="n">
-        <v>0.531</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>60.1</v>
+        <v>108</v>
       </c>
       <c r="G75" t="n">
-        <v>60.1</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76">
@@ -3016,7 +3016,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>20060300114</v>
+        <v>20160300133</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -3027,13 +3027,13 @@
         <v>4.2</v>
       </c>
       <c r="E76" t="n">
-        <v>0.54</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="G76" t="n">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77">
@@ -3041,7 +3041,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>20050300115</v>
+        <v>20120300134</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -3052,13 +3052,13 @@
         <v>4.2</v>
       </c>
       <c r="E77" t="n">
-        <v>0.522</v>
+        <v>0.576</v>
       </c>
       <c r="F77" t="n">
-        <v>108</v>
+        <v>413</v>
       </c>
       <c r="G77" t="n">
-        <v>108</v>
+        <v>413</v>
       </c>
     </row>
     <row r="78">
@@ -3066,7 +3066,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>20060300116</v>
+        <v>20001700135</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -3074,16 +3074,16 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E78" t="n">
-        <v>0.513</v>
+        <v>0.381</v>
       </c>
       <c r="F78" t="n">
-        <v>122</v>
+        <v>81.8</v>
       </c>
       <c r="G78" t="n">
-        <v>122</v>
+        <v>81.8</v>
       </c>
     </row>
     <row r="79">
@@ -3091,7 +3091,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>20080300117</v>
+        <v>20120300137</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -3102,13 +3102,13 @@
         <v>4.2</v>
       </c>
       <c r="E79" t="n">
-        <v>0.581</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="G79" t="n">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80">
@@ -3116,24 +3116,24 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>19920300118</v>
+        <v>20172800140</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.536</v>
+        <v>0.388</v>
       </c>
       <c r="F80" t="n">
-        <v>112.1</v>
+        <v>138.5</v>
       </c>
       <c r="G80" t="n">
-        <v>112.1</v>
+        <v>138.5</v>
       </c>
     </row>
     <row r="81">
@@ -3141,7 +3141,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>20010300119</v>
+        <v>20021700141</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -3149,16 +3149,16 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E81" t="n">
-        <v>0.527</v>
+        <v>0.364</v>
       </c>
       <c r="F81" t="n">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="G81" t="n">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82">
@@ -3166,7 +3166,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>20160300120</v>
+        <v>20080300143</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -3177,13 +3177,13 @@
         <v>4.2</v>
       </c>
       <c r="E82" t="n">
-        <v>0.522</v>
+        <v>0.585</v>
       </c>
       <c r="F82" t="n">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="G82" t="n">
-        <v>132</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83">
@@ -3191,24 +3191,24 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>20050300121</v>
+        <v>19912800146</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.398</v>
       </c>
       <c r="F83" t="n">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="G83" t="n">
-        <v>82</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84">
@@ -3216,24 +3216,24 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>20131700122</v>
+        <v>20152800147</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0.37</v>
+        <v>0.455</v>
       </c>
       <c r="F84" t="n">
-        <v>57.2</v>
+        <v>433</v>
       </c>
       <c r="G84" t="n">
-        <v>57.2</v>
+        <v>433</v>
       </c>
     </row>
     <row r="85">
@@ -3241,24 +3241,24 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>20020300123</v>
+        <v>19862800148</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0.518</v>
+        <v>0.44</v>
       </c>
       <c r="F85" t="n">
-        <v>263</v>
+        <v>336</v>
       </c>
       <c r="G85" t="n">
-        <v>263</v>
+        <v>336</v>
       </c>
     </row>
     <row r="86">
@@ -3266,24 +3266,24 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>20112800124</v>
+        <v>20051700149</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E86" t="n">
-        <v>0.398</v>
+        <v>0.315</v>
       </c>
       <c r="F86" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G86" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87">
@@ -3291,7 +3291,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>19981700125</v>
+        <v>20051700150</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -3302,13 +3302,13 @@
         <v>4.5</v>
       </c>
       <c r="E87" t="n">
-        <v>0.394</v>
+        <v>0.372</v>
       </c>
       <c r="F87" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G87" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88">
@@ -3316,7 +3316,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>20150300126</v>
+        <v>20011700151</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E88" t="n">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
       <c r="F88" t="n">
-        <v>76.5</v>
+        <v>57</v>
       </c>
       <c r="G88" t="n">
-        <v>76.5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89">
@@ -3341,7 +3341,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>20191700127</v>
+        <v>20111700152</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -3352,13 +3352,13 @@
         <v>4.5</v>
       </c>
       <c r="E89" t="n">
-        <v>0.391</v>
+        <v>0.381</v>
       </c>
       <c r="F89" t="n">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="G89" t="n">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90">
@@ -3366,7 +3366,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>20100300128</v>
+        <v>20000300153</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -3377,13 +3377,13 @@
         <v>4.2</v>
       </c>
       <c r="E90" t="n">
-        <v>0.599</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>54</v>
+        <v>100.2</v>
       </c>
       <c r="G90" t="n">
-        <v>54</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="91">
@@ -3391,7 +3391,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>20122800129</v>
+        <v>20062800155</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -3402,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.388</v>
+        <v>0.448</v>
       </c>
       <c r="F91" t="n">
-        <v>95</v>
+        <v>778</v>
       </c>
       <c r="G91" t="n">
-        <v>95</v>
+        <v>778</v>
       </c>
     </row>
     <row r="92">
@@ -3416,24 +3416,24 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>19940300130</v>
+        <v>19972800156</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="F92" t="n">
-        <v>234</v>
+        <v>125</v>
       </c>
       <c r="G92" t="n">
-        <v>234</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93">
@@ -3441,24 +3441,24 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>20130300131</v>
+        <v>20162800157</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.522</v>
+        <v>0.45</v>
       </c>
       <c r="F93" t="n">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="G93" t="n">
-        <v>182</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94">
@@ -3466,7 +3466,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>19990300132</v>
+        <v>20191700158</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -3474,16 +3474,16 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E94" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.399</v>
       </c>
       <c r="F94" t="n">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G94" t="n">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95">
@@ -3491,7 +3491,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>20160300133</v>
+        <v>19991700160</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -3499,16 +3499,16 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.399</v>
       </c>
       <c r="F95" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="G95" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96">
@@ -3516,7 +3516,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>20120300134</v>
+        <v>20010300161</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -3527,13 +3527,13 @@
         <v>4.2</v>
       </c>
       <c r="E96" t="n">
-        <v>0.576</v>
+        <v>0.554</v>
       </c>
       <c r="F96" t="n">
-        <v>413</v>
+        <v>86</v>
       </c>
       <c r="G96" t="n">
-        <v>413</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97">
@@ -3541,24 +3541,24 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>20001700135</v>
+        <v>19882800162</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.381</v>
+        <v>0.393</v>
       </c>
       <c r="F97" t="n">
-        <v>81.8</v>
+        <v>875</v>
       </c>
       <c r="G97" t="n">
-        <v>81.8</v>
+        <v>875</v>
       </c>
     </row>
     <row r="98">
@@ -3566,7 +3566,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>19950300136</v>
+        <v>20091700165</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -3574,16 +3574,16 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E98" t="n">
-        <v>0.594</v>
+        <v>0.328</v>
       </c>
       <c r="F98" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G98" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99">
@@ -3591,24 +3591,24 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>20120300137</v>
+        <v>20123000166</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="F99" t="n">
-        <v>75</v>
+        <v>303</v>
       </c>
       <c r="G99" t="n">
-        <v>75</v>
+        <v>303</v>
       </c>
     </row>
     <row r="100">
@@ -3616,24 +3616,24 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>19940300138</v>
+        <v>20163000167</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="F100" t="n">
-        <v>75</v>
+        <v>303</v>
       </c>
       <c r="G100" t="n">
-        <v>75</v>
+        <v>303</v>
       </c>
     </row>
     <row r="101">
@@ -3641,24 +3641,24 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>19832800139</v>
+        <v>20191700168</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E101" t="n">
-        <v>0.388</v>
+        <v>0.396</v>
       </c>
       <c r="F101" t="n">
-        <v>138.5</v>
+        <v>321</v>
       </c>
       <c r="G101" t="n">
-        <v>138.5</v>
+        <v>321</v>
       </c>
     </row>
     <row r="102">
@@ -3666,24 +3666,24 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>20172800140</v>
+        <v>20033000170</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D102" t="n">
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>0.388</v>
+        <v>0.383</v>
       </c>
       <c r="F102" t="n">
-        <v>138.5</v>
+        <v>106</v>
       </c>
       <c r="G102" t="n">
-        <v>138.5</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103">
@@ -3691,24 +3691,24 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>20021700141</v>
+        <v>20143000171</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>0.364</v>
+        <v>0.383</v>
       </c>
       <c r="F103" t="n">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G103" t="n">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104">
@@ -3716,24 +3716,24 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>19971700142</v>
+        <v>19842800172</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.394</v>
+        <v>0.448</v>
       </c>
       <c r="F104" t="n">
-        <v>59</v>
+        <v>794</v>
       </c>
       <c r="G104" t="n">
-        <v>59</v>
+        <v>794</v>
       </c>
     </row>
     <row r="105">
@@ -3741,7 +3741,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>20080300143</v>
+        <v>20100300173</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -3752,13 +3752,13 @@
         <v>4.2</v>
       </c>
       <c r="E105" t="n">
-        <v>0.585</v>
+        <v>0.513</v>
       </c>
       <c r="F105" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G105" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="106">
@@ -3766,24 +3766,24 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>19911700144</v>
+        <v>20163000174</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.402</v>
+        <v>0.356</v>
       </c>
       <c r="F106" t="n">
-        <v>65</v>
+        <v>386</v>
       </c>
       <c r="G106" t="n">
-        <v>65</v>
+        <v>386</v>
       </c>
     </row>
     <row r="107">
@@ -3791,24 +3791,24 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>19912800146</v>
+        <v>20043000178</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D107" t="n">
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0.398</v>
+        <v>0.354</v>
       </c>
       <c r="F107" t="n">
-        <v>211</v>
+        <v>88</v>
       </c>
       <c r="G107" t="n">
-        <v>211</v>
+        <v>88</v>
       </c>
     </row>
     <row r="108">
@@ -3816,7 +3816,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>20152800147</v>
+        <v>19862800180</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -3827,13 +3827,13 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>0.455</v>
+        <v>0.41</v>
       </c>
       <c r="F108" t="n">
-        <v>433</v>
+        <v>514</v>
       </c>
       <c r="G108" t="n">
-        <v>433</v>
+        <v>514</v>
       </c>
     </row>
     <row r="109">
@@ -3841,7 +3841,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>19862800148</v>
+        <v>20132800181</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -3852,13 +3852,13 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>0.44</v>
+        <v>0.373</v>
       </c>
       <c r="F109" t="n">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="G109" t="n">
-        <v>336</v>
+        <v>300</v>
       </c>
     </row>
     <row r="110">
@@ -3866,24 +3866,24 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>20051700149</v>
+        <v>19872800182</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>0.315</v>
+        <v>0.345</v>
       </c>
       <c r="F110" t="n">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="G110" t="n">
-        <v>81</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111">
@@ -3891,7 +3891,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>20051700150</v>
+        <v>20171700184</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -3902,13 +3902,13 @@
         <v>4.5</v>
       </c>
       <c r="E111" t="n">
-        <v>0.372</v>
+        <v>0.354</v>
       </c>
       <c r="F111" t="n">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="G111" t="n">
-        <v>65</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
@@ -3916,24 +3916,24 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>20011700151</v>
+        <v>20142800185</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0.31</v>
+        <v>0.458</v>
       </c>
       <c r="F112" t="n">
-        <v>57</v>
+        <v>449</v>
       </c>
       <c r="G112" t="n">
-        <v>57</v>
+        <v>449</v>
       </c>
     </row>
     <row r="113">
@@ -3941,24 +3941,24 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>20111700152</v>
+        <v>20122800186</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0.381</v>
+        <v>0.398</v>
       </c>
       <c r="F113" t="n">
-        <v>74</v>
+        <v>280</v>
       </c>
       <c r="G113" t="n">
-        <v>74</v>
+        <v>280</v>
       </c>
     </row>
     <row r="114">
@@ -3966,24 +3966,24 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>20000300153</v>
+        <v>20072900187</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="F114" t="n">
-        <v>100.2</v>
+        <v>465</v>
       </c>
       <c r="G114" t="n">
-        <v>100.2</v>
+        <v>465</v>
       </c>
     </row>
     <row r="115">
@@ -3991,24 +3991,24 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>19980300154</v>
+        <v>19932900188</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="F115" t="n">
-        <v>230</v>
+        <v>465</v>
       </c>
       <c r="G115" t="n">
-        <v>230</v>
+        <v>465</v>
       </c>
     </row>
     <row r="116">
@@ -4016,24 +4016,24 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>20062800155</v>
+        <v>20042900189</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D116" t="n">
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.448</v>
+        <v>0.39</v>
       </c>
       <c r="F116" t="n">
-        <v>778</v>
+        <v>465</v>
       </c>
       <c r="G116" t="n">
-        <v>778</v>
+        <v>465</v>
       </c>
     </row>
     <row r="117">
@@ -4041,24 +4041,24 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>19972800156</v>
+        <v>19852900190</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D117" t="n">
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="F117" t="n">
-        <v>125</v>
+        <v>465</v>
       </c>
       <c r="G117" t="n">
-        <v>125</v>
+        <v>465</v>
       </c>
     </row>
     <row r="118">
@@ -4066,24 +4066,24 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>20162800157</v>
+        <v>20092900191</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D118" t="n">
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="F118" t="n">
-        <v>125</v>
+        <v>465</v>
       </c>
       <c r="G118" t="n">
-        <v>125</v>
+        <v>465</v>
       </c>
     </row>
     <row r="119">
@@ -4091,24 +4091,24 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>20191700158</v>
+        <v>20112900192</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>0.399</v>
+        <v>0.39</v>
       </c>
       <c r="F119" t="n">
-        <v>95</v>
+        <v>465</v>
       </c>
       <c r="G119" t="n">
-        <v>95</v>
+        <v>465</v>
       </c>
     </row>
     <row r="120">
@@ -4116,7 +4116,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>19960300159</v>
+        <v>20000300193</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -4127,13 +4127,13 @@
         <v>4.2</v>
       </c>
       <c r="E120" t="n">
-        <v>0.585</v>
+        <v>0.45</v>
       </c>
       <c r="F120" t="n">
-        <v>167</v>
+        <v>201.5</v>
       </c>
       <c r="G120" t="n">
-        <v>167</v>
+        <v>201.5</v>
       </c>
     </row>
     <row r="121">
@@ -4141,24 +4141,24 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>19991700160</v>
+        <v>19942800194</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0.399</v>
+        <v>0.418</v>
       </c>
       <c r="F121" t="n">
-        <v>95</v>
+        <v>324</v>
       </c>
       <c r="G121" t="n">
-        <v>95</v>
+        <v>324</v>
       </c>
     </row>
     <row r="122">
@@ -4166,24 +4166,24 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>20010300161</v>
+        <v>20052800195</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>0.554</v>
+        <v>0.415</v>
       </c>
       <c r="F122" t="n">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="G122" t="n">
-        <v>86</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123">
@@ -4191,24 +4191,24 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>19882800162</v>
+        <v>20113000196</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D123" t="n">
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>0.393</v>
+        <v>0.33</v>
       </c>
       <c r="F123" t="n">
-        <v>875</v>
+        <v>160</v>
       </c>
       <c r="G123" t="n">
-        <v>875</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124">
@@ -4216,24 +4216,24 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>20091700165</v>
+        <v>20073000197</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>0.328</v>
+        <v>0.312</v>
       </c>
       <c r="F124" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G124" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="125">
@@ -4241,24 +4241,24 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>20123000166</v>
+        <v>19902800198</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D125" t="n">
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>0.33</v>
+        <v>0.438</v>
       </c>
       <c r="F125" t="n">
-        <v>303</v>
+        <v>695</v>
       </c>
       <c r="G125" t="n">
-        <v>303</v>
+        <v>695</v>
       </c>
     </row>
     <row r="126">
@@ -4266,24 +4266,24 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>20163000167</v>
+        <v>19982800199</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D126" t="n">
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>0.33</v>
+        <v>0.438</v>
       </c>
       <c r="F126" t="n">
-        <v>303</v>
+        <v>695</v>
       </c>
       <c r="G126" t="n">
-        <v>303</v>
+        <v>695</v>
       </c>
     </row>
     <row r="127">
@@ -4291,24 +4291,24 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>20191700168</v>
+        <v>20162800200</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>0.396</v>
+        <v>0.458</v>
       </c>
       <c r="F127" t="n">
-        <v>321</v>
+        <v>725</v>
       </c>
       <c r="G127" t="n">
-        <v>321</v>
+        <v>725</v>
       </c>
     </row>
     <row r="128">
@@ -4316,24 +4316,24 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>20033000170</v>
+        <v>19932800201</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D128" t="n">
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>0.383</v>
+        <v>0.395</v>
       </c>
       <c r="F128" t="n">
-        <v>106</v>
+        <v>370</v>
       </c>
       <c r="G128" t="n">
-        <v>106</v>
+        <v>370</v>
       </c>
     </row>
     <row r="129">
@@ -4341,24 +4341,24 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>20143000171</v>
+        <v>20092800202</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D129" t="n">
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>0.383</v>
+        <v>0.353</v>
       </c>
       <c r="F129" t="n">
-        <v>106</v>
+        <v>322</v>
       </c>
       <c r="G129" t="n">
-        <v>106</v>
+        <v>322</v>
       </c>
     </row>
     <row r="130">
@@ -4366,7 +4366,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>19842800172</v>
+        <v>19952800203</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -4377,13 +4377,13 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>0.448</v>
+        <v>0.353</v>
       </c>
       <c r="F130" t="n">
-        <v>794</v>
+        <v>318</v>
       </c>
       <c r="G130" t="n">
-        <v>794</v>
+        <v>318</v>
       </c>
     </row>
     <row r="131">
@@ -4391,7 +4391,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>20100300173</v>
+        <v>20001700204</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -4399,16 +4399,16 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E131" t="n">
-        <v>0.513</v>
+        <v>0.358</v>
       </c>
       <c r="F131" t="n">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="G131" t="n">
-        <v>66</v>
+        <v>102</v>
       </c>
     </row>
     <row r="132">
@@ -4416,24 +4416,24 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>20163000174</v>
+        <v>20142800205</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D132" t="n">
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>0.356</v>
+        <v>0.433</v>
       </c>
       <c r="F132" t="n">
-        <v>386</v>
+        <v>690</v>
       </c>
       <c r="G132" t="n">
-        <v>386</v>
+        <v>690</v>
       </c>
     </row>
     <row r="133">
@@ -4441,24 +4441,24 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>19913000175</v>
+        <v>19851400207</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D133" t="n">
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>0.355</v>
+        <v>0.33</v>
       </c>
       <c r="F133" t="n">
-        <v>386</v>
+        <v>1284</v>
       </c>
       <c r="G133" t="n">
-        <v>386</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="134">
@@ -4466,24 +4466,24 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>19941700176</v>
+        <v>19841400208</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>0.356</v>
+        <v>0.33</v>
       </c>
       <c r="F134" t="n">
-        <v>415</v>
+        <v>1288</v>
       </c>
       <c r="G134" t="n">
-        <v>415</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="135">
@@ -4491,7 +4491,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>19821400177</v>
+        <v>19871400209</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -4505,10 +4505,10 @@
         <v>0.33</v>
       </c>
       <c r="F135" t="n">
-        <v>1410</v>
+        <v>1336</v>
       </c>
       <c r="G135" t="n">
-        <v>1410</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="136">
@@ -4516,24 +4516,24 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>20043000178</v>
+        <v>19891400210</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D136" t="n">
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>0.354</v>
+        <v>0.33</v>
       </c>
       <c r="F136" t="n">
-        <v>88</v>
+        <v>1402</v>
       </c>
       <c r="G136" t="n">
-        <v>88</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="137">
@@ -4541,24 +4541,24 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>19862800180</v>
+        <v>19982900212</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D137" t="n">
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>0.41</v>
+        <v>0.357</v>
       </c>
       <c r="F137" t="n">
-        <v>514</v>
+        <v>164</v>
       </c>
       <c r="G137" t="n">
-        <v>514</v>
+        <v>164</v>
       </c>
     </row>
     <row r="138">
@@ -4566,24 +4566,24 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>20132800181</v>
+        <v>20000300213</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E138" t="n">
-        <v>0.373</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F138" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="G138" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="139">
@@ -4591,24 +4591,24 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>19872800182</v>
+        <v>20020300214</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E139" t="n">
-        <v>0.345</v>
+        <v>0.599</v>
       </c>
       <c r="F139" t="n">
-        <v>127</v>
+        <v>430</v>
       </c>
       <c r="G139" t="n">
-        <v>127</v>
+        <v>430</v>
       </c>
     </row>
     <row r="140">
@@ -4616,7 +4616,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>19812800183</v>
+        <v>20122800216</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -4627,13 +4627,13 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>0.398</v>
+        <v>0.383</v>
       </c>
       <c r="F140" t="n">
-        <v>119</v>
+        <v>721</v>
       </c>
       <c r="G140" t="n">
-        <v>119</v>
+        <v>721</v>
       </c>
     </row>
     <row r="141">
@@ -4641,24 +4641,24 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>20171700184</v>
+        <v>19972800217</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>0.354</v>
+        <v>0.43</v>
       </c>
       <c r="F141" t="n">
-        <v>155</v>
+        <v>283</v>
       </c>
       <c r="G141" t="n">
-        <v>155</v>
+        <v>283</v>
       </c>
     </row>
     <row r="142">
@@ -4666,7 +4666,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>20142800185</v>
+        <v>19852800219</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -4677,13 +4677,13 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>0.458</v>
+        <v>0.273</v>
       </c>
       <c r="F142" t="n">
-        <v>449</v>
+        <v>120</v>
       </c>
       <c r="G142" t="n">
-        <v>449</v>
+        <v>120</v>
       </c>
     </row>
     <row r="143">
@@ -4691,24 +4691,24 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>20122800186</v>
+        <v>20140300220</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E143" t="n">
-        <v>0.398</v>
+        <v>0.554</v>
       </c>
       <c r="F143" t="n">
-        <v>280</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="G143" t="n">
-        <v>280</v>
+        <v>77.59999999999999</v>
       </c>
     </row>
     <row r="144">
@@ -4716,24 +4716,24 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>20072900187</v>
+        <v>20191700222</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E144" t="n">
-        <v>0.39</v>
+        <v>0.403</v>
       </c>
       <c r="F144" t="n">
-        <v>465</v>
+        <v>60.6</v>
       </c>
       <c r="G144" t="n">
-        <v>465</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="145">
@@ -4741,24 +4741,24 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>19932900188</v>
+        <v>20060300223</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E145" t="n">
-        <v>0.39</v>
+        <v>0.545</v>
       </c>
       <c r="F145" t="n">
-        <v>465</v>
+        <v>434.2</v>
       </c>
       <c r="G145" t="n">
-        <v>465</v>
+        <v>434.2</v>
       </c>
     </row>
     <row r="146">
@@ -4766,24 +4766,24 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>20042900189</v>
+        <v>20041700224</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E146" t="n">
-        <v>0.39</v>
+        <v>0.437</v>
       </c>
       <c r="F146" t="n">
-        <v>465</v>
+        <v>335</v>
       </c>
       <c r="G146" t="n">
-        <v>465</v>
+        <v>335</v>
       </c>
     </row>
     <row r="147">
@@ -4791,24 +4791,24 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>19852900190</v>
+        <v>20110300225</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E147" t="n">
-        <v>0.39</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="F147" t="n">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="G147" t="n">
-        <v>465</v>
+        <v>490</v>
       </c>
     </row>
     <row r="148">
@@ -4816,24 +4816,24 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>20092900191</v>
+        <v>19902800226</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D148" t="n">
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>0.39</v>
+        <v>0.353</v>
       </c>
       <c r="F148" t="n">
-        <v>465</v>
+        <v>110</v>
       </c>
       <c r="G148" t="n">
-        <v>465</v>
+        <v>110</v>
       </c>
     </row>
     <row r="149">
@@ -4841,24 +4841,24 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>20112900192</v>
+        <v>20040300227</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E149" t="n">
-        <v>0.39</v>
+        <v>0.585</v>
       </c>
       <c r="F149" t="n">
-        <v>465</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="G149" t="n">
-        <v>465</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="150">
@@ -4866,24 +4866,24 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>20000300193</v>
+        <v>19953000228</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F150" t="n">
-        <v>201.5</v>
+        <v>97</v>
       </c>
       <c r="G150" t="n">
-        <v>201.5</v>
+        <v>97</v>
       </c>
     </row>
     <row r="151">
@@ -4891,24 +4891,24 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>19942800194</v>
+        <v>20063000229</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D151" t="n">
         <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>0.418</v>
+        <v>0.33</v>
       </c>
       <c r="F151" t="n">
-        <v>324</v>
+        <v>97</v>
       </c>
       <c r="G151" t="n">
-        <v>324</v>
+        <v>97</v>
       </c>
     </row>
     <row r="152">
@@ -4916,24 +4916,24 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>20052800195</v>
+        <v>20130300230</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E152" t="n">
-        <v>0.415</v>
+        <v>0.527</v>
       </c>
       <c r="F152" t="n">
-        <v>149</v>
+        <v>390</v>
       </c>
       <c r="G152" t="n">
-        <v>149</v>
+        <v>390</v>
       </c>
     </row>
     <row r="153">
@@ -4941,7 +4941,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>20113000196</v>
+        <v>20173000232</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -4952,13 +4952,13 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>0.33</v>
+        <v>0.331</v>
       </c>
       <c r="F153" t="n">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="G153" t="n">
-        <v>160</v>
+        <v>136</v>
       </c>
     </row>
     <row r="154">
@@ -4966,24 +4966,24 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>20073000197</v>
+        <v>19902800233</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D154" t="n">
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>0.312</v>
+        <v>0.453</v>
       </c>
       <c r="F154" t="n">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="G154" t="n">
-        <v>88</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155">
@@ -4991,7 +4991,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>19902800198</v>
+        <v>19952800234</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -5002,13 +5002,13 @@
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>0.438</v>
+        <v>0.453</v>
       </c>
       <c r="F155" t="n">
-        <v>695</v>
+        <v>96</v>
       </c>
       <c r="G155" t="n">
-        <v>695</v>
+        <v>96</v>
       </c>
     </row>
     <row r="156">
@@ -5016,24 +5016,24 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>19982800199</v>
+        <v>20063000235</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D156" t="n">
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>0.438</v>
+        <v>0.38</v>
       </c>
       <c r="F156" t="n">
-        <v>695</v>
+        <v>206</v>
       </c>
       <c r="G156" t="n">
-        <v>695</v>
+        <v>206</v>
       </c>
     </row>
     <row r="157">
@@ -5041,7 +5041,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>20162800200</v>
+        <v>20162800236</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -5052,13 +5052,13 @@
         <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>0.458</v>
+        <v>0.38</v>
       </c>
       <c r="F157" t="n">
-        <v>725</v>
+        <v>310</v>
       </c>
       <c r="G157" t="n">
-        <v>725</v>
+        <v>310</v>
       </c>
     </row>
     <row r="158">
@@ -5066,7 +5066,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>19932800201</v>
+        <v>19982800237</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -5077,13 +5077,13 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>0.395</v>
+        <v>0.463</v>
       </c>
       <c r="F158" t="n">
-        <v>370</v>
+        <v>731</v>
       </c>
       <c r="G158" t="n">
-        <v>370</v>
+        <v>731</v>
       </c>
     </row>
     <row r="159">
@@ -5091,24 +5091,24 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>20092800202</v>
+        <v>20091700240</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E159" t="n">
-        <v>0.353</v>
+        <v>0.383</v>
       </c>
       <c r="F159" t="n">
-        <v>322</v>
+        <v>144</v>
       </c>
       <c r="G159" t="n">
-        <v>322</v>
+        <v>144</v>
       </c>
     </row>
     <row r="160">
@@ -5116,24 +5116,24 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>19952800203</v>
+        <v>20191700241</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E160" t="n">
-        <v>0.353</v>
+        <v>0.383</v>
       </c>
       <c r="F160" t="n">
-        <v>318</v>
+        <v>144</v>
       </c>
       <c r="G160" t="n">
-        <v>318</v>
+        <v>144</v>
       </c>
     </row>
     <row r="161">
@@ -5141,7 +5141,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>20001700204</v>
+        <v>20111700242</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -5152,13 +5152,13 @@
         <v>4.5</v>
       </c>
       <c r="E161" t="n">
-        <v>0.358</v>
+        <v>0.383</v>
       </c>
       <c r="F161" t="n">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="G161" t="n">
-        <v>102</v>
+        <v>144</v>
       </c>
     </row>
     <row r="162">
@@ -5166,24 +5166,24 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>20142800205</v>
+        <v>20090300245</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E162" t="n">
-        <v>0.433</v>
+        <v>0.522</v>
       </c>
       <c r="F162" t="n">
-        <v>690</v>
+        <v>444</v>
       </c>
       <c r="G162" t="n">
-        <v>690</v>
+        <v>444</v>
       </c>
     </row>
     <row r="163">
@@ -5191,24 +5191,24 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>19851400207</v>
+        <v>19982800247</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D163" t="n">
         <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="F163" t="n">
-        <v>1284</v>
+        <v>179</v>
       </c>
       <c r="G163" t="n">
-        <v>1284</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164">
@@ -5216,24 +5216,24 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>19841400208</v>
+        <v>20162800248</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D164" t="n">
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>0.33</v>
+        <v>0.463</v>
       </c>
       <c r="F164" t="n">
-        <v>1288</v>
+        <v>774</v>
       </c>
       <c r="G164" t="n">
-        <v>1288</v>
+        <v>774</v>
       </c>
     </row>
     <row r="165">
@@ -5241,24 +5241,24 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>19871400209</v>
+        <v>19982800249</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D165" t="n">
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>0.33</v>
+        <v>0.463</v>
       </c>
       <c r="F165" t="n">
-        <v>1336</v>
+        <v>766</v>
       </c>
       <c r="G165" t="n">
-        <v>1336</v>
+        <v>766</v>
       </c>
     </row>
     <row r="166">
@@ -5266,24 +5266,24 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>19891400210</v>
+        <v>20012900251</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D166" t="n">
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="F166" t="n">
-        <v>1402</v>
+        <v>607</v>
       </c>
       <c r="G166" t="n">
-        <v>1402</v>
+        <v>607</v>
       </c>
     </row>
     <row r="167">
@@ -5291,24 +5291,24 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>19960300211</v>
+        <v>19852900252</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>0.513</v>
+        <v>0.342</v>
       </c>
       <c r="F167" t="n">
-        <v>160</v>
+        <v>604</v>
       </c>
       <c r="G167" t="n">
-        <v>160</v>
+        <v>604</v>
       </c>
     </row>
     <row r="168">
@@ -5316,7 +5316,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>19982900212</v>
+        <v>20072900253</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -5327,13 +5327,13 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>0.357</v>
+        <v>0.335</v>
       </c>
       <c r="F168" t="n">
-        <v>164</v>
+        <v>292</v>
       </c>
       <c r="G168" t="n">
-        <v>164</v>
+        <v>292</v>
       </c>
     </row>
     <row r="169">
@@ -5341,24 +5341,24 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>20000300213</v>
+        <v>19942900254</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="F169" t="n">
-        <v>800</v>
+        <v>288</v>
       </c>
       <c r="G169" t="n">
-        <v>800</v>
+        <v>288</v>
       </c>
     </row>
     <row r="170">
@@ -5366,24 +5366,24 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>20020300214</v>
+        <v>20172900256</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>0.599</v>
+        <v>0.405</v>
       </c>
       <c r="F170" t="n">
-        <v>430</v>
+        <v>944</v>
       </c>
       <c r="G170" t="n">
-        <v>430</v>
+        <v>944</v>
       </c>
     </row>
     <row r="171">
@@ -5391,24 +5391,24 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>20122800216</v>
+        <v>20082900258</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D171" t="n">
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>0.383</v>
+        <v>0.422</v>
       </c>
       <c r="F171" t="n">
-        <v>721</v>
+        <v>648</v>
       </c>
       <c r="G171" t="n">
-        <v>721</v>
+        <v>648</v>
       </c>
     </row>
     <row r="172">
@@ -5416,24 +5416,24 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>19972800217</v>
+        <v>20012900260</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D172" t="n">
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>0.43</v>
+        <v>0.323</v>
       </c>
       <c r="F172" t="n">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="G172" t="n">
-        <v>283</v>
+        <v>297</v>
       </c>
     </row>
     <row r="173">
@@ -5441,24 +5441,24 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>19812800218</v>
+        <v>20152900261</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D173" t="n">
         <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>0.43</v>
+        <v>0.328</v>
       </c>
       <c r="F173" t="n">
-        <v>106</v>
+        <v>295</v>
       </c>
       <c r="G173" t="n">
-        <v>106</v>
+        <v>295</v>
       </c>
     </row>
     <row r="174">
@@ -5466,24 +5466,24 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>19852800219</v>
+        <v>20162900262</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D174" t="n">
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>0.273</v>
+        <v>0.316</v>
       </c>
       <c r="F174" t="n">
-        <v>120</v>
+        <v>294</v>
       </c>
       <c r="G174" t="n">
-        <v>120</v>
+        <v>294</v>
       </c>
     </row>
     <row r="175">
@@ -5491,24 +5491,24 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>20140300220</v>
+        <v>19892900263</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>0.554</v>
+        <v>0.311</v>
       </c>
       <c r="F175" t="n">
-        <v>77.59999999999999</v>
+        <v>125</v>
       </c>
       <c r="G175" t="n">
-        <v>77.59999999999999</v>
+        <v>125</v>
       </c>
     </row>
     <row r="176">
@@ -5516,24 +5516,24 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>19940300221</v>
+        <v>19982900264</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>0.554</v>
+        <v>0.311</v>
       </c>
       <c r="F176" t="n">
-        <v>61.1</v>
+        <v>125</v>
       </c>
       <c r="G176" t="n">
-        <v>61.1</v>
+        <v>125</v>
       </c>
     </row>
     <row r="177">
@@ -5541,24 +5541,24 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>20191700222</v>
+        <v>19902800265</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E177" t="n">
         <v>0.403</v>
       </c>
       <c r="F177" t="n">
-        <v>60.6</v>
+        <v>332.7</v>
       </c>
       <c r="G177" t="n">
-        <v>60.6</v>
+        <v>332.7</v>
       </c>
     </row>
     <row r="178">
@@ -5566,7 +5566,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>20060300223</v>
+        <v>20160300266</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -5577,13 +5577,13 @@
         <v>4.2</v>
       </c>
       <c r="E178" t="n">
-        <v>0.545</v>
+        <v>0.518</v>
       </c>
       <c r="F178" t="n">
-        <v>434.2</v>
+        <v>64</v>
       </c>
       <c r="G178" t="n">
-        <v>434.2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="179">
@@ -5591,24 +5591,24 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>20041700224</v>
+        <v>19983000314</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>0.437</v>
+        <v>0.38</v>
       </c>
       <c r="F179" t="n">
-        <v>335</v>
+        <v>92.5</v>
       </c>
       <c r="G179" t="n">
-        <v>335</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="180">
@@ -5616,24 +5616,24 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>20110300225</v>
+        <v>20122800316</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.395</v>
       </c>
       <c r="F180" t="n">
-        <v>490</v>
+        <v>282</v>
       </c>
       <c r="G180" t="n">
-        <v>490</v>
+        <v>282</v>
       </c>
     </row>
     <row r="181">
@@ -5641,7 +5641,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>19902800226</v>
+        <v>20042800317</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -5652,13 +5652,13 @@
         <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>0.353</v>
+        <v>0.393</v>
       </c>
       <c r="F181" t="n">
-        <v>110</v>
+        <v>282</v>
       </c>
       <c r="G181" t="n">
-        <v>110</v>
+        <v>282</v>
       </c>
     </row>
     <row r="182">
@@ -5666,24 +5666,24 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>20040300227</v>
+        <v>20152800318</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>0.585</v>
+        <v>0.348</v>
       </c>
       <c r="F182" t="n">
-        <v>97.90000000000001</v>
+        <v>124</v>
       </c>
       <c r="G182" t="n">
-        <v>97.90000000000001</v>
+        <v>124</v>
       </c>
     </row>
     <row r="183">
@@ -5691,24 +5691,24 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>19953000228</v>
+        <v>19882800319</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D183" t="n">
         <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>0.33</v>
+        <v>0.46</v>
       </c>
       <c r="F183" t="n">
-        <v>97</v>
+        <v>842</v>
       </c>
       <c r="G183" t="n">
-        <v>97</v>
+        <v>842</v>
       </c>
     </row>
     <row r="184">
@@ -5716,24 +5716,24 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>20063000229</v>
+        <v>19882800320</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D184" t="n">
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>0.33</v>
+        <v>0.438</v>
       </c>
       <c r="F184" t="n">
-        <v>97</v>
+        <v>505</v>
       </c>
       <c r="G184" t="n">
-        <v>97</v>
+        <v>505</v>
       </c>
     </row>
     <row r="185">
@@ -5741,7 +5741,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>20130300230</v>
+        <v>20030300321</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -5752,13 +5752,13 @@
         <v>4.2</v>
       </c>
       <c r="E185" t="n">
-        <v>0.527</v>
+        <v>0.531</v>
       </c>
       <c r="F185" t="n">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="G185" t="n">
-        <v>390</v>
+        <v>353</v>
       </c>
     </row>
     <row r="186">
@@ -5766,24 +5766,24 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>20173000232</v>
+        <v>20082900323</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D186" t="n">
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>0.331</v>
+        <v>0.39</v>
       </c>
       <c r="F186" t="n">
-        <v>136</v>
+        <v>450</v>
       </c>
       <c r="G186" t="n">
-        <v>136</v>
+        <v>450</v>
       </c>
     </row>
     <row r="187">
@@ -5791,24 +5791,24 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>19902800233</v>
+        <v>20022900324</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D187" t="n">
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>0.453</v>
+        <v>0.39</v>
       </c>
       <c r="F187" t="n">
-        <v>148</v>
+        <v>450</v>
       </c>
       <c r="G187" t="n">
-        <v>148</v>
+        <v>450</v>
       </c>
     </row>
     <row r="188">
@@ -5816,7 +5816,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>19952800234</v>
+        <v>20122800325</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -5827,13 +5827,13 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>0.453</v>
+        <v>0.345</v>
       </c>
       <c r="F188" t="n">
-        <v>96</v>
+        <v>345</v>
       </c>
       <c r="G188" t="n">
-        <v>96</v>
+        <v>345</v>
       </c>
     </row>
     <row r="189">
@@ -5841,24 +5841,24 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>20063000235</v>
+        <v>19912800326</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D189" t="n">
         <v>0</v>
       </c>
       <c r="E189" t="n">
-        <v>0.38</v>
+        <v>0.348</v>
       </c>
       <c r="F189" t="n">
-        <v>206</v>
+        <v>345</v>
       </c>
       <c r="G189" t="n">
-        <v>206</v>
+        <v>345</v>
       </c>
     </row>
     <row r="190">
@@ -5866,7 +5866,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>20162800236</v>
+        <v>20032800331</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -5877,13 +5877,13 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>0.38</v>
+        <v>0.386</v>
       </c>
       <c r="F190" t="n">
-        <v>310</v>
+        <v>90</v>
       </c>
       <c r="G190" t="n">
-        <v>310</v>
+        <v>90</v>
       </c>
     </row>
     <row r="191">
@@ -5891,24 +5891,24 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>19982800237</v>
+        <v>20053000332</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D191" t="n">
         <v>0</v>
       </c>
       <c r="E191" t="n">
-        <v>0.463</v>
+        <v>0.357</v>
       </c>
       <c r="F191" t="n">
-        <v>731</v>
+        <v>91</v>
       </c>
       <c r="G191" t="n">
-        <v>731</v>
+        <v>91</v>
       </c>
     </row>
     <row r="192">
@@ -5916,24 +5916,24 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>19931700239</v>
+        <v>20163000333</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>0.355</v>
+        <v>0.307</v>
       </c>
       <c r="F192" t="n">
-        <v>500</v>
+        <v>390.5</v>
       </c>
       <c r="G192" t="n">
-        <v>500</v>
+        <v>390.5</v>
       </c>
     </row>
     <row r="193">
@@ -5941,24 +5941,24 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>20091700240</v>
+        <v>19963000334</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E193" t="n">
-        <v>0.383</v>
+        <v>0.307</v>
       </c>
       <c r="F193" t="n">
-        <v>144</v>
+        <v>334.2</v>
       </c>
       <c r="G193" t="n">
-        <v>144</v>
+        <v>334.2</v>
       </c>
     </row>
     <row r="194">
@@ -5966,7 +5966,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>20191700241</v>
+        <v>20061700336</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -5977,13 +5977,13 @@
         <v>4.5</v>
       </c>
       <c r="E194" t="n">
-        <v>0.383</v>
+        <v>0.396</v>
       </c>
       <c r="F194" t="n">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="G194" t="n">
-        <v>144</v>
+        <v>96</v>
       </c>
     </row>
     <row r="195">
@@ -5991,7 +5991,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>20111700242</v>
+        <v>20061700337</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -6002,13 +6002,13 @@
         <v>4.5</v>
       </c>
       <c r="E195" t="n">
-        <v>0.383</v>
+        <v>0.396</v>
       </c>
       <c r="F195" t="n">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="G195" t="n">
-        <v>144</v>
+        <v>96</v>
       </c>
     </row>
     <row r="196">
@@ -6016,24 +6016,24 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>19832900243</v>
+        <v>20101700338</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E196" t="n">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="F196" t="n">
-        <v>875</v>
+        <v>100</v>
       </c>
       <c r="G196" t="n">
-        <v>875</v>
+        <v>100</v>
       </c>
     </row>
     <row r="197">
@@ -6041,7 +6041,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>20090300245</v>
+        <v>20081700339</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -6049,16 +6049,16 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E197" t="n">
-        <v>0.522</v>
+        <v>0.35</v>
       </c>
       <c r="F197" t="n">
-        <v>444</v>
+        <v>100</v>
       </c>
       <c r="G197" t="n">
-        <v>444</v>
+        <v>100</v>
       </c>
     </row>
     <row r="198">
@@ -6066,24 +6066,24 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>19822800246</v>
+        <v>20061700340</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E198" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="F198" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G198" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="199">
@@ -6091,24 +6091,24 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>19982800247</v>
+        <v>20041700341</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E199" t="n">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="F199" t="n">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="G199" t="n">
-        <v>179</v>
+        <v>100</v>
       </c>
     </row>
     <row r="200">
@@ -6116,24 +6116,24 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>20162800248</v>
+        <v>20021700342</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E200" t="n">
-        <v>0.463</v>
+        <v>0.33</v>
       </c>
       <c r="F200" t="n">
-        <v>774</v>
+        <v>100</v>
       </c>
       <c r="G200" t="n">
-        <v>774</v>
+        <v>100</v>
       </c>
     </row>
     <row r="201">
@@ -6141,24 +6141,24 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>19982800249</v>
+        <v>20033000363</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D201" t="n">
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>0.463</v>
+        <v>0.364</v>
       </c>
       <c r="F201" t="n">
-        <v>766</v>
+        <v>120</v>
       </c>
       <c r="G201" t="n">
-        <v>766</v>
+        <v>120</v>
       </c>
     </row>
     <row r="202">
@@ -6166,24 +6166,24 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>20012900251</v>
+        <v>20082800364</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D202" t="n">
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>0.34</v>
+        <v>0.405</v>
       </c>
       <c r="F202" t="n">
-        <v>607</v>
+        <v>510</v>
       </c>
       <c r="G202" t="n">
-        <v>607</v>
+        <v>510</v>
       </c>
     </row>
     <row r="203">
@@ -6191,24 +6191,24 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>19852900252</v>
+        <v>20070300367</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E203" t="n">
-        <v>0.342</v>
+        <v>0.45</v>
       </c>
       <c r="F203" t="n">
-        <v>604</v>
+        <v>79.7</v>
       </c>
       <c r="G203" t="n">
-        <v>604</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="204">
@@ -6216,24 +6216,24 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>20072900253</v>
+        <v>20000300368</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E204" t="n">
-        <v>0.335</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="F204" t="n">
-        <v>292</v>
+        <v>127.6</v>
       </c>
       <c r="G204" t="n">
-        <v>292</v>
+        <v>127.6</v>
       </c>
     </row>
     <row r="205">
@@ -6241,24 +6241,24 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>19942900254</v>
+        <v>20050300369</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E205" t="n">
-        <v>0.333</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="F205" t="n">
-        <v>288</v>
+        <v>124.9</v>
       </c>
       <c r="G205" t="n">
-        <v>288</v>
+        <v>124.9</v>
       </c>
     </row>
     <row r="206">
@@ -6266,24 +6266,24 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>19832900255</v>
+        <v>20150300370</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E206" t="n">
-        <v>0.333</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="F206" t="n">
-        <v>277</v>
+        <v>123.9</v>
       </c>
       <c r="G206" t="n">
-        <v>277</v>
+        <v>123.9</v>
       </c>
     </row>
     <row r="207">
@@ -6291,24 +6291,24 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>20172900256</v>
+        <v>20060300372</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E207" t="n">
-        <v>0.405</v>
+        <v>0.45</v>
       </c>
       <c r="F207" t="n">
-        <v>944</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="G207" t="n">
-        <v>944</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="208">
@@ -6316,24 +6316,24 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>19822900257</v>
+        <v>20122800373</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D208" t="n">
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>0.419</v>
+        <v>0.408</v>
       </c>
       <c r="F208" t="n">
-        <v>653</v>
+        <v>194</v>
       </c>
       <c r="G208" t="n">
-        <v>653</v>
+        <v>194</v>
       </c>
     </row>
     <row r="209">
@@ -6341,24 +6341,24 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>20082900258</v>
+        <v>20010300374</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E209" t="n">
-        <v>0.422</v>
+        <v>0.576</v>
       </c>
       <c r="F209" t="n">
-        <v>648</v>
+        <v>420.9</v>
       </c>
       <c r="G209" t="n">
-        <v>648</v>
+        <v>420.9</v>
       </c>
     </row>
     <row r="210">
@@ -6366,24 +6366,24 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>19812900259</v>
+        <v>19902800376</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D210" t="n">
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>0.33</v>
+        <v>0.458</v>
       </c>
       <c r="F210" t="n">
-        <v>299</v>
+        <v>746</v>
       </c>
       <c r="G210" t="n">
-        <v>299</v>
+        <v>746</v>
       </c>
     </row>
     <row r="211">
@@ -6391,24 +6391,24 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>20012900260</v>
+        <v>20001700378</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E211" t="n">
-        <v>0.323</v>
+        <v>0.351</v>
       </c>
       <c r="F211" t="n">
-        <v>297</v>
+        <v>82</v>
       </c>
       <c r="G211" t="n">
-        <v>297</v>
+        <v>82</v>
       </c>
     </row>
     <row r="212">
@@ -6416,24 +6416,24 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>20152900261</v>
+        <v>19992800383</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D212" t="n">
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>0.328</v>
+        <v>0.408</v>
       </c>
       <c r="F212" t="n">
-        <v>295</v>
+        <v>137</v>
       </c>
       <c r="G212" t="n">
-        <v>295</v>
+        <v>137</v>
       </c>
     </row>
     <row r="213">
@@ -6441,24 +6441,24 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>20162900262</v>
+        <v>19862800384</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D213" t="n">
         <v>0</v>
       </c>
       <c r="E213" t="n">
-        <v>0.316</v>
+        <v>0.408</v>
       </c>
       <c r="F213" t="n">
-        <v>294</v>
+        <v>123</v>
       </c>
       <c r="G213" t="n">
-        <v>294</v>
+        <v>123</v>
       </c>
     </row>
     <row r="214">
@@ -6466,24 +6466,24 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>19892900263</v>
+        <v>20172800386</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D214" t="n">
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>0.311</v>
+        <v>0.365</v>
       </c>
       <c r="F214" t="n">
-        <v>125</v>
+        <v>655.6</v>
       </c>
       <c r="G214" t="n">
-        <v>125</v>
+        <v>655.6</v>
       </c>
     </row>
     <row r="215">
@@ -6491,7 +6491,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>19982900264</v>
+        <v>20012900387</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -6502,13 +6502,13 @@
         <v>0</v>
       </c>
       <c r="E215" t="n">
-        <v>0.311</v>
+        <v>0.34</v>
       </c>
       <c r="F215" t="n">
-        <v>125</v>
+        <v>592</v>
       </c>
       <c r="G215" t="n">
-        <v>125</v>
+        <v>592</v>
       </c>
     </row>
     <row r="216">
@@ -6516,24 +6516,24 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>19902800265</v>
+        <v>20092900388</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D216" t="n">
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>0.403</v>
+        <v>0.338</v>
       </c>
       <c r="F216" t="n">
-        <v>332.7</v>
+        <v>592</v>
       </c>
       <c r="G216" t="n">
-        <v>332.7</v>
+        <v>592</v>
       </c>
     </row>
     <row r="217">
@@ -6541,24 +6541,24 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>20160300266</v>
+        <v>19842900389</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E217" t="n">
-        <v>0.518</v>
+        <v>0.316</v>
       </c>
       <c r="F217" t="n">
-        <v>64</v>
+        <v>312</v>
       </c>
       <c r="G217" t="n">
-        <v>64</v>
+        <v>312</v>
       </c>
     </row>
     <row r="218">
@@ -6566,24 +6566,24 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>19931700298</v>
+        <v>20012900390</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>0.373</v>
+        <v>0.321</v>
       </c>
       <c r="F218" t="n">
-        <v>58.1</v>
+        <v>304</v>
       </c>
       <c r="G218" t="n">
-        <v>58.1</v>
+        <v>304</v>
       </c>
     </row>
     <row r="219">
@@ -6591,24 +6591,24 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>19983000314</v>
+        <v>20181700392</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E219" t="n">
-        <v>0.38</v>
+        <v>0.396</v>
       </c>
       <c r="F219" t="n">
-        <v>92.5</v>
+        <v>272</v>
       </c>
       <c r="G219" t="n">
-        <v>92.5</v>
+        <v>272</v>
       </c>
     </row>
     <row r="220">
@@ -6616,24 +6616,24 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>19913000315</v>
+        <v>20162800394</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D220" t="n">
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="F220" t="n">
-        <v>80</v>
+        <v>765</v>
       </c>
       <c r="G220" t="n">
-        <v>80</v>
+        <v>765</v>
       </c>
     </row>
     <row r="221">
@@ -6641,7 +6641,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>20122800316</v>
+        <v>20032800395</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -6652,13 +6652,13 @@
         <v>0</v>
       </c>
       <c r="E221" t="n">
-        <v>0.395</v>
+        <v>0.46</v>
       </c>
       <c r="F221" t="n">
-        <v>282</v>
+        <v>765</v>
       </c>
       <c r="G221" t="n">
-        <v>282</v>
+        <v>765</v>
       </c>
     </row>
     <row r="222">
@@ -6666,7 +6666,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>20042800317</v>
+        <v>20022800396</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -6677,13 +6677,13 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>0.393</v>
+        <v>0.365</v>
       </c>
       <c r="F222" t="n">
-        <v>282</v>
+        <v>757</v>
       </c>
       <c r="G222" t="n">
-        <v>282</v>
+        <v>757</v>
       </c>
     </row>
     <row r="223">
@@ -6691,24 +6691,24 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>20152800318</v>
+        <v>20023000397</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D223" t="n">
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>0.348</v>
+        <v>0.36</v>
       </c>
       <c r="F223" t="n">
-        <v>124</v>
+        <v>276</v>
       </c>
       <c r="G223" t="n">
-        <v>124</v>
+        <v>276</v>
       </c>
     </row>
     <row r="224">
@@ -6716,7 +6716,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>19882800319</v>
+        <v>20042800400</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -6727,1237 +6727,12 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>0.46</v>
+        <v>0.453</v>
       </c>
       <c r="F224" t="n">
-        <v>842</v>
+        <v>472</v>
       </c>
       <c r="G224" t="n">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="6" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>19882800320</v>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D225" t="n">
-        <v>0</v>
-      </c>
-      <c r="E225" t="n">
-        <v>0.438</v>
-      </c>
-      <c r="F225" t="n">
-        <v>505</v>
-      </c>
-      <c r="G225" t="n">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="6" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>20030300321</v>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D226" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E226" t="n">
-        <v>0.531</v>
-      </c>
-      <c r="F226" t="n">
-        <v>353</v>
-      </c>
-      <c r="G226" t="n">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="6" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>20082900323</v>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>LIGNITE</t>
-        </is>
-      </c>
-      <c r="D227" t="n">
-        <v>0</v>
-      </c>
-      <c r="E227" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="F227" t="n">
-        <v>450</v>
-      </c>
-      <c r="G227" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="6" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>20022900324</v>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>LIGNITE</t>
-        </is>
-      </c>
-      <c r="D228" t="n">
-        <v>0</v>
-      </c>
-      <c r="E228" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="F228" t="n">
-        <v>450</v>
-      </c>
-      <c r="G228" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="6" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>20122800325</v>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D229" t="n">
-        <v>0</v>
-      </c>
-      <c r="E229" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="F229" t="n">
-        <v>345</v>
-      </c>
-      <c r="G229" t="n">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="6" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>19912800326</v>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D230" t="n">
-        <v>0</v>
-      </c>
-      <c r="E230" t="n">
-        <v>0.348</v>
-      </c>
-      <c r="F230" t="n">
-        <v>345</v>
-      </c>
-      <c r="G230" t="n">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="6" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>19832900327</v>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>LIGNITE</t>
-        </is>
-      </c>
-      <c r="D231" t="n">
-        <v>0</v>
-      </c>
-      <c r="E231" t="n">
-        <v>0.395</v>
-      </c>
-      <c r="F231" t="n">
-        <v>750</v>
-      </c>
-      <c r="G231" t="n">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="6" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>19812900328</v>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>LIGNITE</t>
-        </is>
-      </c>
-      <c r="D232" t="n">
-        <v>0</v>
-      </c>
-      <c r="E232" t="n">
-        <v>0.393</v>
-      </c>
-      <c r="F232" t="n">
-        <v>750</v>
-      </c>
-      <c r="G232" t="n">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="6" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>20032800331</v>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D233" t="n">
-        <v>0</v>
-      </c>
-      <c r="E233" t="n">
-        <v>0.386</v>
-      </c>
-      <c r="F233" t="n">
-        <v>90</v>
-      </c>
-      <c r="G233" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="6" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>20053000332</v>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="D234" t="n">
-        <v>0</v>
-      </c>
-      <c r="E234" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="F234" t="n">
-        <v>91</v>
-      </c>
-      <c r="G234" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="6" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>20163000333</v>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>0</v>
-      </c>
-      <c r="E235" t="n">
-        <v>0.307</v>
-      </c>
-      <c r="F235" t="n">
-        <v>390.5</v>
-      </c>
-      <c r="G235" t="n">
-        <v>390.5</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="6" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>19963000334</v>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>0</v>
-      </c>
-      <c r="E236" t="n">
-        <v>0.307</v>
-      </c>
-      <c r="F236" t="n">
-        <v>334.2</v>
-      </c>
-      <c r="G236" t="n">
-        <v>334.2</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="6" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>20061700336</v>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E237" t="n">
-        <v>0.396</v>
-      </c>
-      <c r="F237" t="n">
-        <v>96</v>
-      </c>
-      <c r="G237" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="6" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>20061700337</v>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E238" t="n">
-        <v>0.396</v>
-      </c>
-      <c r="F238" t="n">
-        <v>96</v>
-      </c>
-      <c r="G238" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="6" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>20101700338</v>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E239" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="F239" t="n">
-        <v>100</v>
-      </c>
-      <c r="G239" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="6" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>20081700339</v>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E240" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F240" t="n">
-        <v>100</v>
-      </c>
-      <c r="G240" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="6" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>20061700340</v>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D241" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E241" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="F241" t="n">
-        <v>100</v>
-      </c>
-      <c r="G241" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="6" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>20041700341</v>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D242" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E242" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="F242" t="n">
-        <v>100</v>
-      </c>
-      <c r="G242" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="6" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>20021700342</v>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D243" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E243" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="F243" t="n">
-        <v>100</v>
-      </c>
-      <c r="G243" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="6" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>20033000363</v>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="D244" t="n">
-        <v>0</v>
-      </c>
-      <c r="E244" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="F244" t="n">
-        <v>120</v>
-      </c>
-      <c r="G244" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="6" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>20082800364</v>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D245" t="n">
-        <v>0</v>
-      </c>
-      <c r="E245" t="n">
-        <v>0.405</v>
-      </c>
-      <c r="F245" t="n">
-        <v>510</v>
-      </c>
-      <c r="G245" t="n">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="6" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>19931700365</v>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D246" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E246" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="F246" t="n">
-        <v>622</v>
-      </c>
-      <c r="G246" t="n">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="6" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>20070300367</v>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D247" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E247" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="F247" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="G247" t="n">
-        <v>79.7</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="6" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>20000300368</v>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D248" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E248" t="n">
-        <v>0.5580000000000001</v>
-      </c>
-      <c r="F248" t="n">
-        <v>127.6</v>
-      </c>
-      <c r="G248" t="n">
-        <v>127.6</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="6" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>20050300369</v>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D249" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E249" t="n">
-        <v>0.5580000000000001</v>
-      </c>
-      <c r="F249" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="G249" t="n">
-        <v>124.9</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="6" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>20150300370</v>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D250" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E250" t="n">
-        <v>0.5580000000000001</v>
-      </c>
-      <c r="F250" t="n">
-        <v>123.9</v>
-      </c>
-      <c r="G250" t="n">
-        <v>123.9</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="6" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>19970300371</v>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D251" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E251" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="F251" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="G251" t="n">
-        <v>97.90000000000001</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="6" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>20060300372</v>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D252" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E252" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="F252" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="G252" t="n">
-        <v>97.90000000000001</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="6" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>20122800373</v>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D253" t="n">
-        <v>0</v>
-      </c>
-      <c r="E253" t="n">
-        <v>0.408</v>
-      </c>
-      <c r="F253" t="n">
-        <v>194</v>
-      </c>
-      <c r="G253" t="n">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="6" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>20010300374</v>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D254" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E254" t="n">
-        <v>0.576</v>
-      </c>
-      <c r="F254" t="n">
-        <v>420.9</v>
-      </c>
-      <c r="G254" t="n">
-        <v>420.9</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="6" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>19910300375</v>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D255" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E255" t="n">
-        <v>0.576</v>
-      </c>
-      <c r="F255" t="n">
-        <v>417.1</v>
-      </c>
-      <c r="G255" t="n">
-        <v>417.1</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="6" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>19902800376</v>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D256" t="n">
-        <v>0</v>
-      </c>
-      <c r="E256" t="n">
-        <v>0.458</v>
-      </c>
-      <c r="F256" t="n">
-        <v>746</v>
-      </c>
-      <c r="G256" t="n">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="6" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>20001700378</v>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D257" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E257" t="n">
-        <v>0.351</v>
-      </c>
-      <c r="F257" t="n">
-        <v>82</v>
-      </c>
-      <c r="G257" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="6" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>19930300379</v>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D258" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E258" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="F258" t="n">
-        <v>545</v>
-      </c>
-      <c r="G258" t="n">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="6" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>19992800383</v>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D259" t="n">
-        <v>0</v>
-      </c>
-      <c r="E259" t="n">
-        <v>0.408</v>
-      </c>
-      <c r="F259" t="n">
-        <v>137</v>
-      </c>
-      <c r="G259" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="6" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>19862800384</v>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D260" t="n">
-        <v>0</v>
-      </c>
-      <c r="E260" t="n">
-        <v>0.408</v>
-      </c>
-      <c r="F260" t="n">
-        <v>123</v>
-      </c>
-      <c r="G260" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="6" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>20172800386</v>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D261" t="n">
-        <v>0</v>
-      </c>
-      <c r="E261" t="n">
-        <v>0.365</v>
-      </c>
-      <c r="F261" t="n">
-        <v>655.6</v>
-      </c>
-      <c r="G261" t="n">
-        <v>655.6</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="6" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>20012900387</v>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>LIGNITE</t>
-        </is>
-      </c>
-      <c r="D262" t="n">
-        <v>0</v>
-      </c>
-      <c r="E262" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="F262" t="n">
-        <v>592</v>
-      </c>
-      <c r="G262" t="n">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="6" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>20092900388</v>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>LIGNITE</t>
-        </is>
-      </c>
-      <c r="D263" t="n">
-        <v>0</v>
-      </c>
-      <c r="E263" t="n">
-        <v>0.338</v>
-      </c>
-      <c r="F263" t="n">
-        <v>592</v>
-      </c>
-      <c r="G263" t="n">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="6" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>19842900389</v>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>LIGNITE</t>
-        </is>
-      </c>
-      <c r="D264" t="n">
-        <v>0</v>
-      </c>
-      <c r="E264" t="n">
-        <v>0.316</v>
-      </c>
-      <c r="F264" t="n">
-        <v>312</v>
-      </c>
-      <c r="G264" t="n">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="6" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>20012900390</v>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>LIGNITE</t>
-        </is>
-      </c>
-      <c r="D265" t="n">
-        <v>0</v>
-      </c>
-      <c r="E265" t="n">
-        <v>0.321</v>
-      </c>
-      <c r="F265" t="n">
-        <v>304</v>
-      </c>
-      <c r="G265" t="n">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="6" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>19951700391</v>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D266" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E266" t="n">
-        <v>0.396</v>
-      </c>
-      <c r="F266" t="n">
-        <v>272</v>
-      </c>
-      <c r="G266" t="n">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="6" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>20181700392</v>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D267" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E267" t="n">
-        <v>0.396</v>
-      </c>
-      <c r="F267" t="n">
-        <v>272</v>
-      </c>
-      <c r="G267" t="n">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="6" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>20162800394</v>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D268" t="n">
-        <v>0</v>
-      </c>
-      <c r="E268" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="F268" t="n">
-        <v>765</v>
-      </c>
-      <c r="G268" t="n">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="6" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>20032800395</v>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D269" t="n">
-        <v>0</v>
-      </c>
-      <c r="E269" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="F269" t="n">
-        <v>765</v>
-      </c>
-      <c r="G269" t="n">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="6" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>20022800396</v>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D270" t="n">
-        <v>0</v>
-      </c>
-      <c r="E270" t="n">
-        <v>0.365</v>
-      </c>
-      <c r="F270" t="n">
-        <v>757</v>
-      </c>
-      <c r="G270" t="n">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="6" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>20023000397</v>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="D271" t="n">
-        <v>0</v>
-      </c>
-      <c r="E271" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="F271" t="n">
-        <v>276</v>
-      </c>
-      <c r="G271" t="n">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="6" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>19931700398</v>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>NATURAL_GAS</t>
-        </is>
-      </c>
-      <c r="D272" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E272" t="n">
-        <v>0.392</v>
-      </c>
-      <c r="F272" t="n">
-        <v>109.5</v>
-      </c>
-      <c r="G272" t="n">
-        <v>109.5</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="6" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>20042800400</v>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>HARD_COAL</t>
-        </is>
-      </c>
-      <c r="D273" t="n">
-        <v>0</v>
-      </c>
-      <c r="E273" t="n">
-        <v>0.453</v>
-      </c>
-      <c r="F273" t="n">
-        <v>472</v>
-      </c>
-      <c r="G273" t="n">
         <v>472</v>
       </c>
     </row>
@@ -7972,7 +6747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8027,17 +6802,15 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19711200050</v>
+        <v>99991000001</v>
       </c>
       <c r="C2" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>RunOfRiver</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -8066,17 +6839,15 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19971200057</v>
+        <v>99992100002</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -8105,17 +6876,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19871200080</v>
+        <v>99992400003</v>
       </c>
       <c r="C4" t="n">
-        <v>220</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -8144,10 +6915,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20031200100</v>
+        <v>99991200005</v>
       </c>
       <c r="C5" t="n">
-        <v>119.1</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -8183,17 +6954,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20071200110</v>
+        <v>99992300007</v>
       </c>
       <c r="C6" t="n">
-        <v>1052</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -8222,10 +6993,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19961200145</v>
+        <v>19971200057</v>
       </c>
       <c r="C7" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -8261,10 +7032,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19981200163</v>
+        <v>19871200080</v>
       </c>
       <c r="C8" t="n">
-        <v>59.8</v>
+        <v>220</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -8300,10 +7071,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19731200164</v>
+        <v>20031200100</v>
       </c>
       <c r="C9" t="n">
-        <v>317.8</v>
+        <v>119.1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8339,10 +7110,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19771200169</v>
+        <v>20071200110</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>1052</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -8378,10 +7149,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19871200179</v>
+        <v>19961200145</v>
       </c>
       <c r="C11" t="n">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8417,10 +7188,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19751200206</v>
+        <v>19981200163</v>
       </c>
       <c r="C12" t="n">
-        <v>53.7</v>
+        <v>59.8</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8456,10 +7227,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19801200215</v>
+        <v>19771200169</v>
       </c>
       <c r="C13" t="n">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8495,10 +7266,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19861200231</v>
+        <v>19871200179</v>
       </c>
       <c r="C14" t="n">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8534,10 +7305,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20031200238</v>
+        <v>19751200206</v>
       </c>
       <c r="C15" t="n">
-        <v>99</v>
+        <v>53.7</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8573,10 +7344,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20021200244</v>
+        <v>19801200215</v>
       </c>
       <c r="C16" t="n">
-        <v>1045.2</v>
+        <v>153</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8612,17 +7383,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20162300267</v>
+        <v>19861200231</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="D17" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -8651,17 +7422,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20162300268</v>
+        <v>20031200238</v>
       </c>
       <c r="C18" t="n">
-        <v>500</v>
+        <v>99</v>
       </c>
       <c r="D18" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -8690,17 +7461,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20182300269</v>
+        <v>20021200244</v>
       </c>
       <c r="C19" t="n">
-        <v>500</v>
+        <v>1045.2</v>
       </c>
       <c r="D19" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -8729,7 +7500,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20142300270</v>
+        <v>20162300267</v>
       </c>
       <c r="C20" t="n">
         <v>500</v>
@@ -8768,7 +7539,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20162300271</v>
+        <v>20162300268</v>
       </c>
       <c r="C21" t="n">
         <v>500</v>
@@ -8807,7 +7578,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20142300272</v>
+        <v>20182300269</v>
       </c>
       <c r="C22" t="n">
         <v>500</v>
@@ -8846,17 +7617,17 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20082400273</v>
+        <v>20142300270</v>
       </c>
       <c r="C23" t="n">
-        <v>1815</v>
+        <v>500</v>
       </c>
       <c r="D23" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -8885,17 +7656,17 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20142400274</v>
+        <v>20162300271</v>
       </c>
       <c r="C24" t="n">
-        <v>1815</v>
+        <v>500</v>
       </c>
       <c r="D24" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -8924,17 +7695,17 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20112400275</v>
+        <v>20142300272</v>
       </c>
       <c r="C25" t="n">
-        <v>1815</v>
+        <v>500</v>
       </c>
       <c r="D25" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -8963,7 +7734,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20112400276</v>
+        <v>20082400273</v>
       </c>
       <c r="C26" t="n">
         <v>1815</v>
@@ -9002,7 +7773,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20192400277</v>
+        <v>20142400274</v>
       </c>
       <c r="C27" t="n">
         <v>1815</v>
@@ -9041,7 +7812,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20132400278</v>
+        <v>20112400275</v>
       </c>
       <c r="C28" t="n">
         <v>1815</v>
@@ -9080,7 +7851,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20172400279</v>
+        <v>20112400276</v>
       </c>
       <c r="C29" t="n">
         <v>1815</v>
@@ -9119,7 +7890,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20172400280</v>
+        <v>20192400277</v>
       </c>
       <c r="C30" t="n">
         <v>1815</v>
@@ -9158,7 +7929,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20082400281</v>
+        <v>20132400278</v>
       </c>
       <c r="C31" t="n">
         <v>1815</v>
@@ -9197,7 +7968,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20102400282</v>
+        <v>20172400279</v>
       </c>
       <c r="C32" t="n">
         <v>1815</v>
@@ -9236,7 +8007,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20092400283</v>
+        <v>20172400280</v>
       </c>
       <c r="C33" t="n">
         <v>1815</v>
@@ -9275,7 +8046,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20182400284</v>
+        <v>20082400281</v>
       </c>
       <c r="C34" t="n">
         <v>1815</v>
@@ -9314,7 +8085,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20122400285</v>
+        <v>20102400282</v>
       </c>
       <c r="C35" t="n">
         <v>1815</v>
@@ -9353,10 +8124,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>20092400286</v>
+        <v>20092400283</v>
       </c>
       <c r="C36" t="n">
-        <v>1000</v>
+        <v>1815</v>
       </c>
       <c r="D36" t="n">
         <v>1.35</v>
@@ -9392,10 +8163,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20072400287</v>
+        <v>20182400284</v>
       </c>
       <c r="C37" t="n">
-        <v>1000</v>
+        <v>1815</v>
       </c>
       <c r="D37" t="n">
         <v>1.35</v>
@@ -9431,10 +8202,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20052400288</v>
+        <v>20122400285</v>
       </c>
       <c r="C38" t="n">
-        <v>1000</v>
+        <v>1815</v>
       </c>
       <c r="D38" t="n">
         <v>1.35</v>
@@ -9470,7 +8241,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20112400289</v>
+        <v>20092400286</v>
       </c>
       <c r="C39" t="n">
         <v>1000</v>
@@ -9509,7 +8280,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20132400290</v>
+        <v>20072400287</v>
       </c>
       <c r="C40" t="n">
         <v>1000</v>
@@ -9548,10 +8319,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20172400291</v>
+        <v>20052400288</v>
       </c>
       <c r="C41" t="n">
-        <v>1815</v>
+        <v>1000</v>
       </c>
       <c r="D41" t="n">
         <v>1.35</v>
@@ -9587,10 +8358,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20182400292</v>
+        <v>20112400289</v>
       </c>
       <c r="C42" t="n">
-        <v>1815</v>
+        <v>1000</v>
       </c>
       <c r="D42" t="n">
         <v>1.35</v>
@@ -9626,10 +8397,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20142400293</v>
+        <v>20132400290</v>
       </c>
       <c r="C43" t="n">
-        <v>1815</v>
+        <v>1000</v>
       </c>
       <c r="D43" t="n">
         <v>1.35</v>
@@ -9665,7 +8436,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20082400294</v>
+        <v>20172400291</v>
       </c>
       <c r="C44" t="n">
         <v>1815</v>
@@ -9704,7 +8475,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20152400295</v>
+        <v>20182400292</v>
       </c>
       <c r="C45" t="n">
         <v>1815</v>
@@ -9743,7 +8514,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20112400296</v>
+        <v>20142400293</v>
       </c>
       <c r="C46" t="n">
         <v>1815</v>
@@ -9782,7 +8553,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20122400297</v>
+        <v>20082400294</v>
       </c>
       <c r="C47" t="n">
         <v>1815</v>
@@ -9821,17 +8592,17 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>19941200299</v>
+        <v>20152400295</v>
       </c>
       <c r="C48" t="n">
-        <v>164</v>
+        <v>1815</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -9860,17 +8631,17 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>19761200300</v>
+        <v>20112400296</v>
       </c>
       <c r="C49" t="n">
-        <v>196</v>
+        <v>1815</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -9899,17 +8670,17 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20081200301</v>
+        <v>20122400297</v>
       </c>
       <c r="C50" t="n">
-        <v>100</v>
+        <v>1815</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -9938,10 +8709,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>19841200302</v>
+        <v>19941200299</v>
       </c>
       <c r="C51" t="n">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -9977,10 +8748,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>19851200303</v>
+        <v>19761200300</v>
       </c>
       <c r="C52" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -10016,7 +8787,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20071200304</v>
+        <v>20081200301</v>
       </c>
       <c r="C53" t="n">
         <v>100</v>
@@ -10055,7 +8826,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>19921200305</v>
+        <v>19841200302</v>
       </c>
       <c r="C54" t="n">
         <v>100</v>
@@ -10094,10 +8865,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>19781200306</v>
+        <v>19851200303</v>
       </c>
       <c r="C55" t="n">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -10133,7 +8904,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20061200307</v>
+        <v>20071200304</v>
       </c>
       <c r="C56" t="n">
         <v>100</v>
@@ -10172,7 +8943,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>19861200308</v>
+        <v>19921200305</v>
       </c>
       <c r="C57" t="n">
         <v>100</v>
@@ -10211,7 +8982,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>19961200309</v>
+        <v>19781200306</v>
       </c>
       <c r="C58" t="n">
         <v>100</v>
@@ -10250,7 +9021,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>19901200310</v>
+        <v>20061200307</v>
       </c>
       <c r="C59" t="n">
         <v>100</v>
@@ -10289,10 +9060,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>19781200311</v>
+        <v>19861200308</v>
       </c>
       <c r="C60" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -10328,10 +9099,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20071200312</v>
+        <v>19961200309</v>
       </c>
       <c r="C61" t="n">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -10367,10 +9138,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20001200313</v>
+        <v>19901200310</v>
       </c>
       <c r="C62" t="n">
-        <v>79.5</v>
+        <v>100</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -10406,10 +9177,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20091200322</v>
+        <v>19781200311</v>
       </c>
       <c r="C63" t="n">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -10445,10 +9216,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>19961200335</v>
+        <v>20071200312</v>
       </c>
       <c r="C64" t="n">
-        <v>94.7</v>
+        <v>138</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -10484,15 +9255,17 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20072100343</v>
+        <v>20001200313</v>
       </c>
       <c r="C65" t="n">
-        <v>1961</v>
-      </c>
-      <c r="D65" t="inlineStr"/>
+        <v>79.5</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -10521,15 +9294,17 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20102100344</v>
+        <v>20091200322</v>
       </c>
       <c r="C66" t="n">
-        <v>1961</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
+        <v>146</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -10558,15 +9333,17 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20192100345</v>
+        <v>19961200335</v>
       </c>
       <c r="C67" t="n">
-        <v>1961</v>
-      </c>
-      <c r="D67" t="inlineStr"/>
+        <v>94.7</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -10595,7 +9372,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20112100346</v>
+        <v>20072100343</v>
       </c>
       <c r="C68" t="n">
         <v>1961</v>
@@ -10632,7 +9409,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20152100347</v>
+        <v>20102100344</v>
       </c>
       <c r="C69" t="n">
         <v>1961</v>
@@ -10669,7 +9446,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20182100348</v>
+        <v>20192100345</v>
       </c>
       <c r="C70" t="n">
         <v>1961</v>
@@ -10706,7 +9483,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20082100349</v>
+        <v>20112100346</v>
       </c>
       <c r="C71" t="n">
         <v>1961</v>
@@ -10743,7 +9520,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20102100350</v>
+        <v>20152100347</v>
       </c>
       <c r="C72" t="n">
         <v>1961</v>
@@ -10780,7 +9557,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>20132100351</v>
+        <v>20182100348</v>
       </c>
       <c r="C73" t="n">
         <v>1961</v>
@@ -10817,7 +9594,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>20182100352</v>
+        <v>20082100349</v>
       </c>
       <c r="C74" t="n">
         <v>1961</v>
@@ -10854,7 +9631,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>20162100353</v>
+        <v>20102100350</v>
       </c>
       <c r="C75" t="n">
         <v>1961</v>
@@ -10891,7 +9668,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>20132100354</v>
+        <v>20132100351</v>
       </c>
       <c r="C76" t="n">
         <v>1961</v>
@@ -10928,7 +9705,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>20162100355</v>
+        <v>20182100352</v>
       </c>
       <c r="C77" t="n">
         <v>1961</v>
@@ -10965,7 +9742,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>20152100356</v>
+        <v>20162100353</v>
       </c>
       <c r="C78" t="n">
         <v>1961</v>
@@ -11002,7 +9779,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>20152100357</v>
+        <v>20132100354</v>
       </c>
       <c r="C79" t="n">
         <v>1961</v>
@@ -11039,7 +9816,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>20112100358</v>
+        <v>20162100355</v>
       </c>
       <c r="C80" t="n">
         <v>1961</v>
@@ -11076,7 +9853,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>20112100359</v>
+        <v>20152100356</v>
       </c>
       <c r="C81" t="n">
         <v>1961</v>
@@ -11113,7 +9890,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>20182100360</v>
+        <v>20152100357</v>
       </c>
       <c r="C82" t="n">
         <v>1961</v>
@@ -11150,7 +9927,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>20182100361</v>
+        <v>20112100358</v>
       </c>
       <c r="C83" t="n">
         <v>1961</v>
@@ -11187,7 +9964,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>20062100362</v>
+        <v>20112100359</v>
       </c>
       <c r="C84" t="n">
         <v>1961</v>
@@ -11224,17 +10001,15 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>20121200366</v>
+        <v>20182100360</v>
       </c>
       <c r="C85" t="n">
-        <v>360</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
+        <v>1961</v>
+      </c>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -11263,17 +10038,15 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>20101200377</v>
+        <v>20182100361</v>
       </c>
       <c r="C86" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
+        <v>1961</v>
+      </c>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -11302,17 +10075,15 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>19991200380</v>
+        <v>20062100362</v>
       </c>
       <c r="C87" t="n">
-        <v>124</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
+        <v>1961</v>
+      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Undefined</t>
+          <t>OtherPV</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -11341,10 +10112,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>19821200381</v>
+        <v>20121200366</v>
       </c>
       <c r="C88" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -11380,10 +10151,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>20021200382</v>
+        <v>20101200377</v>
       </c>
       <c r="C89" t="n">
-        <v>143</v>
+        <v>85.3</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -11419,10 +10190,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>19991200385</v>
+        <v>19991200380</v>
       </c>
       <c r="C90" t="n">
-        <v>910</v>
+        <v>124</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -11458,10 +10229,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>20001200393</v>
+        <v>19821200381</v>
       </c>
       <c r="C91" t="n">
-        <v>79.7</v>
+        <v>480</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -11497,35 +10268,152 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>20021200382</v>
+      </c>
+      <c r="C92" t="n">
+        <v>143</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Undefined</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>19991200385</v>
+      </c>
+      <c r="C93" t="n">
+        <v>910</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Undefined</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="6" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>20001200393</v>
+      </c>
+      <c r="C94" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Undefined</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
         <v>19891200399</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C95" t="n">
         <v>220</v>
       </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" t="inlineStr">
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="inlineStr">
         <is>
           <t>Undefined</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11848,7 +10736,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20172600079</v>
+        <v>99992600009</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -11859,10 +10747,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -11892,7 +10780,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="6" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2">
@@ -11902,7 +10790,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.4</v>
+        <v>36.31999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -11912,7 +10800,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.69</v>
+        <v>5.419480705131206</v>
       </c>
     </row>
     <row r="4">
@@ -11922,7 +10810,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.96</v>
+        <v>52.45732594909905</v>
       </c>
     </row>
     <row r="5">
@@ -11932,7 +10820,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.8</v>
+        <v>819131.5724055663</v>
       </c>
     </row>
     <row r="6">
@@ -11942,7 +10830,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.16</v>
+        <v>1951765139.85252</v>
       </c>
     </row>
     <row r="7">
@@ -11952,7 +10840,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.44</v>
+        <v>1.193085562667373e+23</v>
       </c>
     </row>
     <row r="8">
@@ -11998,7 +10886,7 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>43830.99861111111</v>
+        <v>45291.99861111111</v>
       </c>
     </row>
     <row r="3">
@@ -12008,7 +10896,7 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>44195.99861111111</v>
+        <v>45656.99861111111</v>
       </c>
     </row>
   </sheetData>

--- a/data/amiris/amiris_data_structure.xlsx
+++ b/data/amiris/amiris_data_structure.xlsx
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1205,10 +1205,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1216,7 +1216,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20151700021</v>
+        <v>20151700001</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>4.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.411</v>
+        <v>0.43</v>
       </c>
       <c r="F4" t="n">
         <v>96.5</v>
@@ -1241,7 +1241,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20013000022</v>
+        <v>20013000001</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.355</v>
+        <v>0.35</v>
       </c>
       <c r="F5" t="n">
         <v>87</v>
@@ -1266,7 +1266,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20001700023</v>
+        <v>20001700001</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>4.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.381</v>
+        <v>0.43</v>
       </c>
       <c r="F6" t="n">
         <v>66</v>
@@ -1291,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19892800024</v>
+        <v>19892800001</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.378</v>
+        <v>0.44</v>
       </c>
       <c r="F7" t="n">
         <v>717</v>
@@ -1316,7 +1316,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20140300037</v>
+        <v>20140300001</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>4.2</v>
       </c>
       <c r="E8" t="n">
-        <v>0.55</v>
+        <v>0.61</v>
       </c>
       <c r="F8" t="n">
         <v>500</v>
@@ -1341,7 +1341,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20120300038</v>
+        <v>20120300001</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>4.2</v>
       </c>
       <c r="E9" t="n">
-        <v>0.55</v>
+        <v>0.61</v>
       </c>
       <c r="F9" t="n">
         <v>500</v>
@@ -1366,7 +1366,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20080300039</v>
+        <v>20080300001</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>4.2</v>
       </c>
       <c r="E10" t="n">
-        <v>0.55</v>
+        <v>0.61</v>
       </c>
       <c r="F10" t="n">
         <v>500</v>
@@ -1391,7 +1391,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20060300040</v>
+        <v>20060300001</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>4.2</v>
       </c>
       <c r="E11" t="n">
-        <v>0.55</v>
+        <v>0.61</v>
       </c>
       <c r="F11" t="n">
         <v>500</v>
@@ -1416,7 +1416,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20040300041</v>
+        <v>20040300001</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>4.2</v>
       </c>
       <c r="E12" t="n">
-        <v>0.55</v>
+        <v>0.61</v>
       </c>
       <c r="F12" t="n">
         <v>500</v>
@@ -1441,7 +1441,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20020300042</v>
+        <v>20020300001</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>4.2</v>
       </c>
       <c r="E13" t="n">
-        <v>0.55</v>
+        <v>0.61</v>
       </c>
       <c r="F13" t="n">
         <v>500</v>
@@ -1466,7 +1466,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20000300043</v>
+        <v>20000300001</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>4.2</v>
       </c>
       <c r="E14" t="n">
-        <v>0.55</v>
+        <v>0.61</v>
       </c>
       <c r="F14" t="n">
         <v>500</v>
@@ -1491,7 +1491,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20092800044</v>
+        <v>20092800001</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.438</v>
+        <v>0.44</v>
       </c>
       <c r="F15" t="n">
         <v>341.4</v>
@@ -1516,7 +1516,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20002800045</v>
+        <v>20002800001</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="F16" t="n">
         <v>320.5</v>
@@ -1541,7 +1541,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20033000046</v>
+        <v>20033000001</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.336</v>
+        <v>0.35</v>
       </c>
       <c r="F17" t="n">
         <v>321.5</v>
@@ -1566,7 +1566,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20113000047</v>
+        <v>20113000001</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="F18" t="n">
         <v>321.5</v>
@@ -1591,7 +1591,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20062900048</v>
+        <v>20062900001</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.378</v>
+        <v>0.45</v>
       </c>
       <c r="F19" t="n">
         <v>206.8</v>
@@ -1616,7 +1616,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20032900049</v>
+        <v>20032900001</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.371</v>
+        <v>0.45</v>
       </c>
       <c r="F20" t="n">
         <v>307.1</v>
@@ -1641,7 +1641,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20062900051</v>
+        <v>20062900001</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.429</v>
+        <v>0.45</v>
       </c>
       <c r="F21" t="n">
         <v>1050</v>
@@ -1666,7 +1666,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19872900052</v>
+        <v>19872900001</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.429</v>
+        <v>0.45</v>
       </c>
       <c r="F22" t="n">
         <v>1050</v>
@@ -1691,7 +1691,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20102900053</v>
+        <v>20102900001</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="F23" t="n">
         <v>857</v>
@@ -1716,7 +1716,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>19882900055</v>
+        <v>19882900001</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.386</v>
+        <v>0.45</v>
       </c>
       <c r="F24" t="n">
         <v>465</v>
@@ -1741,7 +1741,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>19852900056</v>
+        <v>19852900001</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.383</v>
+        <v>0.45</v>
       </c>
       <c r="F25" t="n">
         <v>465</v>
@@ -1766,7 +1766,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19871400059</v>
+        <v>19871400001</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20120300061</v>
+        <v>20120300001</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>4.2</v>
       </c>
       <c r="E27" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F27" t="n">
         <v>72</v>
@@ -1816,7 +1816,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20090300063</v>
+        <v>20090300001</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>4.2</v>
       </c>
       <c r="E28" t="n">
-        <v>0.572</v>
+        <v>0.61</v>
       </c>
       <c r="F28" t="n">
         <v>417</v>
@@ -1841,7 +1841,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20110300065</v>
+        <v>20110300001</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>4.2</v>
       </c>
       <c r="E29" t="n">
-        <v>0.545</v>
+        <v>0.61</v>
       </c>
       <c r="F29" t="n">
         <v>120</v>
@@ -1866,7 +1866,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20143000066</v>
+        <v>20143000001</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="F30" t="n">
         <v>262</v>
@@ -1891,7 +1891,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20003000067</v>
+        <v>20003000001</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="F31" t="n">
         <v>85</v>
@@ -1916,7 +1916,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>19943000071</v>
+        <v>19943000001</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="F32" t="n">
         <v>225</v>
@@ -1941,7 +1941,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20153000072</v>
+        <v>20153000001</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="F33" t="n">
         <v>165</v>
@@ -1966,7 +1966,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20020300074</v>
+        <v>20020300001</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>4.2</v>
       </c>
       <c r="E34" t="n">
-        <v>0.585</v>
+        <v>0.61</v>
       </c>
       <c r="F34" t="n">
         <v>887</v>
@@ -1991,7 +1991,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19852800081</v>
+        <v>19852800001</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.443</v>
+        <v>0.44</v>
       </c>
       <c r="F35" t="n">
         <v>350</v>
@@ -2016,7 +2016,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>20181700082</v>
+        <v>20181700001</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>4.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0.432</v>
+        <v>0.43</v>
       </c>
       <c r="F36" t="n">
         <v>440</v>
@@ -2041,7 +2041,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20011700083</v>
+        <v>20011700001</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>4.5</v>
       </c>
       <c r="E37" t="n">
-        <v>0.419</v>
+        <v>0.43</v>
       </c>
       <c r="F37" t="n">
         <v>383</v>
@@ -2066,7 +2066,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>19862900084</v>
+        <v>19862900001</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.371</v>
+        <v>0.45</v>
       </c>
       <c r="F38" t="n">
         <v>118</v>
@@ -2091,7 +2091,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>19952900085</v>
+        <v>19952900001</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.376</v>
+        <v>0.45</v>
       </c>
       <c r="F39" t="n">
         <v>284</v>
@@ -2116,7 +2116,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20072900086</v>
+        <v>20072900001</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.376</v>
+        <v>0.45</v>
       </c>
       <c r="F40" t="n">
         <v>278</v>
@@ -2141,7 +2141,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20022800087</v>
+        <v>20022800001</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="F41" t="n">
         <v>103</v>
@@ -2166,7 +2166,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20122800088</v>
+        <v>20122800001</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.398</v>
+        <v>0.44</v>
       </c>
       <c r="F42" t="n">
         <v>136</v>
@@ -2191,7 +2191,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>19882800089</v>
+        <v>19882800001</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.398</v>
+        <v>0.44</v>
       </c>
       <c r="F43" t="n">
         <v>136</v>
@@ -2216,7 +2216,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20020300090</v>
+        <v>20020300001</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>4.2</v>
       </c>
       <c r="E44" t="n">
-        <v>0.599</v>
+        <v>0.61</v>
       </c>
       <c r="F44" t="n">
         <v>230</v>
@@ -2241,7 +2241,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>19942800091</v>
+        <v>19942800001</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.463</v>
+        <v>0.44</v>
       </c>
       <c r="F45" t="n">
         <v>843</v>
@@ -2266,7 +2266,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>19912800092</v>
+        <v>19912800001</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.408</v>
+        <v>0.44</v>
       </c>
       <c r="F46" t="n">
         <v>435</v>
@@ -2291,7 +2291,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20042800093</v>
+        <v>20042800001</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="F47" t="n">
         <v>425</v>
@@ -2316,7 +2316,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20102800094</v>
+        <v>20102800001</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.438</v>
+        <v>0.44</v>
       </c>
       <c r="F48" t="n">
         <v>255</v>
@@ -2341,7 +2341,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20123000095</v>
+        <v>20123000001</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="F49" t="n">
         <v>86.2</v>
@@ -2366,7 +2366,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>19991700097</v>
+        <v>19991700001</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>4.5</v>
       </c>
       <c r="E50" t="n">
-        <v>0.312</v>
+        <v>0.43</v>
       </c>
       <c r="F50" t="n">
         <v>64.7</v>
@@ -2391,7 +2391,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20050300098</v>
+        <v>20050300001</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>4.2</v>
       </c>
       <c r="E51" t="n">
-        <v>0.599</v>
+        <v>0.61</v>
       </c>
       <c r="F51" t="n">
         <v>94.59999999999999</v>
@@ -2416,7 +2416,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>19971400101</v>
+        <v>19971400001</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20040300102</v>
+        <v>20040300001</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>4.2</v>
       </c>
       <c r="E53" t="n">
-        <v>0.585</v>
+        <v>0.61</v>
       </c>
       <c r="F53" t="n">
         <v>846</v>
@@ -2466,7 +2466,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>19962800103</v>
+        <v>19962800001</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.405</v>
+        <v>0.44</v>
       </c>
       <c r="F54" t="n">
         <v>323</v>
@@ -2491,7 +2491,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20151700105</v>
+        <v>20151700001</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>4.5</v>
       </c>
       <c r="E55" t="n">
-        <v>0.419</v>
+        <v>0.43</v>
       </c>
       <c r="F55" t="n">
         <v>355</v>
@@ -2516,7 +2516,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20131700106</v>
+        <v>20131700001</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>4.5</v>
       </c>
       <c r="E56" t="n">
-        <v>0.419</v>
+        <v>0.43</v>
       </c>
       <c r="F56" t="n">
         <v>355</v>
@@ -2541,7 +2541,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20041700108</v>
+        <v>20041700001</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>4.5</v>
       </c>
       <c r="E57" t="n">
-        <v>0.338</v>
+        <v>0.43</v>
       </c>
       <c r="F57" t="n">
         <v>112</v>
@@ -2566,7 +2566,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20051700109</v>
+        <v>20051700001</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>4.5</v>
       </c>
       <c r="E58" t="n">
-        <v>0.31</v>
+        <v>0.43</v>
       </c>
       <c r="F58" t="n">
         <v>55</v>
@@ -2591,7 +2591,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>19911400111</v>
+        <v>19911400001</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>20060300114</v>
+        <v>20060300001</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>4.2</v>
       </c>
       <c r="E60" t="n">
-        <v>0.54</v>
+        <v>0.61</v>
       </c>
       <c r="F60" t="n">
         <v>106</v>
@@ -2641,7 +2641,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20050300115</v>
+        <v>20050300001</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>4.2</v>
       </c>
       <c r="E61" t="n">
-        <v>0.522</v>
+        <v>0.61</v>
       </c>
       <c r="F61" t="n">
         <v>108</v>
@@ -2666,7 +2666,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20060300116</v>
+        <v>20060300001</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>4.2</v>
       </c>
       <c r="E62" t="n">
-        <v>0.513</v>
+        <v>0.61</v>
       </c>
       <c r="F62" t="n">
         <v>122</v>
@@ -2691,7 +2691,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20080300117</v>
+        <v>20080300001</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>4.2</v>
       </c>
       <c r="E63" t="n">
-        <v>0.581</v>
+        <v>0.61</v>
       </c>
       <c r="F63" t="n">
         <v>127</v>
@@ -2716,7 +2716,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20010300119</v>
+        <v>20010300001</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>4.2</v>
       </c>
       <c r="E64" t="n">
-        <v>0.527</v>
+        <v>0.61</v>
       </c>
       <c r="F64" t="n">
         <v>75</v>
@@ -2741,7 +2741,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20160300120</v>
+        <v>20160300001</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>4.2</v>
       </c>
       <c r="E65" t="n">
-        <v>0.522</v>
+        <v>0.61</v>
       </c>
       <c r="F65" t="n">
         <v>132</v>
@@ -2766,7 +2766,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20050300121</v>
+        <v>20050300001</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>4.2</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="F66" t="n">
         <v>82</v>
@@ -2791,7 +2791,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20131700122</v>
+        <v>20131700001</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>4.5</v>
       </c>
       <c r="E67" t="n">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
       <c r="F67" t="n">
         <v>57.2</v>
@@ -2816,7 +2816,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20020300123</v>
+        <v>20020300001</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>4.2</v>
       </c>
       <c r="E68" t="n">
-        <v>0.518</v>
+        <v>0.61</v>
       </c>
       <c r="F68" t="n">
         <v>263</v>
@@ -2841,7 +2841,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20112800124</v>
+        <v>20112800001</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.398</v>
+        <v>0.44</v>
       </c>
       <c r="F69" t="n">
         <v>85</v>
@@ -2866,7 +2866,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20150300126</v>
+        <v>20150300001</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>4.2</v>
       </c>
       <c r="E70" t="n">
-        <v>0.54</v>
+        <v>0.61</v>
       </c>
       <c r="F70" t="n">
         <v>76.5</v>
@@ -2891,7 +2891,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20191700127</v>
+        <v>20191700001</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>4.5</v>
       </c>
       <c r="E71" t="n">
-        <v>0.391</v>
+        <v>0.43</v>
       </c>
       <c r="F71" t="n">
         <v>97</v>
@@ -2916,7 +2916,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20100300128</v>
+        <v>20100300001</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>4.2</v>
       </c>
       <c r="E72" t="n">
-        <v>0.599</v>
+        <v>0.61</v>
       </c>
       <c r="F72" t="n">
         <v>54</v>
@@ -2941,7 +2941,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>20122800129</v>
+        <v>20122800001</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.388</v>
+        <v>0.44</v>
       </c>
       <c r="F73" t="n">
         <v>95</v>
@@ -2966,7 +2966,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>20130300131</v>
+        <v>20130300001</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>4.2</v>
       </c>
       <c r="E74" t="n">
-        <v>0.522</v>
+        <v>0.61</v>
       </c>
       <c r="F74" t="n">
         <v>182</v>
@@ -2991,7 +2991,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>19990300132</v>
+        <v>19990300001</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>4.2</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="F75" t="n">
         <v>108</v>
@@ -3016,7 +3016,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>20160300133</v>
+        <v>20160300001</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>4.2</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="F76" t="n">
         <v>70</v>
@@ -3041,7 +3041,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>20120300134</v>
+        <v>20120300001</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>4.2</v>
       </c>
       <c r="E77" t="n">
-        <v>0.576</v>
+        <v>0.61</v>
       </c>
       <c r="F77" t="n">
         <v>413</v>
@@ -3066,7 +3066,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>20001700135</v>
+        <v>20001700001</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>4.5</v>
       </c>
       <c r="E78" t="n">
-        <v>0.381</v>
+        <v>0.43</v>
       </c>
       <c r="F78" t="n">
         <v>81.8</v>
@@ -3091,7 +3091,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>20120300137</v>
+        <v>20120300001</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>4.2</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="F79" t="n">
         <v>75</v>
@@ -3116,7 +3116,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>20172800140</v>
+        <v>20172800001</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.388</v>
+        <v>0.44</v>
       </c>
       <c r="F80" t="n">
         <v>138.5</v>
@@ -3141,7 +3141,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>20021700141</v>
+        <v>20021700001</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>4.5</v>
       </c>
       <c r="E81" t="n">
-        <v>0.364</v>
+        <v>0.43</v>
       </c>
       <c r="F81" t="n">
         <v>99</v>
@@ -3166,7 +3166,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>20080300143</v>
+        <v>20080300001</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>4.2</v>
       </c>
       <c r="E82" t="n">
-        <v>0.585</v>
+        <v>0.61</v>
       </c>
       <c r="F82" t="n">
         <v>74</v>
@@ -3191,7 +3191,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>19912800146</v>
+        <v>19912800001</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.398</v>
+        <v>0.44</v>
       </c>
       <c r="F83" t="n">
         <v>211</v>
@@ -3216,7 +3216,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>20152800147</v>
+        <v>20152800001</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0.455</v>
+        <v>0.44</v>
       </c>
       <c r="F84" t="n">
         <v>433</v>
@@ -3241,7 +3241,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>19862800148</v>
+        <v>19862800001</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>20051700149</v>
+        <v>20051700001</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>4.5</v>
       </c>
       <c r="E86" t="n">
-        <v>0.315</v>
+        <v>0.43</v>
       </c>
       <c r="F86" t="n">
         <v>81</v>
@@ -3291,7 +3291,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>20051700150</v>
+        <v>20051700001</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>4.5</v>
       </c>
       <c r="E87" t="n">
-        <v>0.372</v>
+        <v>0.43</v>
       </c>
       <c r="F87" t="n">
         <v>65</v>
@@ -3316,7 +3316,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>20011700151</v>
+        <v>20011700001</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>4.5</v>
       </c>
       <c r="E88" t="n">
-        <v>0.31</v>
+        <v>0.43</v>
       </c>
       <c r="F88" t="n">
         <v>57</v>
@@ -3341,7 +3341,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>20111700152</v>
+        <v>20111700001</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>4.5</v>
       </c>
       <c r="E89" t="n">
-        <v>0.381</v>
+        <v>0.43</v>
       </c>
       <c r="F89" t="n">
         <v>74</v>
@@ -3366,7 +3366,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>20000300153</v>
+        <v>20000300001</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>4.2</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="F90" t="n">
         <v>100.2</v>
@@ -3391,7 +3391,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>20062800155</v>
+        <v>20062800001</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.448</v>
+        <v>0.44</v>
       </c>
       <c r="F91" t="n">
         <v>778</v>
@@ -3416,7 +3416,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>19972800156</v>
+        <v>19972800001</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F92" t="n">
         <v>125</v>
@@ -3441,7 +3441,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>20162800157</v>
+        <v>20162800001</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F93" t="n">
         <v>125</v>
@@ -3466,7 +3466,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>20191700158</v>
+        <v>20191700001</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>4.5</v>
       </c>
       <c r="E94" t="n">
-        <v>0.399</v>
+        <v>0.43</v>
       </c>
       <c r="F94" t="n">
         <v>95</v>
@@ -3491,7 +3491,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>19991700160</v>
+        <v>19991700001</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>4.5</v>
       </c>
       <c r="E95" t="n">
-        <v>0.399</v>
+        <v>0.43</v>
       </c>
       <c r="F95" t="n">
         <v>95</v>
@@ -3516,7 +3516,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>20010300161</v>
+        <v>20010300001</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>4.2</v>
       </c>
       <c r="E96" t="n">
-        <v>0.554</v>
+        <v>0.61</v>
       </c>
       <c r="F96" t="n">
         <v>86</v>
@@ -3541,7 +3541,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>19882800162</v>
+        <v>19882800001</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.393</v>
+        <v>0.44</v>
       </c>
       <c r="F97" t="n">
         <v>875</v>
@@ -3566,7 +3566,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>20091700165</v>
+        <v>20091700001</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>4.5</v>
       </c>
       <c r="E98" t="n">
-        <v>0.328</v>
+        <v>0.43</v>
       </c>
       <c r="F98" t="n">
         <v>84</v>
@@ -3591,7 +3591,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>20123000166</v>
+        <v>20123000001</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="F99" t="n">
         <v>303</v>
@@ -3616,7 +3616,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>20163000167</v>
+        <v>20163000001</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="F100" t="n">
         <v>303</v>
@@ -3641,7 +3641,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>20191700168</v>
+        <v>20191700001</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>4.5</v>
       </c>
       <c r="E101" t="n">
-        <v>0.396</v>
+        <v>0.43</v>
       </c>
       <c r="F101" t="n">
         <v>321</v>
@@ -3666,7 +3666,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>20033000170</v>
+        <v>20033000001</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>0.383</v>
+        <v>0.35</v>
       </c>
       <c r="F102" t="n">
         <v>106</v>
@@ -3691,7 +3691,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>20143000171</v>
+        <v>20143000001</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>0.383</v>
+        <v>0.35</v>
       </c>
       <c r="F103" t="n">
         <v>106</v>
@@ -3716,7 +3716,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>19842800172</v>
+        <v>19842800001</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.448</v>
+        <v>0.44</v>
       </c>
       <c r="F104" t="n">
         <v>794</v>
@@ -3741,7 +3741,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>20100300173</v>
+        <v>20100300001</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>4.2</v>
       </c>
       <c r="E105" t="n">
-        <v>0.513</v>
+        <v>0.61</v>
       </c>
       <c r="F105" t="n">
         <v>66</v>
@@ -3766,7 +3766,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>20163000174</v>
+        <v>20163000001</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.356</v>
+        <v>0.35</v>
       </c>
       <c r="F106" t="n">
         <v>386</v>
@@ -3791,7 +3791,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>20043000178</v>
+        <v>20043000001</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0.354</v>
+        <v>0.35</v>
       </c>
       <c r="F107" t="n">
         <v>88</v>
@@ -3816,7 +3816,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>19862800180</v>
+        <v>19862800001</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="F108" t="n">
         <v>514</v>
@@ -3841,7 +3841,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>20132800181</v>
+        <v>20132800001</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>0.373</v>
+        <v>0.44</v>
       </c>
       <c r="F109" t="n">
         <v>300</v>
@@ -3866,7 +3866,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>19872800182</v>
+        <v>19872800001</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>0.345</v>
+        <v>0.44</v>
       </c>
       <c r="F110" t="n">
         <v>127</v>
@@ -3891,7 +3891,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>20171700184</v>
+        <v>20171700001</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>4.5</v>
       </c>
       <c r="E111" t="n">
-        <v>0.354</v>
+        <v>0.43</v>
       </c>
       <c r="F111" t="n">
         <v>155</v>
@@ -3916,7 +3916,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>20142800185</v>
+        <v>20142800001</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0.458</v>
+        <v>0.44</v>
       </c>
       <c r="F112" t="n">
         <v>449</v>
@@ -3941,7 +3941,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>20122800186</v>
+        <v>20122800001</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0.398</v>
+        <v>0.44</v>
       </c>
       <c r="F113" t="n">
         <v>280</v>
@@ -3966,7 +3966,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>20072900187</v>
+        <v>20072900001</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="F114" t="n">
         <v>465</v>
@@ -3991,7 +3991,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>19932900188</v>
+        <v>19932900001</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="F115" t="n">
         <v>465</v>
@@ -4016,7 +4016,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>20042900189</v>
+        <v>20042900001</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="F116" t="n">
         <v>465</v>
@@ -4041,7 +4041,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>19852900190</v>
+        <v>19852900001</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="F117" t="n">
         <v>465</v>
@@ -4066,7 +4066,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>20092900191</v>
+        <v>20092900001</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="F118" t="n">
         <v>465</v>
@@ -4091,7 +4091,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>20112900192</v>
+        <v>20112900001</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="F119" t="n">
         <v>465</v>
@@ -4116,7 +4116,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>20000300193</v>
+        <v>20000300001</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>4.2</v>
       </c>
       <c r="E120" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F120" t="n">
         <v>201.5</v>
@@ -4141,7 +4141,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>19942800194</v>
+        <v>19942800001</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0.418</v>
+        <v>0.44</v>
       </c>
       <c r="F121" t="n">
         <v>324</v>
@@ -4166,7 +4166,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>20052800195</v>
+        <v>20052800001</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>0.415</v>
+        <v>0.44</v>
       </c>
       <c r="F122" t="n">
         <v>149</v>
@@ -4191,7 +4191,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>20113000196</v>
+        <v>20113000001</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="F123" t="n">
         <v>160</v>
@@ -4216,7 +4216,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>20073000197</v>
+        <v>20073000001</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>0.312</v>
+        <v>0.35</v>
       </c>
       <c r="F124" t="n">
         <v>88</v>
@@ -4241,7 +4241,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>19902800198</v>
+        <v>19902800001</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>0.438</v>
+        <v>0.44</v>
       </c>
       <c r="F125" t="n">
         <v>695</v>
@@ -4266,7 +4266,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>19982800199</v>
+        <v>19982800001</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>0.438</v>
+        <v>0.44</v>
       </c>
       <c r="F126" t="n">
         <v>695</v>
@@ -4291,7 +4291,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>20162800200</v>
+        <v>20162800001</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>0.458</v>
+        <v>0.44</v>
       </c>
       <c r="F127" t="n">
         <v>725</v>
@@ -4316,7 +4316,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>19932800201</v>
+        <v>19932800001</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>0.395</v>
+        <v>0.44</v>
       </c>
       <c r="F128" t="n">
         <v>370</v>
@@ -4341,7 +4341,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>20092800202</v>
+        <v>20092800001</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>0.353</v>
+        <v>0.44</v>
       </c>
       <c r="F129" t="n">
         <v>322</v>
@@ -4366,7 +4366,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>19952800203</v>
+        <v>19952800001</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>0.353</v>
+        <v>0.44</v>
       </c>
       <c r="F130" t="n">
         <v>318</v>
@@ -4391,7 +4391,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>20001700204</v>
+        <v>20001700001</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>4.5</v>
       </c>
       <c r="E131" t="n">
-        <v>0.358</v>
+        <v>0.43</v>
       </c>
       <c r="F131" t="n">
         <v>102</v>
@@ -4416,7 +4416,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>20142800205</v>
+        <v>20142800001</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>0.433</v>
+        <v>0.44</v>
       </c>
       <c r="F132" t="n">
         <v>690</v>
@@ -4441,7 +4441,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>19851400207</v>
+        <v>19851400001</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>19841400208</v>
+        <v>19841400001</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>19871400209</v>
+        <v>19871400001</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>19891400210</v>
+        <v>19891400001</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>19982900212</v>
+        <v>19982900001</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>0.357</v>
+        <v>0.45</v>
       </c>
       <c r="F137" t="n">
         <v>164</v>
@@ -4566,7 +4566,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>20000300213</v>
+        <v>20000300001</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>4.2</v>
       </c>
       <c r="E138" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="F138" t="n">
         <v>800</v>
@@ -4591,7 +4591,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>20020300214</v>
+        <v>20020300001</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>4.2</v>
       </c>
       <c r="E139" t="n">
-        <v>0.599</v>
+        <v>0.61</v>
       </c>
       <c r="F139" t="n">
         <v>430</v>
@@ -4616,7 +4616,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>20122800216</v>
+        <v>20122800001</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>0.383</v>
+        <v>0.44</v>
       </c>
       <c r="F140" t="n">
         <v>721</v>
@@ -4641,7 +4641,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>19972800217</v>
+        <v>19972800001</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F141" t="n">
         <v>283</v>
@@ -4666,7 +4666,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>19852800219</v>
+        <v>19852800001</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>0.273</v>
+        <v>0.44</v>
       </c>
       <c r="F142" t="n">
         <v>120</v>
@@ -4691,7 +4691,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>20140300220</v>
+        <v>20140300001</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>4.2</v>
       </c>
       <c r="E143" t="n">
-        <v>0.554</v>
+        <v>0.61</v>
       </c>
       <c r="F143" t="n">
         <v>77.59999999999999</v>
@@ -4716,7 +4716,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>20191700222</v>
+        <v>20191700001</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>4.5</v>
       </c>
       <c r="E144" t="n">
-        <v>0.403</v>
+        <v>0.43</v>
       </c>
       <c r="F144" t="n">
         <v>60.6</v>
@@ -4741,7 +4741,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>20060300223</v>
+        <v>20060300001</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>4.2</v>
       </c>
       <c r="E145" t="n">
-        <v>0.545</v>
+        <v>0.61</v>
       </c>
       <c r="F145" t="n">
         <v>434.2</v>
@@ -4766,7 +4766,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>20041700224</v>
+        <v>20041700001</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>4.5</v>
       </c>
       <c r="E146" t="n">
-        <v>0.437</v>
+        <v>0.43</v>
       </c>
       <c r="F146" t="n">
         <v>335</v>
@@ -4791,7 +4791,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>20110300225</v>
+        <v>20110300001</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>4.2</v>
       </c>
       <c r="E147" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="F147" t="n">
         <v>490</v>
@@ -4816,7 +4816,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>19902800226</v>
+        <v>19902800001</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>0.353</v>
+        <v>0.44</v>
       </c>
       <c r="F148" t="n">
         <v>110</v>
@@ -4841,7 +4841,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>20040300227</v>
+        <v>20040300001</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>4.2</v>
       </c>
       <c r="E149" t="n">
-        <v>0.585</v>
+        <v>0.61</v>
       </c>
       <c r="F149" t="n">
         <v>97.90000000000001</v>
@@ -4866,7 +4866,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>19953000228</v>
+        <v>19953000001</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="F150" t="n">
         <v>97</v>
@@ -4891,7 +4891,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>20063000229</v>
+        <v>20063000001</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="F151" t="n">
         <v>97</v>
@@ -4916,7 +4916,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>20130300230</v>
+        <v>20130300001</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>4.2</v>
       </c>
       <c r="E152" t="n">
-        <v>0.527</v>
+        <v>0.61</v>
       </c>
       <c r="F152" t="n">
         <v>390</v>
@@ -4941,7 +4941,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>20173000232</v>
+        <v>20173000001</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>0.331</v>
+        <v>0.35</v>
       </c>
       <c r="F153" t="n">
         <v>136</v>
@@ -4966,7 +4966,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>19902800233</v>
+        <v>19902800001</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>0.453</v>
+        <v>0.44</v>
       </c>
       <c r="F154" t="n">
         <v>148</v>
@@ -4991,7 +4991,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>19952800234</v>
+        <v>19952800001</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>0.453</v>
+        <v>0.44</v>
       </c>
       <c r="F155" t="n">
         <v>96</v>
@@ -5016,7 +5016,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>20063000235</v>
+        <v>20063000001</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="F156" t="n">
         <v>206</v>
@@ -5041,7 +5041,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>20162800236</v>
+        <v>20162800001</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="F157" t="n">
         <v>310</v>
@@ -5066,7 +5066,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>19982800237</v>
+        <v>19982800001</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>0.463</v>
+        <v>0.44</v>
       </c>
       <c r="F158" t="n">
         <v>731</v>
@@ -5091,7 +5091,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>20091700240</v>
+        <v>20091700001</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>4.5</v>
       </c>
       <c r="E159" t="n">
-        <v>0.383</v>
+        <v>0.43</v>
       </c>
       <c r="F159" t="n">
         <v>144</v>
@@ -5116,7 +5116,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>20191700241</v>
+        <v>20191700001</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>4.5</v>
       </c>
       <c r="E160" t="n">
-        <v>0.383</v>
+        <v>0.43</v>
       </c>
       <c r="F160" t="n">
         <v>144</v>
@@ -5141,7 +5141,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>20111700242</v>
+        <v>20111700001</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>4.5</v>
       </c>
       <c r="E161" t="n">
-        <v>0.383</v>
+        <v>0.43</v>
       </c>
       <c r="F161" t="n">
         <v>144</v>
@@ -5166,7 +5166,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>20090300245</v>
+        <v>20090300001</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>4.2</v>
       </c>
       <c r="E162" t="n">
-        <v>0.522</v>
+        <v>0.61</v>
       </c>
       <c r="F162" t="n">
         <v>444</v>
@@ -5191,7 +5191,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>19982800247</v>
+        <v>19982800001</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="F163" t="n">
         <v>179</v>
@@ -5216,7 +5216,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>20162800248</v>
+        <v>20162800001</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>0.463</v>
+        <v>0.44</v>
       </c>
       <c r="F164" t="n">
         <v>774</v>
@@ -5241,7 +5241,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>19982800249</v>
+        <v>19982800001</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>0.463</v>
+        <v>0.44</v>
       </c>
       <c r="F165" t="n">
         <v>766</v>
@@ -5266,7 +5266,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>20012900251</v>
+        <v>20012900001</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="F166" t="n">
         <v>607</v>
@@ -5291,7 +5291,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>19852900252</v>
+        <v>19852900001</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>0.342</v>
+        <v>0.45</v>
       </c>
       <c r="F167" t="n">
         <v>604</v>
@@ -5316,7 +5316,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>20072900253</v>
+        <v>20072900001</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>0.335</v>
+        <v>0.45</v>
       </c>
       <c r="F168" t="n">
         <v>292</v>
@@ -5341,7 +5341,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>19942900254</v>
+        <v>19942900001</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>0.333</v>
+        <v>0.45</v>
       </c>
       <c r="F169" t="n">
         <v>288</v>
@@ -5366,7 +5366,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>20172900256</v>
+        <v>20172900001</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>0.405</v>
+        <v>0.45</v>
       </c>
       <c r="F170" t="n">
         <v>944</v>
@@ -5391,7 +5391,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>20082900258</v>
+        <v>20082900001</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>0.422</v>
+        <v>0.45</v>
       </c>
       <c r="F171" t="n">
         <v>648</v>
@@ -5416,7 +5416,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>20012900260</v>
+        <v>20012900001</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>0.323</v>
+        <v>0.45</v>
       </c>
       <c r="F172" t="n">
         <v>297</v>
@@ -5441,7 +5441,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>20152900261</v>
+        <v>20152900001</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>0.328</v>
+        <v>0.45</v>
       </c>
       <c r="F173" t="n">
         <v>295</v>
@@ -5466,7 +5466,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>20162900262</v>
+        <v>20162900001</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>0.316</v>
+        <v>0.45</v>
       </c>
       <c r="F174" t="n">
         <v>294</v>
@@ -5491,7 +5491,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>19892900263</v>
+        <v>19892900001</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>0.311</v>
+        <v>0.45</v>
       </c>
       <c r="F175" t="n">
         <v>125</v>
@@ -5516,7 +5516,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>19982900264</v>
+        <v>19982900001</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>0.311</v>
+        <v>0.45</v>
       </c>
       <c r="F176" t="n">
         <v>125</v>
@@ -5541,7 +5541,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>19902800265</v>
+        <v>19902800001</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>0.403</v>
+        <v>0.44</v>
       </c>
       <c r="F177" t="n">
         <v>332.7</v>
@@ -5566,7 +5566,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>20160300266</v>
+        <v>20160300001</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>4.2</v>
       </c>
       <c r="E178" t="n">
-        <v>0.518</v>
+        <v>0.61</v>
       </c>
       <c r="F178" t="n">
         <v>64</v>
@@ -5591,7 +5591,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>19983000314</v>
+        <v>19983000001</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="F179" t="n">
         <v>92.5</v>
@@ -5616,7 +5616,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>20122800316</v>
+        <v>20122800001</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>0.395</v>
+        <v>0.44</v>
       </c>
       <c r="F180" t="n">
         <v>282</v>
@@ -5641,7 +5641,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>20042800317</v>
+        <v>20042800001</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>0.393</v>
+        <v>0.44</v>
       </c>
       <c r="F181" t="n">
         <v>282</v>
@@ -5666,7 +5666,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>20152800318</v>
+        <v>20152800001</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>0.348</v>
+        <v>0.44</v>
       </c>
       <c r="F182" t="n">
         <v>124</v>
@@ -5691,7 +5691,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>19882800319</v>
+        <v>19882800001</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="F183" t="n">
         <v>842</v>
@@ -5716,7 +5716,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>19882800320</v>
+        <v>19882800001</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>0.438</v>
+        <v>0.44</v>
       </c>
       <c r="F184" t="n">
         <v>505</v>
@@ -5741,7 +5741,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>20030300321</v>
+        <v>20030300001</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>4.2</v>
       </c>
       <c r="E185" t="n">
-        <v>0.531</v>
+        <v>0.61</v>
       </c>
       <c r="F185" t="n">
         <v>353</v>
@@ -5766,7 +5766,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>20082900323</v>
+        <v>20082900001</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="F186" t="n">
         <v>450</v>
@@ -5791,7 +5791,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>20022900324</v>
+        <v>20022900001</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="F187" t="n">
         <v>450</v>
@@ -5816,7 +5816,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>20122800325</v>
+        <v>20122800001</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>0.345</v>
+        <v>0.44</v>
       </c>
       <c r="F188" t="n">
         <v>345</v>
@@ -5841,7 +5841,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>19912800326</v>
+        <v>19912800001</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="E189" t="n">
-        <v>0.348</v>
+        <v>0.44</v>
       </c>
       <c r="F189" t="n">
         <v>345</v>
@@ -5866,7 +5866,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>20032800331</v>
+        <v>20032800001</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>0.386</v>
+        <v>0.44</v>
       </c>
       <c r="F190" t="n">
         <v>90</v>
@@ -5891,7 +5891,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>20053000332</v>
+        <v>20053000001</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="E191" t="n">
-        <v>0.357</v>
+        <v>0.35</v>
       </c>
       <c r="F191" t="n">
         <v>91</v>
@@ -5916,7 +5916,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>20163000333</v>
+        <v>20163000001</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>0.307</v>
+        <v>0.35</v>
       </c>
       <c r="F192" t="n">
         <v>390.5</v>
@@ -5941,7 +5941,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>19963000334</v>
+        <v>19963000001</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="E193" t="n">
-        <v>0.307</v>
+        <v>0.35</v>
       </c>
       <c r="F193" t="n">
         <v>334.2</v>
@@ -5966,7 +5966,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>20061700336</v>
+        <v>20061700001</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>4.5</v>
       </c>
       <c r="E194" t="n">
-        <v>0.396</v>
+        <v>0.43</v>
       </c>
       <c r="F194" t="n">
         <v>96</v>
@@ -5991,7 +5991,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>20061700337</v>
+        <v>20061700001</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>4.5</v>
       </c>
       <c r="E195" t="n">
-        <v>0.396</v>
+        <v>0.43</v>
       </c>
       <c r="F195" t="n">
         <v>96</v>
@@ -6016,7 +6016,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>20101700338</v>
+        <v>20101700001</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
         <v>4.5</v>
       </c>
       <c r="E196" t="n">
-        <v>0.31</v>
+        <v>0.43</v>
       </c>
       <c r="F196" t="n">
         <v>100</v>
@@ -6041,7 +6041,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>20081700339</v>
+        <v>20081700001</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>4.5</v>
       </c>
       <c r="E197" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F197" t="n">
         <v>100</v>
@@ -6066,7 +6066,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>20061700340</v>
+        <v>20061700001</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>4.5</v>
       </c>
       <c r="E198" t="n">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="F198" t="n">
         <v>100</v>
@@ -6091,7 +6091,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>20041700341</v>
+        <v>20041700001</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>4.5</v>
       </c>
       <c r="E199" t="n">
-        <v>0.34</v>
+        <v>0.43</v>
       </c>
       <c r="F199" t="n">
         <v>100</v>
@@ -6116,7 +6116,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>20021700342</v>
+        <v>20021700001</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>4.5</v>
       </c>
       <c r="E200" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="F200" t="n">
         <v>100</v>
@@ -6141,7 +6141,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>20033000363</v>
+        <v>20033000001</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>0.364</v>
+        <v>0.35</v>
       </c>
       <c r="F201" t="n">
         <v>120</v>
@@ -6166,7 +6166,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>20082800364</v>
+        <v>20082800001</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>0.405</v>
+        <v>0.44</v>
       </c>
       <c r="F202" t="n">
         <v>510</v>
@@ -6191,7 +6191,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>20070300367</v>
+        <v>20070300001</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>4.2</v>
       </c>
       <c r="E203" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F203" t="n">
         <v>79.7</v>
@@ -6216,7 +6216,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>20000300368</v>
+        <v>20000300001</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>4.2</v>
       </c>
       <c r="E204" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="F204" t="n">
         <v>127.6</v>
@@ -6241,7 +6241,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>20050300369</v>
+        <v>20050300001</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>4.2</v>
       </c>
       <c r="E205" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="F205" t="n">
         <v>124.9</v>
@@ -6266,7 +6266,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>20150300370</v>
+        <v>20150300001</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>4.2</v>
       </c>
       <c r="E206" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="F206" t="n">
         <v>123.9</v>
@@ -6291,7 +6291,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>20060300372</v>
+        <v>20060300001</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>4.2</v>
       </c>
       <c r="E207" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="F207" t="n">
         <v>97.90000000000001</v>
@@ -6316,7 +6316,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>20122800373</v>
+        <v>20122800001</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>0.408</v>
+        <v>0.44</v>
       </c>
       <c r="F208" t="n">
         <v>194</v>
@@ -6341,7 +6341,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>20010300374</v>
+        <v>20010300001</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>4.2</v>
       </c>
       <c r="E209" t="n">
-        <v>0.576</v>
+        <v>0.61</v>
       </c>
       <c r="F209" t="n">
         <v>420.9</v>
@@ -6366,7 +6366,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>19902800376</v>
+        <v>19902800001</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>0.458</v>
+        <v>0.44</v>
       </c>
       <c r="F210" t="n">
         <v>746</v>
@@ -6391,7 +6391,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>20001700378</v>
+        <v>20001700001</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>4.5</v>
       </c>
       <c r="E211" t="n">
-        <v>0.351</v>
+        <v>0.43</v>
       </c>
       <c r="F211" t="n">
         <v>82</v>
@@ -6416,7 +6416,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>19992800383</v>
+        <v>19992800001</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>0.408</v>
+        <v>0.44</v>
       </c>
       <c r="F212" t="n">
         <v>137</v>
@@ -6441,7 +6441,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>19862800384</v>
+        <v>19862800001</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="E213" t="n">
-        <v>0.408</v>
+        <v>0.44</v>
       </c>
       <c r="F213" t="n">
         <v>123</v>
@@ -6466,7 +6466,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>20172800386</v>
+        <v>20172800001</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>0.365</v>
+        <v>0.44</v>
       </c>
       <c r="F214" t="n">
         <v>655.6</v>
@@ -6491,7 +6491,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>20012900387</v>
+        <v>20012900001</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="E215" t="n">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="F215" t="n">
         <v>592</v>
@@ -6516,7 +6516,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>20092900388</v>
+        <v>20092900001</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>0.338</v>
+        <v>0.45</v>
       </c>
       <c r="F216" t="n">
         <v>592</v>
@@ -6541,7 +6541,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>19842900389</v>
+        <v>19842900001</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="E217" t="n">
-        <v>0.316</v>
+        <v>0.45</v>
       </c>
       <c r="F217" t="n">
         <v>312</v>
@@ -6566,7 +6566,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>20012900390</v>
+        <v>20012900001</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>0.321</v>
+        <v>0.45</v>
       </c>
       <c r="F218" t="n">
         <v>304</v>
@@ -6591,7 +6591,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>20181700392</v>
+        <v>20181700001</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>4.5</v>
       </c>
       <c r="E219" t="n">
-        <v>0.396</v>
+        <v>0.43</v>
       </c>
       <c r="F219" t="n">
         <v>272</v>
@@ -6616,7 +6616,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>20162800394</v>
+        <v>20162800001</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="F220" t="n">
         <v>765</v>
@@ -6641,7 +6641,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>20032800395</v>
+        <v>20032800001</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="E221" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="F221" t="n">
         <v>765</v>
@@ -6666,7 +6666,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>20022800396</v>
+        <v>20022800001</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>0.365</v>
+        <v>0.44</v>
       </c>
       <c r="F222" t="n">
         <v>757</v>
@@ -6691,7 +6691,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>20023000397</v>
+        <v>20023000001</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="F223" t="n">
         <v>276</v>
@@ -6716,7 +6716,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>20042800400</v>
+        <v>20042800001</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>0.453</v>
+        <v>0.44</v>
       </c>
       <c r="F224" t="n">
         <v>472</v>
@@ -6805,7 +6805,7 @@
         <v>99991000001</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -6842,7 +6842,7 @@
         <v>99992100002</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -6879,7 +6879,7 @@
         <v>99992400003</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1.35</v>
@@ -6918,7 +6918,7 @@
         <v>99991200005</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -6957,7 +6957,7 @@
         <v>99992300007</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>2.7</v>
@@ -6993,7 +6993,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19971200057</v>
+        <v>19971200001</v>
       </c>
       <c r="C7" t="n">
         <v>50</v>
@@ -7032,7 +7032,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19871200080</v>
+        <v>19871200001</v>
       </c>
       <c r="C8" t="n">
         <v>220</v>
@@ -7071,7 +7071,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20031200100</v>
+        <v>20031200001</v>
       </c>
       <c r="C9" t="n">
         <v>119.1</v>
@@ -7110,7 +7110,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20071200110</v>
+        <v>20071200001</v>
       </c>
       <c r="C10" t="n">
         <v>1052</v>
@@ -7149,7 +7149,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19961200145</v>
+        <v>19961200001</v>
       </c>
       <c r="C11" t="n">
         <v>160</v>
@@ -7188,7 +7188,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19981200163</v>
+        <v>19981200001</v>
       </c>
       <c r="C12" t="n">
         <v>59.8</v>
@@ -7227,7 +7227,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19771200169</v>
+        <v>19771200001</v>
       </c>
       <c r="C13" t="n">
         <v>100</v>
@@ -7266,7 +7266,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19871200179</v>
+        <v>19871200001</v>
       </c>
       <c r="C14" t="n">
         <v>66</v>
@@ -7305,7 +7305,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19751200206</v>
+        <v>19751200001</v>
       </c>
       <c r="C15" t="n">
         <v>53.7</v>
@@ -7344,7 +7344,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19801200215</v>
+        <v>19801200001</v>
       </c>
       <c r="C16" t="n">
         <v>153</v>
@@ -7383,7 +7383,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19861200231</v>
+        <v>19861200001</v>
       </c>
       <c r="C17" t="n">
         <v>150</v>
@@ -7422,7 +7422,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20031200238</v>
+        <v>20031200001</v>
       </c>
       <c r="C18" t="n">
         <v>99</v>
@@ -7461,7 +7461,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20021200244</v>
+        <v>20021200001</v>
       </c>
       <c r="C19" t="n">
         <v>1045.2</v>
@@ -7500,7 +7500,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20162300267</v>
+        <v>20162300001</v>
       </c>
       <c r="C20" t="n">
         <v>500</v>
@@ -7539,7 +7539,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20162300268</v>
+        <v>20162300001</v>
       </c>
       <c r="C21" t="n">
         <v>500</v>
@@ -7578,7 +7578,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20182300269</v>
+        <v>20182300001</v>
       </c>
       <c r="C22" t="n">
         <v>500</v>
@@ -7617,7 +7617,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20142300270</v>
+        <v>20142300001</v>
       </c>
       <c r="C23" t="n">
         <v>500</v>
@@ -7656,7 +7656,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20162300271</v>
+        <v>20162300001</v>
       </c>
       <c r="C24" t="n">
         <v>500</v>
@@ -7695,7 +7695,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20142300272</v>
+        <v>20142300001</v>
       </c>
       <c r="C25" t="n">
         <v>500</v>
@@ -7734,7 +7734,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20082400273</v>
+        <v>20082400001</v>
       </c>
       <c r="C26" t="n">
         <v>1815</v>
@@ -7773,7 +7773,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20142400274</v>
+        <v>20142400001</v>
       </c>
       <c r="C27" t="n">
         <v>1815</v>
@@ -7812,7 +7812,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20112400275</v>
+        <v>20112400001</v>
       </c>
       <c r="C28" t="n">
         <v>1815</v>
@@ -7851,7 +7851,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20112400276</v>
+        <v>20112400001</v>
       </c>
       <c r="C29" t="n">
         <v>1815</v>
@@ -7890,7 +7890,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20192400277</v>
+        <v>20192400001</v>
       </c>
       <c r="C30" t="n">
         <v>1815</v>
@@ -7929,7 +7929,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20132400278</v>
+        <v>20132400001</v>
       </c>
       <c r="C31" t="n">
         <v>1815</v>
@@ -7968,7 +7968,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20172400279</v>
+        <v>20172400001</v>
       </c>
       <c r="C32" t="n">
         <v>1815</v>
@@ -8007,7 +8007,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20172400280</v>
+        <v>20172400001</v>
       </c>
       <c r="C33" t="n">
         <v>1815</v>
@@ -8046,7 +8046,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20082400281</v>
+        <v>20082400001</v>
       </c>
       <c r="C34" t="n">
         <v>1815</v>
@@ -8085,7 +8085,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20102400282</v>
+        <v>20102400001</v>
       </c>
       <c r="C35" t="n">
         <v>1815</v>
@@ -8124,7 +8124,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>20092400283</v>
+        <v>20092400001</v>
       </c>
       <c r="C36" t="n">
         <v>1815</v>
@@ -8163,7 +8163,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20182400284</v>
+        <v>20182400001</v>
       </c>
       <c r="C37" t="n">
         <v>1815</v>
@@ -8202,7 +8202,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20122400285</v>
+        <v>20122400001</v>
       </c>
       <c r="C38" t="n">
         <v>1815</v>
@@ -8241,7 +8241,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20092400286</v>
+        <v>20092400001</v>
       </c>
       <c r="C39" t="n">
         <v>1000</v>
@@ -8280,7 +8280,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20072400287</v>
+        <v>20072400001</v>
       </c>
       <c r="C40" t="n">
         <v>1000</v>
@@ -8319,7 +8319,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20052400288</v>
+        <v>20052400001</v>
       </c>
       <c r="C41" t="n">
         <v>1000</v>
@@ -8358,7 +8358,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20112400289</v>
+        <v>20112400001</v>
       </c>
       <c r="C42" t="n">
         <v>1000</v>
@@ -8397,7 +8397,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20132400290</v>
+        <v>20132400001</v>
       </c>
       <c r="C43" t="n">
         <v>1000</v>
@@ -8436,7 +8436,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20172400291</v>
+        <v>20172400001</v>
       </c>
       <c r="C44" t="n">
         <v>1815</v>
@@ -8475,7 +8475,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20182400292</v>
+        <v>20182400001</v>
       </c>
       <c r="C45" t="n">
         <v>1815</v>
@@ -8514,7 +8514,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20142400293</v>
+        <v>20142400001</v>
       </c>
       <c r="C46" t="n">
         <v>1815</v>
@@ -8553,7 +8553,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20082400294</v>
+        <v>20082400001</v>
       </c>
       <c r="C47" t="n">
         <v>1815</v>
@@ -8592,7 +8592,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20152400295</v>
+        <v>20152400001</v>
       </c>
       <c r="C48" t="n">
         <v>1815</v>
@@ -8631,7 +8631,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20112400296</v>
+        <v>20112400001</v>
       </c>
       <c r="C49" t="n">
         <v>1815</v>
@@ -8670,7 +8670,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20122400297</v>
+        <v>20122400001</v>
       </c>
       <c r="C50" t="n">
         <v>1815</v>
@@ -8709,7 +8709,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>19941200299</v>
+        <v>19941200001</v>
       </c>
       <c r="C51" t="n">
         <v>164</v>
@@ -8748,7 +8748,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>19761200300</v>
+        <v>19761200001</v>
       </c>
       <c r="C52" t="n">
         <v>196</v>
@@ -8787,7 +8787,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20081200301</v>
+        <v>20081200001</v>
       </c>
       <c r="C53" t="n">
         <v>100</v>
@@ -8826,7 +8826,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>19841200302</v>
+        <v>19841200001</v>
       </c>
       <c r="C54" t="n">
         <v>100</v>
@@ -8865,7 +8865,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>19851200303</v>
+        <v>19851200001</v>
       </c>
       <c r="C55" t="n">
         <v>195</v>
@@ -8904,7 +8904,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20071200304</v>
+        <v>20071200001</v>
       </c>
       <c r="C56" t="n">
         <v>100</v>
@@ -8943,7 +8943,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>19921200305</v>
+        <v>19921200001</v>
       </c>
       <c r="C57" t="n">
         <v>100</v>
@@ -8982,7 +8982,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>19781200306</v>
+        <v>19781200001</v>
       </c>
       <c r="C58" t="n">
         <v>100</v>
@@ -9021,7 +9021,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20061200307</v>
+        <v>20061200001</v>
       </c>
       <c r="C59" t="n">
         <v>100</v>
@@ -9060,7 +9060,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>19861200308</v>
+        <v>19861200001</v>
       </c>
       <c r="C60" t="n">
         <v>100</v>
@@ -9099,7 +9099,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>19961200309</v>
+        <v>19961200001</v>
       </c>
       <c r="C61" t="n">
         <v>100</v>
@@ -9138,7 +9138,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>19901200310</v>
+        <v>19901200001</v>
       </c>
       <c r="C62" t="n">
         <v>100</v>
@@ -9177,7 +9177,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>19781200311</v>
+        <v>19781200001</v>
       </c>
       <c r="C63" t="n">
         <v>90</v>
@@ -9216,7 +9216,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20071200312</v>
+        <v>20071200001</v>
       </c>
       <c r="C64" t="n">
         <v>138</v>
@@ -9255,7 +9255,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20001200313</v>
+        <v>20001200001</v>
       </c>
       <c r="C65" t="n">
         <v>79.5</v>
@@ -9294,7 +9294,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20091200322</v>
+        <v>20091200001</v>
       </c>
       <c r="C66" t="n">
         <v>146</v>
@@ -9333,7 +9333,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>19961200335</v>
+        <v>19961200001</v>
       </c>
       <c r="C67" t="n">
         <v>94.7</v>
@@ -9372,7 +9372,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20072100343</v>
+        <v>20072100001</v>
       </c>
       <c r="C68" t="n">
         <v>1961</v>
@@ -9409,7 +9409,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20102100344</v>
+        <v>20102100001</v>
       </c>
       <c r="C69" t="n">
         <v>1961</v>
@@ -9446,7 +9446,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20192100345</v>
+        <v>20192100001</v>
       </c>
       <c r="C70" t="n">
         <v>1961</v>
@@ -9483,7 +9483,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20112100346</v>
+        <v>20112100001</v>
       </c>
       <c r="C71" t="n">
         <v>1961</v>
@@ -9520,7 +9520,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20152100347</v>
+        <v>20152100001</v>
       </c>
       <c r="C72" t="n">
         <v>1961</v>
@@ -9557,7 +9557,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>20182100348</v>
+        <v>20182100001</v>
       </c>
       <c r="C73" t="n">
         <v>1961</v>
@@ -9594,7 +9594,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>20082100349</v>
+        <v>20082100001</v>
       </c>
       <c r="C74" t="n">
         <v>1961</v>
@@ -9631,7 +9631,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>20102100350</v>
+        <v>20102100001</v>
       </c>
       <c r="C75" t="n">
         <v>1961</v>
@@ -9668,7 +9668,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>20132100351</v>
+        <v>20132100001</v>
       </c>
       <c r="C76" t="n">
         <v>1961</v>
@@ -9705,7 +9705,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>20182100352</v>
+        <v>20182100001</v>
       </c>
       <c r="C77" t="n">
         <v>1961</v>
@@ -9742,7 +9742,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>20162100353</v>
+        <v>20162100001</v>
       </c>
       <c r="C78" t="n">
         <v>1961</v>
@@ -9779,7 +9779,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>20132100354</v>
+        <v>20132100001</v>
       </c>
       <c r="C79" t="n">
         <v>1961</v>
@@ -9816,7 +9816,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>20162100355</v>
+        <v>20162100001</v>
       </c>
       <c r="C80" t="n">
         <v>1961</v>
@@ -9853,7 +9853,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>20152100356</v>
+        <v>20152100001</v>
       </c>
       <c r="C81" t="n">
         <v>1961</v>
@@ -9890,7 +9890,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>20152100357</v>
+        <v>20152100001</v>
       </c>
       <c r="C82" t="n">
         <v>1961</v>
@@ -9927,7 +9927,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>20112100358</v>
+        <v>20112100001</v>
       </c>
       <c r="C83" t="n">
         <v>1961</v>
@@ -9964,7 +9964,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>20112100359</v>
+        <v>20112100001</v>
       </c>
       <c r="C84" t="n">
         <v>1961</v>
@@ -10001,7 +10001,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>20182100360</v>
+        <v>20182100001</v>
       </c>
       <c r="C85" t="n">
         <v>1961</v>
@@ -10038,7 +10038,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>20182100361</v>
+        <v>20182100001</v>
       </c>
       <c r="C86" t="n">
         <v>1961</v>
@@ -10075,7 +10075,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>20062100362</v>
+        <v>20062100001</v>
       </c>
       <c r="C87" t="n">
         <v>1961</v>
@@ -10112,7 +10112,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>20121200366</v>
+        <v>20121200001</v>
       </c>
       <c r="C88" t="n">
         <v>360</v>
@@ -10151,7 +10151,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>20101200377</v>
+        <v>20101200001</v>
       </c>
       <c r="C89" t="n">
         <v>85.3</v>
@@ -10190,7 +10190,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>19991200380</v>
+        <v>19991200001</v>
       </c>
       <c r="C90" t="n">
         <v>124</v>
@@ -10229,7 +10229,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>19821200381</v>
+        <v>19821200001</v>
       </c>
       <c r="C91" t="n">
         <v>480</v>
@@ -10268,7 +10268,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>20021200382</v>
+        <v>20021200001</v>
       </c>
       <c r="C92" t="n">
         <v>143</v>
@@ -10307,7 +10307,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>19991200385</v>
+        <v>19991200001</v>
       </c>
       <c r="C93" t="n">
         <v>910</v>
@@ -10346,7 +10346,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>20001200393</v>
+        <v>20001200001</v>
       </c>
       <c r="C94" t="n">
         <v>79.7</v>
@@ -10385,7 +10385,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>19891200399</v>
+        <v>19891200001</v>
       </c>
       <c r="C95" t="n">
         <v>220</v>
@@ -10686,7 +10686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10736,7 +10736,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99992600009</v>
+        <v>20212600021</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -10756,6 +10756,34 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20172600001</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>STORAGE</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10800,7 +10828,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.419480705131206</v>
+        <v>5.419480705130809</v>
       </c>
     </row>
     <row r="4">
@@ -10810,7 +10838,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.45732594909905</v>
+        <v>52.45732594910078</v>
       </c>
     </row>
     <row r="5">
@@ -10820,7 +10848,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>819131.5724055663</v>
+        <v>819131.5724055767</v>
       </c>
     </row>
     <row r="6">
@@ -10830,7 +10858,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1951765139.85252</v>
+        <v>1951765139.853027</v>
       </c>
     </row>
     <row r="7">
@@ -10840,7 +10868,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.193085562667373e+23</v>
+        <v>1.1930855626671e+23</v>
       </c>
     </row>
     <row r="8">

--- a/data/amiris/amiris_data_structure.xlsx
+++ b/data/amiris/amiris_data_structure.xlsx
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1205,10 +1205,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1280,7 +1280,7 @@
         <v>99991000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -1317,7 +1317,7 @@
         <v>99992100002</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -1354,7 +1354,7 @@
         <v>99992400003</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1.35</v>
@@ -1393,7 +1393,7 @@
         <v>99991200005</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>99992300007</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>2.7</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/amiris/amiris_data_structure.xlsx
+++ b/data/amiris/amiris_data_structure.xlsx
@@ -25,8 +25,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -129,7 +129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -144,7 +144,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1145,7 +1146,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1190,24 +1191,24 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19871400086</v>
+        <v>19991700024</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="F2" t="n">
-        <v>1795</v>
+        <v>115.8</v>
       </c>
       <c r="G2" t="n">
-        <v>1795</v>
+        <v>115.8</v>
       </c>
     </row>
     <row r="3">
@@ -1215,24 +1216,24 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19861400087</v>
+        <v>19971700025</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NUCLEAR</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="F3" t="n">
-        <v>2746</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>2746</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1240,24 +1241,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20132800145</v>
+        <v>19961700026</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F4" t="n">
-        <v>4734</v>
+        <v>53.09999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>4734</v>
+        <v>53.09999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1265,24 +1266,24 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20122800156</v>
+        <v>19951700027</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F5" t="n">
-        <v>1597.7</v>
+        <v>183.72</v>
       </c>
       <c r="G5" t="n">
-        <v>1597.7</v>
+        <v>183.72</v>
       </c>
     </row>
     <row r="6">
@@ -1290,24 +1291,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20102900161</v>
+        <v>19941700028</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F6" t="n">
-        <v>2780.3</v>
+        <v>352.5</v>
       </c>
       <c r="G6" t="n">
-        <v>2780.3</v>
+        <v>352.5</v>
       </c>
     </row>
     <row r="7">
@@ -1315,24 +1316,24 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20082900162</v>
+        <v>19931700029</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F7" t="n">
-        <v>94.8</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>94.8</v>
+        <v>65.59999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -1340,24 +1341,24 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20072900163</v>
+        <v>19921700030</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E8" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F8" t="n">
-        <v>648</v>
+        <v>261.1</v>
       </c>
       <c r="G8" t="n">
-        <v>648</v>
+        <v>261.1</v>
       </c>
     </row>
     <row r="9">
@@ -1365,24 +1366,24 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20062900164</v>
+        <v>19911700031</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F9" t="n">
-        <v>628</v>
+        <v>163</v>
       </c>
       <c r="G9" t="n">
-        <v>628</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10">
@@ -1390,24 +1391,24 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20002900165</v>
+        <v>19901700032</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F10" t="n">
-        <v>967.22</v>
+        <v>97.07900000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>967.22</v>
+        <v>97.07900000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1415,24 +1416,24 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19982900166</v>
+        <v>19871700033</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F11" t="n">
-        <v>1732</v>
+        <v>120.4</v>
       </c>
       <c r="G11" t="n">
-        <v>1732</v>
+        <v>120.4</v>
       </c>
     </row>
     <row r="12">
@@ -1440,24 +1441,24 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20112800167</v>
+        <v>19861700035</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F12" t="n">
-        <v>1909</v>
+        <v>60.491</v>
       </c>
       <c r="G12" t="n">
-        <v>1909</v>
+        <v>60.491</v>
       </c>
     </row>
     <row r="13">
@@ -1465,24 +1466,24 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19972900168</v>
+        <v>19851700036</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F13" t="n">
-        <v>949</v>
+        <v>521</v>
       </c>
       <c r="G13" t="n">
-        <v>949</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14">
@@ -1490,24 +1491,24 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19962900169</v>
+        <v>19821700037</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F14" t="n">
-        <v>750</v>
+        <v>156.5</v>
       </c>
       <c r="G14" t="n">
-        <v>750</v>
+        <v>156.5</v>
       </c>
     </row>
     <row r="15">
@@ -1515,24 +1516,24 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19952900170</v>
+        <v>19771700038</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F15" t="n">
-        <v>750</v>
+        <v>100.78</v>
       </c>
       <c r="G15" t="n">
-        <v>750</v>
+        <v>100.78</v>
       </c>
     </row>
     <row r="16">
@@ -1540,24 +1541,24 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19942900171</v>
+        <v>19751700039</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F16" t="n">
-        <v>2780</v>
+        <v>619.4</v>
       </c>
       <c r="G16" t="n">
-        <v>2780</v>
+        <v>619.4</v>
       </c>
     </row>
     <row r="17">
@@ -1565,24 +1566,24 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19922900172</v>
+        <v>19731700040</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F17" t="n">
-        <v>496</v>
+        <v>639.7</v>
       </c>
       <c r="G17" t="n">
-        <v>496</v>
+        <v>639.7</v>
       </c>
     </row>
     <row r="18">
@@ -1590,24 +1591,24 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>19912900173</v>
+        <v>19721700041</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F18" t="n">
-        <v>488.3</v>
+        <v>77.7</v>
       </c>
       <c r="G18" t="n">
-        <v>488.3</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="19">
@@ -1615,24 +1616,24 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>19882900174</v>
+        <v>19711700042</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F19" t="n">
-        <v>652.8</v>
+        <v>183</v>
       </c>
       <c r="G19" t="n">
-        <v>652.8</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
@@ -1640,24 +1641,24 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19872900175</v>
+        <v>19691700043</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F20" t="n">
-        <v>498.5</v>
+        <v>173.2865</v>
       </c>
       <c r="G20" t="n">
-        <v>498.5</v>
+        <v>173.2865</v>
       </c>
     </row>
     <row r="21">
@@ -1665,24 +1666,24 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19862900176</v>
+        <v>19591700044</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LIGNITE</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="F21" t="n">
-        <v>232.8</v>
+        <v>149</v>
       </c>
       <c r="G21" t="n">
-        <v>232.8</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22">
@@ -1690,24 +1691,24 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20102800178</v>
+        <v>19521700046</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E22" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F22" t="n">
-        <v>433</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>433</v>
+        <v>94.59999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1715,24 +1716,24 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20092800189</v>
+        <v>19461700047</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NATURAL_GAS</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F23" t="n">
-        <v>716</v>
+        <v>135.5</v>
       </c>
       <c r="G23" t="n">
-        <v>716</v>
+        <v>135.5</v>
       </c>
     </row>
     <row r="24">
@@ -1740,24 +1741,24 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20093000194</v>
+        <v>19871400086</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="F24" t="n">
-        <v>83.8</v>
+        <v>1795</v>
       </c>
       <c r="G24" t="n">
-        <v>83.8</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="25">
@@ -1765,24 +1766,24 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20063000195</v>
+        <v>19861400087</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="F25" t="n">
-        <v>60</v>
+        <v>2746</v>
       </c>
       <c r="G25" t="n">
-        <v>60</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="26">
@@ -1790,24 +1791,24 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20023000196</v>
+        <v>19841400088</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="F26" t="n">
-        <v>97.09999999999999</v>
+        <v>1410</v>
       </c>
       <c r="G26" t="n">
-        <v>97.09999999999999</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="27">
@@ -1815,24 +1816,24 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19963000197</v>
+        <v>19831400090</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="F27" t="n">
-        <v>212</v>
+        <v>1360</v>
       </c>
       <c r="G27" t="n">
-        <v>212</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="28">
@@ -1840,24 +1841,24 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20082800200</v>
+        <v>19821400091</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>NUCLEAR</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="F28" t="n">
-        <v>250</v>
+        <v>1288</v>
       </c>
       <c r="G28" t="n">
-        <v>250</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="29">
@@ -1865,7 +1866,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20072800211</v>
+        <v>20132800145</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1879,10 +1880,10 @@
         <v>0.44</v>
       </c>
       <c r="F29" t="n">
-        <v>1572</v>
+        <v>4734</v>
       </c>
       <c r="G29" t="n">
-        <v>1572</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="30">
@@ -1890,7 +1891,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20052800213</v>
+        <v>20122800156</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1904,10 +1905,10 @@
         <v>0.44</v>
       </c>
       <c r="F30" t="n">
-        <v>350</v>
+        <v>1597.7</v>
       </c>
       <c r="G30" t="n">
-        <v>350</v>
+        <v>1597.7</v>
       </c>
     </row>
     <row r="31">
@@ -1915,24 +1916,24 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20042800214</v>
+        <v>20102900161</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F31" t="n">
-        <v>336</v>
+        <v>2780.3</v>
       </c>
       <c r="G31" t="n">
-        <v>336</v>
+        <v>2780.3</v>
       </c>
     </row>
     <row r="32">
@@ -1940,24 +1941,24 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20032800216</v>
+        <v>20082900162</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F32" t="n">
-        <v>822</v>
+        <v>94.8</v>
       </c>
       <c r="G32" t="n">
-        <v>822</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="33">
@@ -1965,24 +1966,24 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20012800217</v>
+        <v>20072900163</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F33" t="n">
-        <v>690</v>
+        <v>648</v>
       </c>
       <c r="G33" t="n">
-        <v>690</v>
+        <v>648</v>
       </c>
     </row>
     <row r="34">
@@ -1990,24 +1991,24 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>19982800218</v>
+        <v>20062900164</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F34" t="n">
-        <v>123</v>
+        <v>628</v>
       </c>
       <c r="G34" t="n">
-        <v>123</v>
+        <v>628</v>
       </c>
     </row>
     <row r="35">
@@ -2015,24 +2016,24 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19922800219</v>
+        <v>20002900165</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F35" t="n">
-        <v>1127.4</v>
+        <v>967.22</v>
       </c>
       <c r="G35" t="n">
-        <v>1127.4</v>
+        <v>967.22</v>
       </c>
     </row>
     <row r="36">
@@ -2040,24 +2041,24 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19912800220</v>
+        <v>19982900166</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F36" t="n">
-        <v>889</v>
+        <v>1732</v>
       </c>
       <c r="G36" t="n">
-        <v>889</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="37">
@@ -2065,7 +2066,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>19902800221</v>
+        <v>20112800167</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2079,10 +2080,10 @@
         <v>0.44</v>
       </c>
       <c r="F37" t="n">
-        <v>561.7</v>
+        <v>1909</v>
       </c>
       <c r="G37" t="n">
-        <v>561.7</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="38">
@@ -2090,24 +2091,24 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>19892800222</v>
+        <v>19972900168</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F38" t="n">
-        <v>332.7</v>
+        <v>949</v>
       </c>
       <c r="G38" t="n">
-        <v>332.7</v>
+        <v>949</v>
       </c>
     </row>
     <row r="39">
@@ -2115,24 +2116,24 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>19882800223</v>
+        <v>19962900169</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F39" t="n">
-        <v>169.9</v>
+        <v>750</v>
       </c>
       <c r="G39" t="n">
-        <v>169.9</v>
+        <v>750</v>
       </c>
     </row>
     <row r="40">
@@ -2140,24 +2141,24 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>19872800224</v>
+        <v>19952900170</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F40" t="n">
-        <v>762.5</v>
+        <v>750</v>
       </c>
       <c r="G40" t="n">
-        <v>762.5</v>
+        <v>750</v>
       </c>
     </row>
     <row r="41">
@@ -2165,24 +2166,24 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>19862800225</v>
+        <v>19942900171</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>HARD_COAL</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F41" t="n">
-        <v>713.5</v>
+        <v>2780</v>
       </c>
       <c r="G41" t="n">
-        <v>713.5</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="42">
@@ -2190,24 +2191,24 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20180300241</v>
+        <v>19922900172</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F42" t="n">
-        <v>140.5</v>
+        <v>496</v>
       </c>
       <c r="G42" t="n">
-        <v>140.5</v>
+        <v>496</v>
       </c>
     </row>
     <row r="43">
@@ -2215,24 +2216,24 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20140300242</v>
+        <v>19912900173</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F43" t="n">
-        <v>1117.5</v>
+        <v>488.3</v>
       </c>
       <c r="G43" t="n">
-        <v>1117.5</v>
+        <v>488.3</v>
       </c>
     </row>
     <row r="44">
@@ -2240,24 +2241,24 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20130300243</v>
+        <v>19882900174</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F44" t="n">
-        <v>296.3</v>
+        <v>652.8</v>
       </c>
       <c r="G44" t="n">
-        <v>296.3</v>
+        <v>652.8</v>
       </c>
     </row>
     <row r="45">
@@ -2265,24 +2266,24 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20110300244</v>
+        <v>19872900175</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F45" t="n">
-        <v>2110.5</v>
+        <v>498.5</v>
       </c>
       <c r="G45" t="n">
-        <v>2110.5</v>
+        <v>498.5</v>
       </c>
     </row>
     <row r="46">
@@ -2290,24 +2291,24 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20100300245</v>
+        <v>19862900176</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F46" t="n">
-        <v>3470</v>
+        <v>232.8</v>
       </c>
       <c r="G46" t="n">
-        <v>3470</v>
+        <v>232.8</v>
       </c>
     </row>
     <row r="47">
@@ -2315,24 +2316,24 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20090300246</v>
+        <v>19852900177</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F47" t="n">
-        <v>639</v>
+        <v>465</v>
       </c>
       <c r="G47" t="n">
-        <v>639</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48">
@@ -2340,24 +2341,24 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20080300247</v>
+        <v>20102800178</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.61</v>
+        <v>0.44</v>
       </c>
       <c r="F48" t="n">
-        <v>4269.5</v>
+        <v>433</v>
       </c>
       <c r="G48" t="n">
-        <v>4269.5</v>
+        <v>433</v>
       </c>
     </row>
     <row r="49">
@@ -2365,24 +2366,24 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20070300249</v>
+        <v>19832900179</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F49" t="n">
-        <v>196</v>
+        <v>361.3</v>
       </c>
       <c r="G49" t="n">
-        <v>196</v>
+        <v>361.3</v>
       </c>
     </row>
     <row r="50">
@@ -2390,24 +2391,24 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20060300250</v>
+        <v>19772900180</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F50" t="n">
-        <v>1569</v>
+        <v>59.5</v>
       </c>
       <c r="G50" t="n">
-        <v>1569</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="51">
@@ -2415,24 +2416,24 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20050300251</v>
+        <v>19742900181</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F51" t="n">
-        <v>1517</v>
+        <v>604</v>
       </c>
       <c r="G51" t="n">
-        <v>1517</v>
+        <v>604</v>
       </c>
     </row>
     <row r="52">
@@ -2440,24 +2441,24 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20030300252</v>
+        <v>19732900182</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F52" t="n">
-        <v>1207.759</v>
+        <v>1263</v>
       </c>
       <c r="G52" t="n">
-        <v>1207.759</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="53">
@@ -2465,24 +2466,24 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20020300253</v>
+        <v>19722900183</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F53" t="n">
-        <v>1375.4</v>
+        <v>663</v>
       </c>
       <c r="G53" t="n">
-        <v>1375.4</v>
+        <v>663</v>
       </c>
     </row>
     <row r="54">
@@ -2490,24 +2491,24 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20010300254</v>
+        <v>19712900184</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="F54" t="n">
-        <v>245.46</v>
+        <v>292</v>
       </c>
       <c r="G54" t="n">
-        <v>245.46</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55">
@@ -2515,24 +2516,24 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20171700278</v>
+        <v>19702900185</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F55" t="n">
-        <v>535.2</v>
+        <v>588</v>
       </c>
       <c r="G55" t="n">
-        <v>535.2</v>
+        <v>588</v>
       </c>
     </row>
     <row r="56">
@@ -2540,24 +2541,24 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20161700279</v>
+        <v>19692900186</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F56" t="n">
-        <v>167.451</v>
+        <v>299</v>
       </c>
       <c r="G56" t="n">
-        <v>167.451</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57">
@@ -2565,24 +2566,24 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20151700280</v>
+        <v>19682900187</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F57" t="n">
-        <v>220.2</v>
+        <v>295</v>
       </c>
       <c r="G57" t="n">
-        <v>220.2</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58">
@@ -2590,24 +2591,24 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20141700282</v>
+        <v>19662900188</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F58" t="n">
-        <v>574.3099999999999</v>
+        <v>297</v>
       </c>
       <c r="G58" t="n">
-        <v>574.3099999999999</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59">
@@ -2615,24 +2616,24 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20121700283</v>
+        <v>20092800189</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>HARD_COAL</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F59" t="n">
-        <v>141.6</v>
+        <v>716</v>
       </c>
       <c r="G59" t="n">
-        <v>141.6</v>
+        <v>716</v>
       </c>
     </row>
     <row r="60">
@@ -2640,24 +2641,24 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>20111700284</v>
+        <v>19652900190</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F60" t="n">
-        <v>454.24</v>
+        <v>321</v>
       </c>
       <c r="G60" t="n">
-        <v>454.24</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61">
@@ -2665,24 +2666,24 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20101700285</v>
+        <v>19632900191</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F61" t="n">
-        <v>275.78</v>
+        <v>643.5</v>
       </c>
       <c r="G61" t="n">
-        <v>275.78</v>
+        <v>643.5</v>
       </c>
     </row>
     <row r="62">
@@ -2690,24 +2691,24 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20051700286</v>
+        <v>19342900192</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F62" t="n">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="G62" t="n">
-        <v>158</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63">
@@ -2715,24 +2716,24 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20041700287</v>
+        <v>19152900193</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>LIGNITE</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F63" t="n">
-        <v>746.015</v>
+        <v>98</v>
       </c>
       <c r="G63" t="n">
-        <v>746.015</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64">
@@ -2740,24 +2741,24 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20031700288</v>
+        <v>20093000194</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="F64" t="n">
-        <v>163.9</v>
+        <v>83.8</v>
       </c>
       <c r="G64" t="n">
-        <v>163.9</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="65">
@@ -2765,24 +2766,24 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20021700289</v>
+        <v>20063000195</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NATURAL_GAS</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="F65" t="n">
-        <v>126.7</v>
+        <v>60</v>
       </c>
       <c r="G65" t="n">
-        <v>126.7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66">
@@ -2790,24 +2791,2224 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>20023000196</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F66" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="G66" t="n">
+        <v>97.09999999999999</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>19963000197</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F67" t="n">
+        <v>212</v>
+      </c>
+      <c r="G67" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="7" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>19953000198</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F68" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="G68" t="n">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>19933000199</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F69" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="G69" t="n">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>20082800200</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F70" t="n">
+        <v>250</v>
+      </c>
+      <c r="G70" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>19923000201</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F71" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="G71" t="n">
+        <v>190.4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>19803000202</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F72" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="G72" t="n">
+        <v>93.59999999999999</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>19793000203</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F73" t="n">
+        <v>136</v>
+      </c>
+      <c r="G73" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>19753000204</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F74" t="n">
+        <v>205.9</v>
+      </c>
+      <c r="G74" t="n">
+        <v>205.9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>19743000205</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F75" t="n">
+        <v>50</v>
+      </c>
+      <c r="G75" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>19733000206</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F76" t="n">
+        <v>434.5</v>
+      </c>
+      <c r="G76" t="n">
+        <v>434.5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>19723000207</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F77" t="n">
+        <v>870.9</v>
+      </c>
+      <c r="G77" t="n">
+        <v>870.9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>19713000208</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F78" t="n">
+        <v>529</v>
+      </c>
+      <c r="G78" t="n">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>19703000209</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F79" t="n">
+        <v>303.2</v>
+      </c>
+      <c r="G79" t="n">
+        <v>303.2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="7" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>19693000210</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F80" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="G80" t="n">
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="7" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>20072800211</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1572</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="7" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>19603000212</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F82" t="n">
+        <v>90</v>
+      </c>
+      <c r="G82" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="7" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>20052800213</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F83" t="n">
+        <v>350</v>
+      </c>
+      <c r="G83" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>20042800214</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F84" t="n">
+        <v>336</v>
+      </c>
+      <c r="G84" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="7" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>20032800216</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F85" t="n">
+        <v>822</v>
+      </c>
+      <c r="G85" t="n">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="7" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>20012800217</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F86" t="n">
+        <v>690</v>
+      </c>
+      <c r="G86" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="7" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>19982800218</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F87" t="n">
+        <v>123</v>
+      </c>
+      <c r="G87" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="7" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>19922800219</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1127.4</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1127.4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="7" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>19912800220</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F89" t="n">
+        <v>889</v>
+      </c>
+      <c r="G89" t="n">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="7" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>19902800221</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F90" t="n">
+        <v>561.7</v>
+      </c>
+      <c r="G90" t="n">
+        <v>561.7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="7" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>19892800222</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F91" t="n">
+        <v>332.7</v>
+      </c>
+      <c r="G91" t="n">
+        <v>332.7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="7" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>19882800223</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F92" t="n">
+        <v>169.9</v>
+      </c>
+      <c r="G92" t="n">
+        <v>169.9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="7" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>19872800224</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F93" t="n">
+        <v>762.5</v>
+      </c>
+      <c r="G93" t="n">
+        <v>762.5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="7" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>19862800225</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F94" t="n">
+        <v>713.5</v>
+      </c>
+      <c r="G94" t="n">
+        <v>713.5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="7" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>19852800227</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1157</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="7" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>19832800228</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F96" t="n">
+        <v>380</v>
+      </c>
+      <c r="G96" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="7" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>19822800229</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F97" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="G97" t="n">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="7" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>19812800230</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F98" t="n">
+        <v>794.4</v>
+      </c>
+      <c r="G98" t="n">
+        <v>794.4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="7" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>19802800231</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F99" t="n">
+        <v>666.4</v>
+      </c>
+      <c r="G99" t="n">
+        <v>666.4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="7" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>19792800232</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F100" t="n">
+        <v>717</v>
+      </c>
+      <c r="G100" t="n">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="7" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>19772800233</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F101" t="n">
+        <v>303</v>
+      </c>
+      <c r="G101" t="n">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>19742800234</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1412.6</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1412.6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="7" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>19692800235</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F103" t="n">
+        <v>190.35</v>
+      </c>
+      <c r="G103" t="n">
+        <v>190.35</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="7" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>19672800236</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F104" t="n">
+        <v>345</v>
+      </c>
+      <c r="G104" t="n">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="7" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>19662800238</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F105" t="n">
+        <v>385</v>
+      </c>
+      <c r="G105" t="n">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="7" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>19602800239</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F106" t="n">
+        <v>129</v>
+      </c>
+      <c r="G106" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="7" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>19382800240</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>HARD_COAL</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F107" t="n">
+        <v>188.32</v>
+      </c>
+      <c r="G107" t="n">
+        <v>188.32</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="7" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>20180300241</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F108" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="G108" t="n">
+        <v>140.5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="7" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>20140300242</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1117.5</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1117.5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="7" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>20130300243</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F110" t="n">
+        <v>296.3</v>
+      </c>
+      <c r="G110" t="n">
+        <v>296.3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="7" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>20110300244</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2110.5</v>
+      </c>
+      <c r="G111" t="n">
+        <v>2110.5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="7" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>20100300245</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3470</v>
+      </c>
+      <c r="G112" t="n">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="7" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>20090300246</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F113" t="n">
+        <v>639</v>
+      </c>
+      <c r="G113" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="7" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>20080300247</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F114" t="n">
+        <v>4269.5</v>
+      </c>
+      <c r="G114" t="n">
+        <v>4269.5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="7" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>20070300249</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F115" t="n">
+        <v>196</v>
+      </c>
+      <c r="G115" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="7" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>20060300250</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1569</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="7" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>20050300251</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1517</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="7" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>20030300252</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1207.759</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1207.759</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="7" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>20020300253</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1375.4</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1375.4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="7" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>20010300254</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F120" t="n">
+        <v>245.46</v>
+      </c>
+      <c r="G120" t="n">
+        <v>245.46</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="7" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>19990300255</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F121" t="n">
+        <v>135.8</v>
+      </c>
+      <c r="G121" t="n">
+        <v>135.8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="7" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>19980300256</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1239.2</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1239.2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="7" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>19970300257</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F123" t="n">
+        <v>778.6</v>
+      </c>
+      <c r="G123" t="n">
+        <v>778.6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="7" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>19960300258</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F124" t="n">
+        <v>799.6</v>
+      </c>
+      <c r="G124" t="n">
+        <v>799.6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="7" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>19950300260</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1597</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="7" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>19940300261</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1784</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="7" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>19930300262</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F127" t="n">
+        <v>834</v>
+      </c>
+      <c r="G127" t="n">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="7" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>19920300263</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F128" t="n">
+        <v>519</v>
+      </c>
+      <c r="G128" t="n">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="7" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>19910300264</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F129" t="n">
+        <v>84.51000000000001</v>
+      </c>
+      <c r="G129" t="n">
+        <v>84.51000000000001</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="7" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>19880300265</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F130" t="n">
+        <v>225</v>
+      </c>
+      <c r="G130" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="7" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>19850300266</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F131" t="n">
+        <v>169</v>
+      </c>
+      <c r="G131" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="7" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>19830300267</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F132" t="n">
+        <v>103</v>
+      </c>
+      <c r="G132" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="7" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>19810300268</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F133" t="n">
+        <v>50</v>
+      </c>
+      <c r="G133" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="7" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>19790300269</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F134" t="n">
+        <v>125</v>
+      </c>
+      <c r="G134" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="7" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>19780300271</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F135" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="G135" t="n">
+        <v>316.7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="7" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>19760300272</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F136" t="n">
+        <v>695</v>
+      </c>
+      <c r="G136" t="n">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="7" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>19740300273</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1107</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="7" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>19730300274</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F138" t="n">
+        <v>332</v>
+      </c>
+      <c r="G138" t="n">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="7" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>19720300275</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F139" t="n">
+        <v>475</v>
+      </c>
+      <c r="G139" t="n">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="7" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>19710300276</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1698</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="7" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>18990300277</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F141" t="n">
+        <v>137</v>
+      </c>
+      <c r="G141" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="7" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>20171700278</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F142" t="n">
+        <v>535.2</v>
+      </c>
+      <c r="G142" t="n">
+        <v>535.2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="7" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>20161700279</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F143" t="n">
+        <v>167.451</v>
+      </c>
+      <c r="G143" t="n">
+        <v>167.451</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="7" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>20151700280</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F144" t="n">
+        <v>220.2</v>
+      </c>
+      <c r="G144" t="n">
+        <v>220.2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="7" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>20141700282</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F145" t="n">
+        <v>574.3099999999999</v>
+      </c>
+      <c r="G145" t="n">
+        <v>574.3099999999999</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="7" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>20121700283</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F146" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="G146" t="n">
+        <v>141.6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="7" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>20111700284</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F147" t="n">
+        <v>454.24</v>
+      </c>
+      <c r="G147" t="n">
+        <v>454.24</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>20101700285</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F148" t="n">
+        <v>275.78</v>
+      </c>
+      <c r="G148" t="n">
+        <v>275.78</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="7" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>20051700286</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F149" t="n">
+        <v>158</v>
+      </c>
+      <c r="G149" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="7" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>20041700287</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F150" t="n">
+        <v>746.015</v>
+      </c>
+      <c r="G150" t="n">
+        <v>746.015</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="7" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>20031700288</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F151" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="G151" t="n">
+        <v>163.9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>20021700289</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F152" t="n">
+        <v>126.7</v>
+      </c>
+      <c r="G152" t="n">
+        <v>126.7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="7" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
         <v>20011700290</v>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>NATURAL_GAS</t>
         </is>
       </c>
-      <c r="D66" t="n">
+      <c r="D153" t="n">
         <v>4.5</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E153" t="n">
         <v>0.43</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F153" t="n">
         <v>110.55</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G153" t="n">
         <v>110.55</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="7" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>20001700291</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>NATURAL_GAS</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F154" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="G154" t="n">
+        <v>124.5</v>
       </c>
     </row>
   </sheetData>
@@ -2821,7 +5022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3305,17 +5506,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20202400092</v>
+        <v>19731200060</v>
       </c>
       <c r="C13" t="n">
-        <v>400</v>
+        <v>926.7</v>
       </c>
       <c r="D13" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -3344,17 +5545,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20192400093</v>
+        <v>19721200061</v>
       </c>
       <c r="C14" t="n">
-        <v>554.6</v>
+        <v>164</v>
       </c>
       <c r="D14" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -3383,17 +5584,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20182400094</v>
+        <v>19681200062</v>
       </c>
       <c r="C15" t="n">
-        <v>577</v>
+        <v>121.1</v>
       </c>
       <c r="D15" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -3422,17 +5623,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20172400095</v>
+        <v>19651200063</v>
       </c>
       <c r="C16" t="n">
-        <v>888.5916000000008</v>
+        <v>108.9</v>
       </c>
       <c r="D16" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -3461,17 +5662,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20162400096</v>
+        <v>19641200064</v>
       </c>
       <c r="C17" t="n">
-        <v>4593.90489999998</v>
+        <v>441.7</v>
       </c>
       <c r="D17" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -3500,17 +5701,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20152400097</v>
+        <v>19631200065</v>
       </c>
       <c r="C18" t="n">
-        <v>5251.351200000026</v>
+        <v>465.7</v>
       </c>
       <c r="D18" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -3539,17 +5740,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20142400098</v>
+        <v>19621200066</v>
       </c>
       <c r="C19" t="n">
-        <v>3907.871117000042</v>
+        <v>340</v>
       </c>
       <c r="D19" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3578,17 +5779,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20132400099</v>
+        <v>19601200068</v>
       </c>
       <c r="C20" t="n">
-        <v>3468.728360000041</v>
+        <v>62.8</v>
       </c>
       <c r="D20" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -3617,17 +5818,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20122400101</v>
+        <v>19581200069</v>
       </c>
       <c r="C21" t="n">
-        <v>3969.104243000032</v>
+        <v>95.7</v>
       </c>
       <c r="D21" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -3656,17 +5857,17 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20112400102</v>
+        <v>19571200070</v>
       </c>
       <c r="C22" t="n">
-        <v>2785.43162000001</v>
+        <v>70.3</v>
       </c>
       <c r="D22" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -3695,17 +5896,17 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20102400103</v>
+        <v>19561200071</v>
       </c>
       <c r="C23" t="n">
-        <v>2104.219086999985</v>
+        <v>390.7</v>
       </c>
       <c r="D23" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -3734,17 +5935,17 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20092400104</v>
+        <v>19531200072</v>
       </c>
       <c r="C24" t="n">
-        <v>1734.347213999992</v>
+        <v>339.2</v>
       </c>
       <c r="D24" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3773,17 +5974,17 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20082400105</v>
+        <v>19521200073</v>
       </c>
       <c r="C25" t="n">
-        <v>1087.143895999995</v>
+        <v>57.4</v>
       </c>
       <c r="D25" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3812,17 +6013,17 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20072400106</v>
+        <v>19511200074</v>
       </c>
       <c r="C26" t="n">
-        <v>2049.836699999993</v>
+        <v>111.5</v>
       </c>
       <c r="D26" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3851,17 +6052,17 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20062400107</v>
+        <v>19491200075</v>
       </c>
       <c r="C27" t="n">
-        <v>751.4120000000005</v>
+        <v>244.1</v>
       </c>
       <c r="D27" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3890,17 +6091,17 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20052400108</v>
+        <v>19461200076</v>
       </c>
       <c r="C28" t="n">
-        <v>1340.202199999995</v>
+        <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3929,17 +6130,17 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20042400109</v>
+        <v>19421200077</v>
       </c>
       <c r="C29" t="n">
-        <v>1659.914999999992</v>
+        <v>84</v>
       </c>
       <c r="D29" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3968,17 +6169,17 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20032400110</v>
+        <v>19411200079</v>
       </c>
       <c r="C30" t="n">
-        <v>1287.459599999997</v>
+        <v>220</v>
       </c>
       <c r="D30" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -4007,17 +6208,17 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20022400112</v>
+        <v>19401200080</v>
       </c>
       <c r="C31" t="n">
-        <v>1434.670999999991</v>
+        <v>91.5</v>
       </c>
       <c r="D31" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -4046,17 +6247,17 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20012400113</v>
+        <v>19361200081</v>
       </c>
       <c r="C32" t="n">
-        <v>1773.431999999988</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -4085,17 +6286,17 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20002400114</v>
+        <v>19301200082</v>
       </c>
       <c r="C33" t="n">
-        <v>1975.231089999979</v>
+        <v>104.8</v>
       </c>
       <c r="D33" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -4124,17 +6325,17 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>19992400115</v>
+        <v>19251200083</v>
       </c>
       <c r="C34" t="n">
-        <v>1648.599299999983</v>
+        <v>130</v>
       </c>
       <c r="D34" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -4163,17 +6364,17 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19982400116</v>
+        <v>19221200084</v>
       </c>
       <c r="C35" t="n">
-        <v>853.3870000000011</v>
+        <v>164</v>
       </c>
       <c r="D35" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -4202,17 +6403,17 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19972400117</v>
+        <v>19201200085</v>
       </c>
       <c r="C36" t="n">
-        <v>564.2280000000012</v>
+        <v>183.55</v>
       </c>
       <c r="D36" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WindOn</t>
+          <t>Undefined</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4241,10 +6442,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>19962400118</v>
+        <v>20202400092</v>
       </c>
       <c r="C37" t="n">
-        <v>251.9353999999998</v>
+        <v>400</v>
       </c>
       <c r="D37" t="n">
         <v>1.35</v>
@@ -4280,17 +6481,17 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20192300124</v>
+        <v>20192400093</v>
       </c>
       <c r="C38" t="n">
-        <v>1130.5</v>
+        <v>554.6</v>
       </c>
       <c r="D38" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4319,17 +6520,17 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20182300125</v>
+        <v>20182400094</v>
       </c>
       <c r="C39" t="n">
-        <v>952</v>
+        <v>577</v>
       </c>
       <c r="D39" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4358,17 +6559,17 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20172300126</v>
+        <v>20172400095</v>
       </c>
       <c r="C40" t="n">
-        <v>1455</v>
+        <v>888.5916000000008</v>
       </c>
       <c r="D40" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4397,17 +6598,17 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20162300127</v>
+        <v>20162400096</v>
       </c>
       <c r="C41" t="n">
-        <v>735</v>
+        <v>4593.90489999998</v>
       </c>
       <c r="D41" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4436,17 +6637,17 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20152300128</v>
+        <v>20152400097</v>
       </c>
       <c r="C42" t="n">
-        <v>1622</v>
+        <v>5251.351200000026</v>
       </c>
       <c r="D42" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4475,17 +6676,17 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20142300129</v>
+        <v>20142400098</v>
       </c>
       <c r="C43" t="n">
-        <v>726</v>
+        <v>3907.871117000042</v>
       </c>
       <c r="D43" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4514,17 +6715,17 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20132300130</v>
+        <v>20132400099</v>
       </c>
       <c r="C44" t="n">
-        <v>2502</v>
+        <v>3468.728360000041</v>
       </c>
       <c r="D44" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4553,17 +6754,17 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20122300131</v>
+        <v>20122400101</v>
       </c>
       <c r="C45" t="n">
-        <v>401</v>
+        <v>3969.104243000032</v>
       </c>
       <c r="D45" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4592,17 +6793,17 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20112300132</v>
+        <v>20112400102</v>
       </c>
       <c r="C46" t="n">
-        <v>400</v>
+        <v>2785.43162000001</v>
       </c>
       <c r="D46" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4631,17 +6832,17 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20082300135</v>
+        <v>20102400103</v>
       </c>
       <c r="C47" t="n">
-        <v>108.3</v>
+        <v>2104.219086999985</v>
       </c>
       <c r="D47" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4670,17 +6871,17 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20062300136</v>
+        <v>20092400104</v>
       </c>
       <c r="C48" t="n">
-        <v>240</v>
+        <v>1734.347213999992</v>
       </c>
       <c r="D48" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>WindOff</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4709,15 +6910,17 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20202100137</v>
+        <v>20082400105</v>
       </c>
       <c r="C49" t="n">
-        <v>251.8</v>
-      </c>
-      <c r="D49" t="inlineStr"/>
+        <v>1087.143895999995</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4746,15 +6949,17 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20192100138</v>
+        <v>20072400106</v>
       </c>
       <c r="C50" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
+        <v>2049.836699999993</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4783,15 +6988,17 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20182100139</v>
+        <v>20062400107</v>
       </c>
       <c r="C51" t="n">
-        <v>414.723</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
+        <v>751.4120000000005</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4820,15 +7027,17 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20172100140</v>
+        <v>20052400108</v>
       </c>
       <c r="C52" t="n">
-        <v>3311.82512350009</v>
-      </c>
-      <c r="D52" t="inlineStr"/>
+        <v>1340.202199999995</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4857,15 +7066,17 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20162100141</v>
+        <v>20042400109</v>
       </c>
       <c r="C53" t="n">
-        <v>6222.270852000401</v>
-      </c>
-      <c r="D53" t="inlineStr"/>
+        <v>1659.914999999992</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4894,15 +7105,17 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20152100142</v>
+        <v>20032400110</v>
       </c>
       <c r="C54" t="n">
-        <v>1688.32281700176</v>
-      </c>
-      <c r="D54" t="inlineStr"/>
+        <v>1287.459599999997</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4931,15 +7144,17 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20142100143</v>
+        <v>20022400112</v>
       </c>
       <c r="C55" t="n">
-        <v>1467.604103002783</v>
-      </c>
-      <c r="D55" t="inlineStr"/>
+        <v>1434.670999999991</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4968,15 +7183,17 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20132100144</v>
+        <v>20012400113</v>
       </c>
       <c r="C56" t="n">
-        <v>1387.194197003628</v>
-      </c>
-      <c r="D56" t="inlineStr"/>
+        <v>1773.431999999988</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -5005,15 +7222,17 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20122100146</v>
+        <v>20002400114</v>
       </c>
       <c r="C57" t="n">
-        <v>1732.597611001665</v>
-      </c>
-      <c r="D57" t="inlineStr"/>
+        <v>1975.231089999979</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5042,15 +7261,17 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20112100147</v>
+        <v>19992400115</v>
       </c>
       <c r="C58" t="n">
-        <v>3084.73933250188</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
+        <v>1648.599299999983</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -5079,15 +7300,17 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20102100148</v>
+        <v>19982400116</v>
       </c>
       <c r="C59" t="n">
-        <v>6784.098386973769</v>
-      </c>
-      <c r="D59" t="inlineStr"/>
+        <v>853.3870000000011</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -5116,15 +7339,17 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>20092100149</v>
+        <v>19972400117</v>
       </c>
       <c r="C60" t="n">
-        <v>9295.344562513454</v>
-      </c>
-      <c r="D60" t="inlineStr"/>
+        <v>564.2280000000012</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -5153,15 +7378,17 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20082100150</v>
+        <v>19962400118</v>
       </c>
       <c r="C61" t="n">
-        <v>7475.485288501332</v>
-      </c>
-      <c r="D61" t="inlineStr"/>
+        <v>251.9353999999998</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5190,15 +7417,17 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20072100151</v>
+        <v>19952400119</v>
       </c>
       <c r="C62" t="n">
-        <v>4341.280789791133</v>
-      </c>
-      <c r="D62" t="inlineStr"/>
+        <v>170.8699999999997</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5227,15 +7456,17 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20062100152</v>
+        <v>19942400120</v>
       </c>
       <c r="C63" t="n">
-        <v>1924.091949500588</v>
-      </c>
-      <c r="D63" t="inlineStr"/>
+        <v>157.8950399999997</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5264,15 +7495,17 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20052100153</v>
+        <v>19932400121</v>
       </c>
       <c r="C64" t="n">
-        <v>1221.046400499492</v>
-      </c>
-      <c r="D64" t="inlineStr"/>
+        <v>172.6729999999995</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5301,15 +7534,17 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20042100154</v>
+        <v>19922400123</v>
       </c>
       <c r="C65" t="n">
-        <v>829.7290730002117</v>
-      </c>
-      <c r="D65" t="inlineStr"/>
+        <v>133.46792</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.35</v>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOn</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5338,15 +7573,17 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20032100155</v>
+        <v>20192300124</v>
       </c>
       <c r="C66" t="n">
-        <v>907.4490049999474</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
+        <v>1130.5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5375,15 +7612,17 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20022100157</v>
+        <v>20182300125</v>
       </c>
       <c r="C67" t="n">
-        <v>633.0435090000258</v>
-      </c>
-      <c r="D67" t="inlineStr"/>
+        <v>952</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5412,15 +7651,17 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20012100158</v>
+        <v>20172300126</v>
       </c>
       <c r="C68" t="n">
-        <v>122.1209029997136</v>
-      </c>
-      <c r="D68" t="inlineStr"/>
+        <v>1455</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5449,15 +7690,17 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20002100159</v>
+        <v>20162300127</v>
       </c>
       <c r="C69" t="n">
-        <v>93.42517899995289</v>
-      </c>
-      <c r="D69" t="inlineStr"/>
+        <v>735</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2.7</v>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>OtherPV</t>
+          <t>WindOff</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5486,33 +7729,1083 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>20152300128</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1622</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>20142300129</v>
+      </c>
+      <c r="C71" t="n">
+        <v>726</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>20132300130</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2502</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>20122300131</v>
+      </c>
+      <c r="C73" t="n">
+        <v>401</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>20112300132</v>
+      </c>
+      <c r="C74" t="n">
+        <v>400</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>20082300135</v>
+      </c>
+      <c r="C75" t="n">
+        <v>108.3</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>20062300136</v>
+      </c>
+      <c r="C76" t="n">
+        <v>240</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>WindOff</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>20202100137</v>
+      </c>
+      <c r="C77" t="n">
+        <v>251.8</v>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>20192100138</v>
+      </c>
+      <c r="C78" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>20182100139</v>
+      </c>
+      <c r="C79" t="n">
+        <v>414.723</v>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="7" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>20172100140</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3311.82512350009</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="7" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>20162100141</v>
+      </c>
+      <c r="C81" t="n">
+        <v>6222.270852000401</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="7" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>20152100142</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1688.32281700176</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="7" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>20142100143</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1467.604103002783</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>20132100144</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1387.194197003628</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="7" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>20122100146</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1732.597611001665</v>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="7" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>20112100147</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3084.73933250188</v>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="7" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>20102100148</v>
+      </c>
+      <c r="C87" t="n">
+        <v>6784.098386973769</v>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="7" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>20092100149</v>
+      </c>
+      <c r="C88" t="n">
+        <v>9295.344562513454</v>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="7" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>20082100150</v>
+      </c>
+      <c r="C89" t="n">
+        <v>7475.485288501332</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="7" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>20072100151</v>
+      </c>
+      <c r="C90" t="n">
+        <v>4341.280789791133</v>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="7" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>20062100152</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1924.091949500588</v>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="7" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>20052100153</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1221.046400499492</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="7" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>20042100154</v>
+      </c>
+      <c r="C93" t="n">
+        <v>829.7290730002117</v>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="7" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>20032100155</v>
+      </c>
+      <c r="C94" t="n">
+        <v>907.4490049999474</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="7" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>20022100157</v>
+      </c>
+      <c r="C95" t="n">
+        <v>633.0435090000258</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="7" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>20012100158</v>
+      </c>
+      <c r="C96" t="n">
+        <v>122.1209029997136</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="7" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>20002100159</v>
+      </c>
+      <c r="C97" t="n">
+        <v>93.42517899995289</v>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>OtherPV</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="7" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
         <v>19992100160</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C98" t="n">
         <v>171.9239930052555</v>
       </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
         <is>
           <t>OtherPV</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5956,7 +9249,7 @@
           <t>StartTime</t>
         </is>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9" t="n">
         <v>43830.99861111111</v>
       </c>
     </row>
@@ -5966,7 +9259,7 @@
           <t>StopTime</t>
         </is>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>44195.99861111111</v>
       </c>
     </row>
